--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Bit Rate</t>
   </si>
@@ -43,12 +43,57 @@
   </si>
   <si>
     <t>Medium FECFRAME</t>
+  </si>
+  <si>
+    <t>QPSK code rate 1/4</t>
+  </si>
+  <si>
+    <t>QPSK code rate 1/3</t>
+  </si>
+  <si>
+    <t>QPSK code rate 2/5</t>
+  </si>
+  <si>
+    <t>QPSK code rate 1/2</t>
+  </si>
+  <si>
+    <t>QPSK code rate 3/5</t>
+  </si>
+  <si>
+    <t>QPSK code rate 2/3</t>
+  </si>
+  <si>
+    <t>QPSK code rate 4/5</t>
+  </si>
+  <si>
+    <t>QPSK code rate 3/4</t>
+  </si>
+  <si>
+    <t>QPSK code rate 5/6</t>
+  </si>
+  <si>
+    <t>QPSK code rate 8/9</t>
+  </si>
+  <si>
+    <t>QPSK code rate 9/10</t>
+  </si>
+  <si>
+    <t>QPSK code rate 13/25</t>
+  </si>
+  <si>
+    <t>QPSK code rate 9/20</t>
+  </si>
+  <si>
+    <t>QPSK code rate 11/20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#\ ???/???"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -74,12 +119,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,17 +148,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -464,12 +532,97 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>64800</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B30">
         <v>16200</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -481,17 +634,6 @@
         <v>32400</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>64800</v>
-      </c>
-      <c r="C34" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Bit Rate</t>
   </si>
@@ -85,6 +85,63 @@
   </si>
   <si>
     <t>QPSK code rate 11/20</t>
+  </si>
+  <si>
+    <t>This means DVB-S2</t>
+  </si>
+  <si>
+    <t>This means DVB-S2X</t>
+  </si>
+  <si>
+    <t>8PSK code rate 3/5</t>
+  </si>
+  <si>
+    <t>8PSK code rate 2/3</t>
+  </si>
+  <si>
+    <t>8PSK code rate 3/4</t>
+  </si>
+  <si>
+    <t>8PSK code rate 5/6</t>
+  </si>
+  <si>
+    <t>8PSK code rate 8/9</t>
+  </si>
+  <si>
+    <t>8PSK code rate 9/10</t>
+  </si>
+  <si>
+    <t>8PSK code rate 23/36</t>
+  </si>
+  <si>
+    <t>8PSK code rate 25/36</t>
+  </si>
+  <si>
+    <t>8PSK code rate 13/18</t>
+  </si>
+  <si>
+    <t>8APSK-L code rate 5/9</t>
+  </si>
+  <si>
+    <t>8APSK-L code rate 26/45</t>
+  </si>
+  <si>
+    <t>16APSK 2/3</t>
+  </si>
+  <si>
+    <t>16APSK 3/4</t>
+  </si>
+  <si>
+    <t>16APSK 4/5</t>
+  </si>
+  <si>
+    <t>16APSK 5/6</t>
+  </si>
+  <si>
+    <t>16APSK  8/9</t>
+  </si>
+  <si>
+    <t>16APSK 9/10</t>
   </si>
 </sst>
 </file>
@@ -157,11 +214,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -499,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -511,129 +569,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>64800</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="B19" s="1">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="B20" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="B21" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="B22" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="B23" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.57777777777777772</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="B30">
+      <c r="B45">
         <v>16200</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>7</v>
       </c>
-      <c r="B32">
+      <c r="B47">
         <v>32400</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C47" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Bit Rate</t>
   </si>
@@ -142,6 +142,42 @@
   </si>
   <si>
     <t>16APSK 9/10</t>
+  </si>
+  <si>
+    <t>16APSK-L 26/45</t>
+  </si>
+  <si>
+    <t>16APSK-L 3/5</t>
+  </si>
+  <si>
+    <t>16APSK-L 28/45</t>
+  </si>
+  <si>
+    <t>16APSK-L 23/36</t>
+  </si>
+  <si>
+    <t>16APSK-L 25/36</t>
+  </si>
+  <si>
+    <t>16APSK-L 13/18</t>
+  </si>
+  <si>
+    <t>16APSK-L 7/9</t>
+  </si>
+  <si>
+    <t>16APSK-L 77/90</t>
+  </si>
+  <si>
+    <t>16APSK-L 5/9</t>
+  </si>
+  <si>
+    <t>16APSK-L 8/15</t>
+  </si>
+  <si>
+    <t>16APSK-L 1/2</t>
+  </si>
+  <si>
+    <t>16APSK-L 2/3</t>
   </si>
 </sst>
 </file>
@@ -557,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -789,7 +825,7 @@
         <v>0.69444444444444442</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -797,7 +833,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -805,7 +841,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -813,10 +849,10 @@
         <v>0.57777777777777772</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -824,7 +860,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -832,7 +868,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -840,7 +876,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -848,7 +884,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -856,7 +892,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -864,25 +900,129 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.57777777777777772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.85555555555555551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
         <v>4</v>
       </c>
-      <c r="B45">
+      <c r="B62">
         <v>16200</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
         <v>7</v>
       </c>
-      <c r="B47">
+      <c r="B64">
         <v>32400</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C64" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Bit Rate</t>
   </si>
@@ -126,58 +126,85 @@
     <t>8APSK-L code rate 26/45</t>
   </si>
   <si>
-    <t>16APSK 2/3</t>
-  </si>
-  <si>
-    <t>16APSK 3/4</t>
-  </si>
-  <si>
-    <t>16APSK 4/5</t>
-  </si>
-  <si>
-    <t>16APSK 5/6</t>
-  </si>
-  <si>
-    <t>16APSK  8/9</t>
-  </si>
-  <si>
-    <t>16APSK 9/10</t>
-  </si>
-  <si>
-    <t>16APSK-L 26/45</t>
-  </si>
-  <si>
-    <t>16APSK-L 3/5</t>
-  </si>
-  <si>
-    <t>16APSK-L 28/45</t>
-  </si>
-  <si>
-    <t>16APSK-L 23/36</t>
-  </si>
-  <si>
-    <t>16APSK-L 25/36</t>
-  </si>
-  <si>
-    <t>16APSK-L 13/18</t>
-  </si>
-  <si>
-    <t>16APSK-L 7/9</t>
-  </si>
-  <si>
-    <t>16APSK-L 77/90</t>
-  </si>
-  <si>
-    <t>16APSK-L 5/9</t>
-  </si>
-  <si>
-    <t>16APSK-L 8/15</t>
-  </si>
-  <si>
-    <t>16APSK-L 1/2</t>
-  </si>
-  <si>
-    <t>16APSK-L 2/3</t>
+    <t>32APSK code rate 3/4</t>
+  </si>
+  <si>
+    <t>16APSK code rate 2/3</t>
+  </si>
+  <si>
+    <t>16APSK code rate 3/4</t>
+  </si>
+  <si>
+    <t>16APSK code rate 4/5</t>
+  </si>
+  <si>
+    <t>16APSK code rate 5/6</t>
+  </si>
+  <si>
+    <t>16APSK  code rate 8/9</t>
+  </si>
+  <si>
+    <t>16APSK code rate 9/10</t>
+  </si>
+  <si>
+    <t>16APSK-L code rate 26/45</t>
+  </si>
+  <si>
+    <t>16APSK-L code rate 3/5</t>
+  </si>
+  <si>
+    <t>16APSK-L code rate 28/45</t>
+  </si>
+  <si>
+    <t>16APSK-L code rate 23/36</t>
+  </si>
+  <si>
+    <t>16APSK-L code rate 25/36</t>
+  </si>
+  <si>
+    <t>16APSK-L code rate 13/18</t>
+  </si>
+  <si>
+    <t>16APSK-L code rate 7/9</t>
+  </si>
+  <si>
+    <t>16APSK-L code rate 77/90</t>
+  </si>
+  <si>
+    <t>16APSK-Lcode rate  5/9</t>
+  </si>
+  <si>
+    <t>16APSK-L code rate 8/15</t>
+  </si>
+  <si>
+    <t>16APSK-L code rate 1/2</t>
+  </si>
+  <si>
+    <t>16APSK-L code rate 2/3</t>
+  </si>
+  <si>
+    <t>32APSK code rate 4/5</t>
+  </si>
+  <si>
+    <t>32APSK code rate 5/6</t>
+  </si>
+  <si>
+    <t>32APSK code rate 8/9</t>
+  </si>
+  <si>
+    <t>32APSK code rate 9/10</t>
+  </si>
+  <si>
+    <t>32APSK-L code rate 32/45</t>
+  </si>
+  <si>
+    <t>32APSK-L code rate 11/15</t>
+  </si>
+  <si>
+    <t>32APSK-L code rate 7/9</t>
+  </si>
+  <si>
+    <t>32APSK-L code rate 2/3</t>
   </si>
 </sst>
 </file>
@@ -250,11 +277,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -593,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -854,7 +882,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>0.66666666666666663</v>
@@ -862,15 +890,15 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
-        <v>37</v>
+      <c r="A39" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>0.8</v>
@@ -878,7 +906,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>0.83333333333333337</v>
@@ -886,7 +914,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>0.88888888888888884</v>
@@ -894,7 +922,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>0.9</v>
@@ -902,7 +930,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>0.57777777777777772</v>
@@ -910,7 +938,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>0.6</v>
@@ -918,7 +946,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>0.62222222222222223</v>
@@ -926,7 +954,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>0.63888888888888884</v>
@@ -934,7 +962,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>0.69444444444444442</v>
@@ -942,87 +970,234 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>0.85555555555555551</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B54" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>4</v>
       </c>
-      <c r="B62">
+      <c r="B80">
         <v>16200</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>7</v>
       </c>
-      <c r="B64">
+      <c r="B82">
         <v>32400</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C82" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -19,20 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
-  <si>
-    <t>Bit Rate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
   <si>
     <t>Symbol Rate</t>
   </si>
   <si>
-    <t>Mod Order</t>
-  </si>
-  <si>
-    <t>Code Rate</t>
-  </si>
-  <si>
     <t>Short FECFRAME</t>
   </si>
   <si>
@@ -195,6 +186,12 @@
     <t>32APSK code rate 9/10</t>
   </si>
   <si>
+    <t>32APSK code rate 32/45</t>
+  </si>
+  <si>
+    <t>32APSK code rate 2/3</t>
+  </si>
+  <si>
     <t>32APSK-L code rate 32/45</t>
   </si>
   <si>
@@ -205,6 +202,138 @@
   </si>
   <si>
     <t>32APSK-L code rate 2/3</t>
+  </si>
+  <si>
+    <t>64APSK code rate 11/15</t>
+  </si>
+  <si>
+    <t>64APSK code rate 7/9</t>
+  </si>
+  <si>
+    <t>64APSK code rate 4/5</t>
+  </si>
+  <si>
+    <t>64APSK code rate 5/6</t>
+  </si>
+  <si>
+    <t>64APSK-L code rate 32/45</t>
+  </si>
+  <si>
+    <t>128APSK code rate 3/4</t>
+  </si>
+  <si>
+    <t>128APSK code rate 7/9</t>
+  </si>
+  <si>
+    <t>256APSK code rate 32/45</t>
+  </si>
+  <si>
+    <t>256APSK code rate 3/4</t>
+  </si>
+  <si>
+    <t>256APSK-L code rate 29/45</t>
+  </si>
+  <si>
+    <t>256APSK-L code rate 2/3</t>
+  </si>
+  <si>
+    <t>256APSK-L code rate 31/45</t>
+  </si>
+  <si>
+    <t>256APSK-L code rate 11/15</t>
+  </si>
+  <si>
+    <t>QPSK code rate 11/45</t>
+  </si>
+  <si>
+    <t>QPSK code rate 4/15</t>
+  </si>
+  <si>
+    <t>QPSK code rate 14/45</t>
+  </si>
+  <si>
+    <t>QPSK code rate 7/15</t>
+  </si>
+  <si>
+    <t>QPSK code rate 8/15</t>
+  </si>
+  <si>
+    <t>QPSK code rate 32/45</t>
+  </si>
+  <si>
+    <t>8PSK code rate 7/15</t>
+  </si>
+  <si>
+    <t>8PSK code rate 8/15</t>
+  </si>
+  <si>
+    <t>8PSK code rate 26/45</t>
+  </si>
+  <si>
+    <t>8PSK code rate 32/45</t>
+  </si>
+  <si>
+    <t>16APSK code rate 8/9</t>
+  </si>
+  <si>
+    <t>16APSK code rate 7/15</t>
+  </si>
+  <si>
+    <t>16APSK code rate 8/15</t>
+  </si>
+  <si>
+    <t>16APSK code rate 26/45</t>
+  </si>
+  <si>
+    <t>16APSK code rate 3/5</t>
+  </si>
+  <si>
+    <t>16APSK code rate 32/45</t>
+  </si>
+  <si>
+    <t>VL-SNR</t>
+  </si>
+  <si>
+    <t>BPSK code rate 1/5</t>
+  </si>
+  <si>
+    <t>BPSK code rate 11/45</t>
+  </si>
+  <si>
+    <t>BPSK code rate 1/3</t>
+  </si>
+  <si>
+    <t>QPSK code rate 2/9</t>
+  </si>
+  <si>
+    <t>BPSK code rate 4/15</t>
+  </si>
+  <si>
+    <t>BPSK-Spread2 code rate 1/2</t>
+  </si>
+  <si>
+    <t>BPSK-Spread2 code rate 11/45</t>
+  </si>
+  <si>
+    <t>Modulation Order</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>Bit Rate is</t>
+  </si>
+  <si>
+    <t>Number of</t>
+  </si>
+  <si>
+    <t>Users at fixed bitrate</t>
+  </si>
+  <si>
+    <t>If using fixed bit rate per user:</t>
   </si>
 </sst>
 </file>
@@ -214,8 +343,16 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -268,35 +405,378 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="13" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QPSK Long FECFRAME</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ???/???</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.44E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.92E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.13333333333333E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.16E7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.248E7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.08E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.32E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>8PSK long FECFRAME</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ???/???</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.638888888888889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.722222222222222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.577777777777778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$25:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.88E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.26666666666667E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.32E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.06666666666667E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.33333333333333E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.46666666666667E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.66666666666667E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.77333333333333E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2112827768"/>
+        <c:axId val="-2112829192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2112827768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#\ ???/???" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2112829192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2112829192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2112827768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,589 +1101,2337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B5">
+        <f>6*10^6</f>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>5</v>
       </c>
       <c r="B9">
         <v>64800</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>0.25</v>
       </c>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="10">
+        <f>$B$5*D10*B10</f>
+        <v>6000000</v>
+      </c>
+      <c r="F10" s="11">
+        <f>E10/$B$4</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ref="E11:E23" si="0">$B$5*D11*B11</f>
+        <v>8000000</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" ref="F11:F74" si="1">E11/$B$4</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>14400000</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>16000000</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>18000000</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>19200000</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="1"/>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>20000000</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1">
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>21333333.333333332</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
+        <v>4266.6666666666661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>21600000</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="1"/>
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>12480000</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="1"/>
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>10800000</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="1"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>13200000.000000002</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="1"/>
+        <v>2640.0000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25" s="10">
+        <f>$B$5*B25*D25</f>
+        <v>28800000</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" ref="E26:E89" si="2">$B$5*B26*D26</f>
+        <v>32000000</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="1"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="2"/>
+        <v>36000000</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="1"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="2"/>
+        <v>40000000</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1">
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="2"/>
+        <v>42666666.666666664</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="1"/>
+        <v>8533.3333333333321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="2"/>
+        <v>43200000</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="1"/>
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
         <v>0.63888888888888884</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="2"/>
+        <v>30666666.666666664</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="1"/>
+        <v>6133.333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1">
         <v>0.69444444444444442</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="2"/>
+        <v>33333333.333333332</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="1"/>
+        <v>6666.6666666666661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1">
         <v>0.72222222222222221</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="2"/>
+        <v>34666666.666666664</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="1"/>
+        <v>6933.333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1">
         <v>0.55555555555555558</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="2"/>
+        <v>26666666.666666668</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="1"/>
+        <v>5333.3333333333339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1">
         <v>0.57777777777777772</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="2"/>
+        <v>27733333.333333332</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="1"/>
+        <v>5546.6666666666661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="2"/>
+        <v>64000000</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="1"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="2"/>
+        <v>72000000</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="2"/>
+        <v>76800000</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="1"/>
+        <v>15360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="2"/>
+        <v>80000000</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="1"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1">
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="2"/>
+        <v>85333333.333333328</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="1"/>
+        <v>17066.666666666664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="2"/>
+        <v>86400000</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" si="1"/>
+        <v>17280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1">
         <v>0.57777777777777772</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" si="2"/>
+        <v>55466666.666666664</v>
+      </c>
+      <c r="F43" s="11">
+        <f t="shared" si="1"/>
+        <v>11093.333333333332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="2"/>
+        <v>57600000</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="1"/>
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1">
         <v>0.62222222222222223</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" si="2"/>
+        <v>59733333.333333336</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" si="1"/>
+        <v>11946.666666666668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1">
         <v>0.63888888888888884</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="2"/>
+        <v>61333333.333333328</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="1"/>
+        <v>12266.666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1">
         <v>0.69444444444444442</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" si="2"/>
+        <v>66666666.666666664</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="1"/>
+        <v>13333.333333333332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1">
         <v>0.72222222222222221</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="D48">
+        <v>16</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="2"/>
+        <v>69333333.333333328</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="1"/>
+        <v>13866.666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1">
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" si="2"/>
+        <v>74666666.666666672</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="1"/>
+        <v>14933.333333333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1">
         <v>0.85555555555555551</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="2"/>
+        <v>82133333.333333328</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" si="1"/>
+        <v>16426.666666666664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1">
         <v>0.55555555555555558</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" si="2"/>
+        <v>53333333.333333336</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="1"/>
+        <v>10666.666666666668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1">
         <v>0.53333333333333333</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52" s="10">
+        <f t="shared" si="2"/>
+        <v>51200000</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" si="1"/>
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="D53">
+        <v>16</v>
+      </c>
+      <c r="E53" s="10">
+        <f t="shared" si="2"/>
+        <v>48000000</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="1"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B54" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54" s="10">
+        <f t="shared" si="2"/>
+        <v>57600000</v>
+      </c>
+      <c r="F54" s="11">
+        <f t="shared" si="1"/>
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55" s="10">
+        <f t="shared" si="2"/>
+        <v>64000000</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="1"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B57" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="D57">
+        <v>32</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" si="2"/>
+        <v>144000000</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="1"/>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B58" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="D58">
+        <v>32</v>
+      </c>
+      <c r="E58" s="10">
+        <f t="shared" si="2"/>
+        <v>153600000</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="1"/>
+        <v>30720</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="D59">
+        <v>32</v>
+      </c>
+      <c r="E59" s="10">
+        <f t="shared" si="2"/>
+        <v>160000000</v>
+      </c>
+      <c r="F59" s="11">
+        <f t="shared" si="1"/>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1">
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="D60">
+        <v>32</v>
+      </c>
+      <c r="E60" s="10">
+        <f t="shared" si="2"/>
+        <v>170666666.66666666</v>
+      </c>
+      <c r="F60" s="11">
+        <f t="shared" si="1"/>
+        <v>34133.333333333328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B61" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="D61">
+        <v>32</v>
+      </c>
+      <c r="E61" s="10">
+        <f t="shared" si="2"/>
+        <v>172800000</v>
+      </c>
+      <c r="F61" s="11">
+        <f t="shared" si="1"/>
+        <v>34560</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D62">
+        <v>32</v>
+      </c>
+      <c r="E62" s="10">
+        <f t="shared" si="2"/>
+        <v>136533333.33333334</v>
+      </c>
+      <c r="F62" s="11">
+        <f t="shared" si="1"/>
+        <v>27306.666666666668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="1">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D63">
+        <v>32</v>
+      </c>
+      <c r="E63" s="10">
+        <f t="shared" si="2"/>
+        <v>140800000</v>
+      </c>
+      <c r="F63" s="11">
+        <f t="shared" si="1"/>
+        <v>28160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="1">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D64">
+        <v>32</v>
+      </c>
+      <c r="E64" s="10">
+        <f t="shared" si="2"/>
+        <v>149333333.33333334</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="1"/>
+        <v>29866.666666666668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="B65" s="1">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>32</v>
+      </c>
+      <c r="E65" s="10">
+        <f t="shared" si="2"/>
+        <v>128000000</v>
+      </c>
+      <c r="F65" s="11">
+        <f t="shared" si="1"/>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="4"/>
       <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="4"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B67" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="4"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D67">
+        <v>64</v>
+      </c>
+      <c r="E67" s="10">
+        <f t="shared" si="2"/>
+        <v>281600000</v>
+      </c>
+      <c r="F67" s="11">
+        <f t="shared" si="1"/>
+        <v>56320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B68" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="4"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D68">
+        <v>64</v>
+      </c>
+      <c r="E68" s="10">
+        <f t="shared" si="2"/>
+        <v>298666666.66666669</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="1"/>
+        <v>59733.333333333336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B69" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="D69">
+        <v>64</v>
+      </c>
+      <c r="E69" s="10">
+        <f t="shared" si="2"/>
+        <v>307200000</v>
+      </c>
+      <c r="F69" s="11">
+        <f t="shared" si="1"/>
+        <v>61440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="B70" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D70">
+        <v>64</v>
+      </c>
+      <c r="E70" s="10">
+        <f t="shared" si="2"/>
+        <v>320000000</v>
+      </c>
+      <c r="F70" s="11">
+        <f t="shared" si="1"/>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B71" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D71">
+        <v>64</v>
+      </c>
+      <c r="E71" s="10">
+        <f t="shared" si="2"/>
+        <v>273066666.66666669</v>
+      </c>
+      <c r="F71" s="11">
+        <f t="shared" si="1"/>
+        <v>54613.333333333336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="4"/>
-      <c r="B72" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="4"/>
+      <c r="B72" s="1"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B73" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.75</v>
+      </c>
+      <c r="D73">
+        <v>128</v>
+      </c>
+      <c r="E73" s="10">
+        <f t="shared" si="2"/>
+        <v>576000000</v>
+      </c>
+      <c r="F73" s="11">
+        <f t="shared" si="1"/>
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B74" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D74">
+        <v>128</v>
+      </c>
+      <c r="E74" s="10">
+        <f t="shared" si="2"/>
+        <v>597333333.33333337</v>
+      </c>
+      <c r="F74" s="11">
+        <f t="shared" si="1"/>
+        <v>119466.66666666667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B75" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D75">
+        <v>256</v>
+      </c>
+      <c r="E75" s="10">
+        <f t="shared" si="2"/>
+        <v>1092266666.6666667</v>
+      </c>
+      <c r="F75" s="11">
+        <f t="shared" ref="F75:F138" si="3">E75/$B$4</f>
+        <v>218453.33333333334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B76" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.75</v>
+      </c>
+      <c r="D76">
+        <v>256</v>
+      </c>
+      <c r="E76" s="10">
+        <f t="shared" si="2"/>
+        <v>1152000000</v>
+      </c>
+      <c r="F76" s="11">
+        <f t="shared" si="3"/>
+        <v>230400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B77" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="D77">
+        <v>256</v>
+      </c>
+      <c r="E77" s="10">
+        <f t="shared" si="2"/>
+        <v>989866666.66666675</v>
+      </c>
+      <c r="F77" s="11">
+        <f t="shared" si="3"/>
+        <v>197973.33333333334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B78" s="1">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="D78">
+        <v>256</v>
+      </c>
+      <c r="E78" s="10">
+        <f t="shared" si="2"/>
+        <v>1024000000</v>
+      </c>
+      <c r="F78" s="11">
+        <f t="shared" si="3"/>
+        <v>204800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="D79">
+        <v>256</v>
+      </c>
+      <c r="E79" s="10">
+        <f t="shared" si="2"/>
+        <v>1058133333.3333334</v>
+      </c>
+      <c r="F79" s="11">
+        <f t="shared" si="3"/>
+        <v>211626.66666666669</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D80">
+        <v>256</v>
+      </c>
+      <c r="E80" s="10">
+        <f t="shared" si="2"/>
+        <v>1126400000</v>
+      </c>
+      <c r="F80" s="11">
+        <f t="shared" si="3"/>
+        <v>225280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="4"/>
+      <c r="B81" s="1"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="11"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="E82" s="10"/>
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="1:6" s="9" customFormat="1">
+      <c r="A83" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="9">
+        <v>16200</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D84">
         <v>4</v>
       </c>
-      <c r="B80">
+      <c r="E84" s="10">
+        <f t="shared" si="2"/>
+        <v>6000000</v>
+      </c>
+      <c r="F84" s="11">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="2"/>
+        <v>8000000</v>
+      </c>
+      <c r="F85" s="11">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="2"/>
+        <v>9600000</v>
+      </c>
+      <c r="F86" s="11">
+        <f t="shared" si="3"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87" s="10">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="F87" s="11">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" s="10">
+        <f t="shared" si="2"/>
+        <v>14400000</v>
+      </c>
+      <c r="F88" s="11">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" s="10">
+        <f t="shared" si="2"/>
+        <v>16000000</v>
+      </c>
+      <c r="F89" s="11">
+        <f t="shared" si="3"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" ref="E90:E138" si="4">$B$5*B90*D90</f>
+        <v>18000000</v>
+      </c>
+      <c r="F90" s="11">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="4"/>
+        <v>19200000</v>
+      </c>
+      <c r="F91" s="11">
+        <f t="shared" si="3"/>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="4"/>
+        <v>20000000</v>
+      </c>
+      <c r="F92" s="11">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="6">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="4"/>
+        <v>21333333.333333332</v>
+      </c>
+      <c r="F93" s="11">
+        <f t="shared" si="3"/>
+        <v>4266.6666666666661</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" s="6">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="4"/>
+        <v>5866666.666666666</v>
+      </c>
+      <c r="F94" s="11">
+        <f t="shared" si="3"/>
+        <v>1173.3333333333333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="6">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="4"/>
+        <v>6400000</v>
+      </c>
+      <c r="F95" s="11">
+        <f t="shared" si="3"/>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="4"/>
+        <v>7466666.666666667</v>
+      </c>
+      <c r="F96" s="11">
+        <f t="shared" si="3"/>
+        <v>1493.3333333333335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" s="6">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="4"/>
+        <v>11200000</v>
+      </c>
+      <c r="F97" s="11">
+        <f t="shared" si="3"/>
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="6">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="4"/>
+        <v>12800000</v>
+      </c>
+      <c r="F98" s="11">
+        <f t="shared" si="3"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="6">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="4"/>
+        <v>17066666.666666668</v>
+      </c>
+      <c r="F99" s="11">
+        <f t="shared" si="3"/>
+        <v>3413.3333333333335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="B100" s="6"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="4"/>
+        <v>28800000</v>
+      </c>
+      <c r="F101" s="11">
+        <f t="shared" si="3"/>
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="4"/>
+        <v>32000000</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" si="3"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="4"/>
+        <v>36000000</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="3"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
+      <c r="E104" s="10">
+        <f t="shared" si="4"/>
+        <v>40000000</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="6">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D105">
+        <v>8</v>
+      </c>
+      <c r="E105" s="10">
+        <f t="shared" si="4"/>
+        <v>42666666.666666664</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" si="3"/>
+        <v>8533.3333333333321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" s="6">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D106">
+        <v>8</v>
+      </c>
+      <c r="E106" s="10">
+        <f t="shared" si="4"/>
+        <v>22400000</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="3"/>
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107" s="6">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D107">
+        <v>8</v>
+      </c>
+      <c r="E107" s="10">
+        <f t="shared" si="4"/>
+        <v>25600000</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="3"/>
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108" s="6">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="D108">
+        <v>8</v>
+      </c>
+      <c r="E108" s="10">
+        <f t="shared" si="4"/>
+        <v>27733333.333333332</v>
+      </c>
+      <c r="F108" s="11">
+        <f t="shared" si="3"/>
+        <v>5546.6666666666661</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" s="6">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D109">
+        <v>8</v>
+      </c>
+      <c r="E109" s="10">
+        <f t="shared" si="4"/>
+        <v>34133333.333333336</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="3"/>
+        <v>6826.666666666667</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="B110" s="6"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="11"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D111">
+        <v>16</v>
+      </c>
+      <c r="E111" s="10">
+        <f t="shared" si="4"/>
+        <v>64000000</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="3"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D112">
+        <v>16</v>
+      </c>
+      <c r="E112" s="10">
+        <f t="shared" si="4"/>
+        <v>72000000</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="3"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D113">
+        <v>16</v>
+      </c>
+      <c r="E113" s="10">
+        <f t="shared" si="4"/>
+        <v>76800000</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="3"/>
+        <v>15360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B114" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D114">
+        <v>16</v>
+      </c>
+      <c r="E114" s="10">
+        <f t="shared" si="4"/>
+        <v>80000000</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="3"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" s="6">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D115">
+        <v>16</v>
+      </c>
+      <c r="E115" s="10">
+        <f t="shared" si="4"/>
+        <v>85333333.333333328</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="3"/>
+        <v>17066.666666666664</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" s="6">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D116">
+        <v>16</v>
+      </c>
+      <c r="E116" s="10">
+        <f t="shared" si="4"/>
+        <v>44800000</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" si="3"/>
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" s="6">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D117">
+        <v>16</v>
+      </c>
+      <c r="E117" s="10">
+        <f t="shared" si="4"/>
+        <v>51200000</v>
+      </c>
+      <c r="F117" s="11">
+        <f t="shared" si="3"/>
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B118" s="6">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="D118">
+        <v>16</v>
+      </c>
+      <c r="E118" s="10">
+        <f t="shared" si="4"/>
+        <v>55466666.666666664</v>
+      </c>
+      <c r="F118" s="11">
+        <f t="shared" si="3"/>
+        <v>11093.333333333332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D119">
+        <v>16</v>
+      </c>
+      <c r="E119" s="10">
+        <f t="shared" si="4"/>
+        <v>57600000</v>
+      </c>
+      <c r="F119" s="11">
+        <f t="shared" si="3"/>
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120" s="6">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D120">
+        <v>16</v>
+      </c>
+      <c r="E120" s="10">
+        <f t="shared" si="4"/>
+        <v>68266666.666666672</v>
+      </c>
+      <c r="F120" s="11">
+        <f t="shared" si="3"/>
+        <v>13653.333333333334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="4"/>
+      <c r="B121" s="6"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="11"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B122" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D122">
+        <v>32</v>
+      </c>
+      <c r="E122" s="10">
+        <f t="shared" si="4"/>
+        <v>128000000</v>
+      </c>
+      <c r="F122" s="11">
+        <f t="shared" si="3"/>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B123" s="6">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D123">
+        <v>32</v>
+      </c>
+      <c r="E123" s="10">
+        <f t="shared" si="4"/>
+        <v>136533333.33333334</v>
+      </c>
+      <c r="F123" s="11">
+        <f t="shared" si="3"/>
+        <v>27306.666666666668</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="4"/>
+      <c r="B124" s="6"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="11"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="4"/>
+      <c r="B125" s="6"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="11"/>
+    </row>
+    <row r="126" spans="1:6" s="9" customFormat="1">
+      <c r="A126" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B126" s="8"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="11"/>
+    </row>
+    <row r="127" spans="1:6" s="9" customFormat="1">
+      <c r="A127" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="9">
+        <v>64800</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B128" s="6">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128" s="10">
+        <f t="shared" si="4"/>
+        <v>5333333.333333333</v>
+      </c>
+      <c r="F128" s="11">
+        <f t="shared" si="3"/>
+        <v>1066.6666666666665</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="9" customFormat="1">
+      <c r="A129" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="9">
+        <v>32400</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="11"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B130" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" s="10">
+        <f t="shared" si="4"/>
+        <v>2400000</v>
+      </c>
+      <c r="F130" s="11">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" s="6">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131" s="10">
+        <f t="shared" si="4"/>
+        <v>2933333.333333333</v>
+      </c>
+      <c r="F131" s="11">
+        <f t="shared" si="3"/>
+        <v>586.66666666666663</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="4" customFormat="1">
+      <c r="A132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B132" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D132" s="4">
+        <v>2</v>
+      </c>
+      <c r="E132" s="10">
+        <f t="shared" si="4"/>
+        <v>4000000</v>
+      </c>
+      <c r="F132" s="11">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="9" customFormat="1">
+      <c r="A133" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="9">
         <v>16200</v>
       </c>
-      <c r="C80" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82">
-        <v>32400</v>
-      </c>
-      <c r="C82" t="s">
-        <v>6</v>
+      <c r="C133" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="11"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B134" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D134" s="4">
+        <v>2</v>
+      </c>
+      <c r="E134" s="10">
+        <f t="shared" si="4"/>
+        <v>2400000</v>
+      </c>
+      <c r="F134" s="11">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B135" s="6">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D135" s="4">
+        <v>2</v>
+      </c>
+      <c r="E135" s="10">
+        <f t="shared" si="4"/>
+        <v>3200000</v>
+      </c>
+      <c r="F135" s="11">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B136" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D136" s="4">
+        <v>2</v>
+      </c>
+      <c r="E136" s="10">
+        <f t="shared" si="4"/>
+        <v>4000000</v>
+      </c>
+      <c r="F136" s="11">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B137" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D137" s="4">
+        <v>2</v>
+      </c>
+      <c r="E137" s="10">
+        <f t="shared" si="4"/>
+        <v>2400000</v>
+      </c>
+      <c r="F137" s="11">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B138" s="6">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="D138" s="4">
+        <v>2</v>
+      </c>
+      <c r="E138" s="10">
+        <f t="shared" si="4"/>
+        <v>2933333.333333333</v>
+      </c>
+      <c r="F138" s="11">
+        <f t="shared" si="3"/>
+        <v>586.66666666666663</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/documents/Engineering/Link_Budget/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="0" windowWidth="25600" windowHeight="16840" tabRatio="500"/>
+    <workbookView xWindow="14100" yWindow="960" windowWidth="32020" windowHeight="26120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
   <si>
     <t>Symbol Rate</t>
   </si>
@@ -330,10 +335,31 @@
     <t>Number of</t>
   </si>
   <si>
-    <t>Users at fixed bitrate</t>
-  </si>
-  <si>
-    <t>If using fixed bit rate per user:</t>
+    <t>Fixed Number of Users</t>
+  </si>
+  <si>
+    <t>Bits Available To</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>operators</t>
+  </si>
+  <si>
+    <t>baud</t>
+  </si>
+  <si>
+    <t>Users at Fixed Bit Rate</t>
+  </si>
+  <si>
+    <t>If using a fixed bit rate per user:</t>
+  </si>
+  <si>
+    <t>If using a fixed number of users:</t>
+  </si>
+  <si>
+    <t>This means you can change the value</t>
   </si>
 </sst>
 </file>
@@ -341,7 +367,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#\ ???/???"/>
+    <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -376,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +418,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,9 +456,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -437,6 +469,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -459,324 +492,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>QPSK Long FECFRAME</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ???/???</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.888888888888889</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$10:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6.0E6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.6E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2E7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.44E7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6E7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8E7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.92E7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0E7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.13333333333333E7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.16E7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.248E7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.08E7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.32E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>8PSK long FECFRAME</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$25:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ???/???</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.888888888888889</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.638888888888889</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.722222222222222</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.577777777777778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$25:$E$35</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.88E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2E7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6E7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0E7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.26666666666667E7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.32E7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.06666666666667E7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.33333333333333E7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.46666666666667E7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.66666666666667E7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.77333333333333E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2112827768"/>
-        <c:axId val="-2112829192"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2112827768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="#\ ???/???" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112829192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2112829192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112827768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,2341 +822,2830 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="12">
         <v>5000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="12">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="12">
         <f>6*10^6</f>
         <v>6000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" t="s">
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
         <v>99</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>100</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>64800</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>98</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>101</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B12" s="1">
         <v>0.25</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" s="10">
-        <f>$B$5*D10*B10</f>
-        <v>6000000</v>
-      </c>
-      <c r="F10" s="11">
-        <f>E10/$B$4</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" s="10">
-        <f t="shared" ref="E11:E23" si="0">$B$5*D11*B11</f>
-        <v>8000000</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" ref="F11:F74" si="1">E11/$B$4</f>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.4</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="10">
+        <f>$B$7*D12*B12</f>
+        <v>6000000</v>
+      </c>
+      <c r="F12" s="11">
+        <f>E12/$B$5</f>
+        <v>1200</v>
+      </c>
+      <c r="G12" s="11">
+        <f>E12/$B$6</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" ref="E13:E25" si="0">$B$7*D13*B13</f>
+        <v>8000000</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" ref="F13:F76" si="1">E13/$B$5</f>
+        <v>1600</v>
+      </c>
+      <c r="G13" s="11">
+        <f>E13/$B$6</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>9600000</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F14" s="11">
         <f t="shared" si="1"/>
         <v>1920</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="G14" s="11">
+        <f>E14/$B$6</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B15" s="1">
         <v>0.5</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>12000000</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F15" s="11">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="G15" s="11">
+        <f>E15/$B$6</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="1">
         <v>0.6</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>14400000</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F16" s="11">
         <f t="shared" si="1"/>
         <v>2880</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="G16" s="11">
+        <f>E16/$B$6</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B17" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>16000000</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F17" s="11">
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="G17" s="11">
+        <f>E17/$B$6</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B18" s="1">
         <v>0.75</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>18000000</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F18" s="11">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="G18" s="11">
+        <f>E18/$B$6</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B19" s="1">
         <v>0.8</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>19200000</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F19" s="11">
         <f t="shared" si="1"/>
         <v>3840</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
+      <c r="G19" s="11">
+        <f>E19/$B$6</f>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B20" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>20000000</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F20" s="11">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
+      <c r="G20" s="11">
+        <f>E20/$B$6</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B21" s="1">
         <v>0.88888888888888884</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>4</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>21333333.333333332</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F21" s="11">
         <f t="shared" si="1"/>
         <v>4266.6666666666661</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
+      <c r="G21" s="11">
+        <f>E21/$B$6</f>
+        <v>106666.66666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="1">
         <v>0.9</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>21600000</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F22" s="11">
         <f t="shared" si="1"/>
         <v>4320</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="G22" s="11">
+        <f>E22/$B$6</f>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B23" s="1">
         <v>0.52</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>12480000</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F23" s="11">
         <f t="shared" si="1"/>
         <v>2496</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
+      <c r="G23" s="11">
+        <f>E23/$B$6</f>
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B24" s="1">
         <v>0.45</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>10800000</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F24" s="11">
         <f t="shared" si="1"/>
         <v>2160</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
+      <c r="G24" s="11">
+        <f>E24/$B$6</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B25" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E25" s="10">
         <f t="shared" si="0"/>
         <v>13200000.000000002</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F25" s="11">
         <f t="shared" si="1"/>
         <v>2640.0000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="1"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
+      <c r="G25" s="11">
+        <f>E25/$B$6</f>
+        <v>66000.000000000015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B27" s="1">
         <v>0.6</v>
-      </c>
-      <c r="D25">
-        <v>8</v>
-      </c>
-      <c r="E25" s="10">
-        <f>$B$5*B25*D25</f>
-        <v>28800000</v>
-      </c>
-      <c r="F25" s="11">
-        <f t="shared" si="1"/>
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" ref="E26:E89" si="2">$B$5*B26*D26</f>
-        <v>32000000</v>
-      </c>
-      <c r="F26" s="11">
-        <f t="shared" si="1"/>
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.75</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="2"/>
-        <v>36000000</v>
+        <f>$B$7*B27*D27</f>
+        <v>28800000</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>5760</v>
+      </c>
+      <c r="G27" s="11">
+        <f>E27/$B$6</f>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" si="2"/>
-        <v>40000000</v>
+        <f t="shared" ref="E28:E91" si="2">$B$7*B28*D28</f>
+        <v>32000000</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>6400</v>
+      </c>
+      <c r="G28" s="11">
+        <f>E28/$B$6</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1">
-        <v>0.88888888888888884</v>
+        <v>0.75</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29" s="10">
         <f t="shared" si="2"/>
-        <v>42666666.666666664</v>
+        <v>36000000</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
-        <v>8533.3333333333321</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>7200</v>
+      </c>
+      <c r="G29" s="11">
+        <f>E29/$B$6</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
-        <v>0.9</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
       <c r="E30" s="10">
         <f t="shared" si="2"/>
-        <v>43200000</v>
+        <v>40000000</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
-        <v>8640</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>8000</v>
+      </c>
+      <c r="G30" s="11">
+        <f>E30/$B$6</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B31" s="1">
-        <v>0.63888888888888884</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31" s="10">
         <f t="shared" si="2"/>
-        <v>30666666.666666664</v>
+        <v>42666666.666666664</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
-        <v>6133.333333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>8533.3333333333321</v>
+      </c>
+      <c r="G31" s="11">
+        <f>E31/$B$6</f>
+        <v>213333.33333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B32" s="1">
-        <v>0.69444444444444442</v>
+        <v>0.9</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
       <c r="E32" s="10">
         <f t="shared" si="2"/>
-        <v>33333333.333333332</v>
+        <v>43200000</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
-        <v>6666.6666666666661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>8640</v>
+      </c>
+      <c r="G32" s="11">
+        <f>E32/$B$6</f>
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
-        <v>0.72222222222222221</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33" s="10">
         <f t="shared" si="2"/>
-        <v>34666666.666666664</v>
+        <v>30666666.666666664</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
-        <v>6933.333333333333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>6133.333333333333</v>
+      </c>
+      <c r="G33" s="11">
+        <f>E33/$B$6</f>
+        <v>153333.33333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1">
-        <v>0.55555555555555558</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
       <c r="E34" s="10">
         <f t="shared" si="2"/>
-        <v>26666666.666666668</v>
+        <v>33333333.333333332</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
-        <v>5333.3333333333339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>6666.6666666666661</v>
+      </c>
+      <c r="G34" s="11">
+        <f>E34/$B$6</f>
+        <v>166666.66666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1">
-        <v>0.57777777777777772</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35" s="10">
         <f t="shared" si="2"/>
+        <v>34666666.666666664</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="1"/>
+        <v>6933.333333333333</v>
+      </c>
+      <c r="G35" s="11">
+        <f>E35/$B$6</f>
+        <v>173333.33333333331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="2"/>
+        <v>26666666.666666668</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="1"/>
+        <v>5333.3333333333339</v>
+      </c>
+      <c r="G36" s="11">
+        <f>E36/$B$6</f>
+        <v>133333.33333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="2"/>
         <v>27733333.333333332</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F37" s="11">
         <f t="shared" si="1"/>
         <v>5546.6666666666661</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36" s="1"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
+      <c r="G37" s="11">
+        <f>E37/$B$6</f>
+        <v>138666.66666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B39" s="1">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="D37">
-        <v>16</v>
-      </c>
-      <c r="E37" s="10">
-        <f t="shared" si="2"/>
-        <v>64000000</v>
-      </c>
-      <c r="F37" s="11">
-        <f t="shared" si="1"/>
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D38">
-        <v>16</v>
-      </c>
-      <c r="E38" s="10">
-        <f t="shared" si="2"/>
-        <v>72000000</v>
-      </c>
-      <c r="F38" s="11">
-        <f t="shared" si="1"/>
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.8</v>
       </c>
       <c r="D39">
         <v>16</v>
       </c>
       <c r="E39" s="10">
         <f t="shared" si="2"/>
-        <v>76800000</v>
+        <v>64000000</v>
       </c>
       <c r="F39" s="11">
         <f t="shared" si="1"/>
-        <v>15360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>12800</v>
+      </c>
+      <c r="G39" s="11">
+        <f>E39/$B$6</f>
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D40">
         <v>16</v>
       </c>
       <c r="E40" s="10">
         <f t="shared" si="2"/>
-        <v>80000000</v>
+        <v>72000000</v>
       </c>
       <c r="F40" s="11">
         <f t="shared" si="1"/>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>14400</v>
+      </c>
+      <c r="G40" s="11">
+        <f>E40/$B$6</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B41" s="1">
-        <v>0.88888888888888884</v>
+        <v>0.8</v>
       </c>
       <c r="D41">
         <v>16</v>
       </c>
       <c r="E41" s="10">
         <f t="shared" si="2"/>
-        <v>85333333.333333328</v>
+        <v>76800000</v>
       </c>
       <c r="F41" s="11">
         <f t="shared" si="1"/>
-        <v>17066.666666666664</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>15360</v>
+      </c>
+      <c r="G41" s="11">
+        <f>E41/$B$6</f>
+        <v>384000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1">
-        <v>0.9</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D42">
         <v>16</v>
       </c>
       <c r="E42" s="10">
         <f t="shared" si="2"/>
-        <v>86400000</v>
+        <v>80000000</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" si="1"/>
-        <v>17280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>16000</v>
+      </c>
+      <c r="G42" s="11">
+        <f>E42/$B$6</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B43" s="1">
-        <v>0.57777777777777772</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D43">
         <v>16</v>
       </c>
       <c r="E43" s="10">
         <f t="shared" si="2"/>
-        <v>55466666.666666664</v>
+        <v>85333333.333333328</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="1"/>
-        <v>11093.333333333332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>17066.666666666664</v>
+      </c>
+      <c r="G43" s="11">
+        <f>E43/$B$6</f>
+        <v>426666.66666666663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B44" s="1">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D44">
         <v>16</v>
       </c>
       <c r="E44" s="10">
         <f t="shared" si="2"/>
-        <v>57600000</v>
+        <v>86400000</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="1"/>
-        <v>11520</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>17280</v>
+      </c>
+      <c r="G44" s="11">
+        <f>E44/$B$6</f>
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B45" s="1">
-        <v>0.62222222222222223</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="D45">
         <v>16</v>
       </c>
       <c r="E45" s="10">
         <f t="shared" si="2"/>
-        <v>59733333.333333336</v>
+        <v>55466666.666666664</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="1"/>
-        <v>11946.666666666668</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>11093.333333333332</v>
+      </c>
+      <c r="G45" s="11">
+        <f>E45/$B$6</f>
+        <v>277333.33333333331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" s="1">
-        <v>0.63888888888888884</v>
+        <v>0.6</v>
       </c>
       <c r="D46">
         <v>16</v>
       </c>
       <c r="E46" s="10">
         <f t="shared" si="2"/>
-        <v>61333333.333333328</v>
+        <v>57600000</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="1"/>
-        <v>12266.666666666666</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>11520</v>
+      </c>
+      <c r="G46" s="11">
+        <f>E46/$B$6</f>
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1">
-        <v>0.69444444444444442</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="D47">
         <v>16</v>
       </c>
       <c r="E47" s="10">
         <f t="shared" si="2"/>
-        <v>66666666.666666664</v>
+        <v>59733333.333333336</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="1"/>
-        <v>13333.333333333332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>11946.666666666668</v>
+      </c>
+      <c r="G47" s="11">
+        <f>E47/$B$6</f>
+        <v>298666.66666666669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1">
-        <v>0.72222222222222221</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" s="10">
         <f t="shared" si="2"/>
-        <v>69333333.333333328</v>
+        <v>61333333.333333328</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="1"/>
-        <v>13866.666666666666</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>12266.666666666666</v>
+      </c>
+      <c r="G48" s="11">
+        <f>E48/$B$6</f>
+        <v>306666.66666666663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1">
-        <v>0.77777777777777779</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
       <c r="E49" s="10">
         <f t="shared" si="2"/>
-        <v>74666666.666666672</v>
+        <v>66666666.666666664</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="1"/>
-        <v>14933.333333333334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>13333.333333333332</v>
+      </c>
+      <c r="G49" s="11">
+        <f>E49/$B$6</f>
+        <v>333333.33333333331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1">
-        <v>0.85555555555555551</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="D50">
         <v>16</v>
       </c>
       <c r="E50" s="10">
         <f t="shared" si="2"/>
-        <v>82133333.333333328</v>
+        <v>69333333.333333328</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="1"/>
-        <v>16426.666666666664</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>13866.666666666666</v>
+      </c>
+      <c r="G50" s="11">
+        <f>E50/$B$6</f>
+        <v>346666.66666666663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1">
-        <v>0.55555555555555558</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="D51">
         <v>16</v>
       </c>
       <c r="E51" s="10">
         <f t="shared" si="2"/>
-        <v>53333333.333333336</v>
+        <v>74666666.666666672</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="1"/>
-        <v>10666.666666666668</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>14933.333333333334</v>
+      </c>
+      <c r="G51" s="11">
+        <f>E51/$B$6</f>
+        <v>373333.33333333337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1">
-        <v>0.53333333333333333</v>
+        <v>0.85555555555555551</v>
       </c>
       <c r="D52">
         <v>16</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" si="2"/>
-        <v>51200000</v>
+        <v>82133333.333333328</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="1"/>
-        <v>10240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>16426.666666666664</v>
+      </c>
+      <c r="G52" s="11">
+        <f>E52/$B$6</f>
+        <v>410666.66666666663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1">
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D53">
         <v>16</v>
       </c>
       <c r="E53" s="10">
         <f t="shared" si="2"/>
-        <v>48000000</v>
+        <v>53333333.333333336</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="1"/>
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>10666.666666666668</v>
+      </c>
+      <c r="G53" s="11">
+        <f>E53/$B$6</f>
+        <v>266666.66666666669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1">
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="D54">
         <v>16</v>
       </c>
       <c r="E54" s="10">
         <f t="shared" si="2"/>
-        <v>57600000</v>
+        <v>51200000</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="1"/>
-        <v>11520</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>10240</v>
+      </c>
+      <c r="G54" s="11">
+        <f>E54/$B$6</f>
+        <v>256000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D55">
         <v>16</v>
       </c>
       <c r="E55" s="10">
         <f t="shared" si="2"/>
+        <v>48000000</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="1"/>
+        <v>9600</v>
+      </c>
+      <c r="G55" s="11">
+        <f>E55/$B$6</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56" s="10">
+        <f t="shared" si="2"/>
+        <v>57600000</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="1"/>
+        <v>11520</v>
+      </c>
+      <c r="G56" s="11">
+        <f>E56/$B$6</f>
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" si="2"/>
         <v>64000000</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F57" s="11">
         <f t="shared" si="1"/>
         <v>12800</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="4"/>
-      <c r="B56" s="1"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="3" t="s">
+      <c r="G57" s="11">
+        <f>E57/$B$6</f>
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="1"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B59" s="1">
         <v>0.75</v>
-      </c>
-      <c r="D57">
-        <v>32</v>
-      </c>
-      <c r="E57" s="10">
-        <f t="shared" si="2"/>
-        <v>144000000</v>
-      </c>
-      <c r="F57" s="11">
-        <f t="shared" si="1"/>
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D58">
-        <v>32</v>
-      </c>
-      <c r="E58" s="10">
-        <f t="shared" si="2"/>
-        <v>153600000</v>
-      </c>
-      <c r="F58" s="11">
-        <f t="shared" si="1"/>
-        <v>30720</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="1">
-        <v>0.83333333333333337</v>
       </c>
       <c r="D59">
         <v>32</v>
       </c>
       <c r="E59" s="10">
         <f t="shared" si="2"/>
-        <v>160000000</v>
+        <v>144000000</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="1"/>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>28800</v>
+      </c>
+      <c r="G59" s="11">
+        <f>E59/$B$6</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1">
-        <v>0.88888888888888884</v>
+        <v>0.8</v>
       </c>
       <c r="D60">
         <v>32</v>
       </c>
       <c r="E60" s="10">
         <f t="shared" si="2"/>
-        <v>170666666.66666666</v>
+        <v>153600000</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="1"/>
-        <v>34133.333333333328</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>30720</v>
+      </c>
+      <c r="G60" s="11">
+        <f>E60/$B$6</f>
+        <v>768000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B61" s="1">
-        <v>0.9</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D61">
         <v>32</v>
       </c>
       <c r="E61" s="10">
         <f t="shared" si="2"/>
-        <v>172800000</v>
+        <v>160000000</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="1"/>
-        <v>34560</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2" t="s">
-        <v>57</v>
+        <v>32000</v>
+      </c>
+      <c r="G61" s="11">
+        <f>E61/$B$6</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B62" s="1">
-        <v>0.71111111111111114</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D62">
         <v>32</v>
       </c>
       <c r="E62" s="10">
         <f t="shared" si="2"/>
-        <v>136533333.33333334</v>
+        <v>170666666.66666666</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="1"/>
-        <v>27306.666666666668</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2" t="s">
-        <v>58</v>
+        <v>34133.333333333328</v>
+      </c>
+      <c r="G62" s="11">
+        <f>E62/$B$6</f>
+        <v>853333.33333333326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B63" s="1">
-        <v>0.73333333333333328</v>
+        <v>0.9</v>
       </c>
       <c r="D63">
         <v>32</v>
       </c>
       <c r="E63" s="10">
         <f t="shared" si="2"/>
-        <v>140800000</v>
+        <v>172800000</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="1"/>
-        <v>28160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>34560</v>
+      </c>
+      <c r="G63" s="11">
+        <f>E63/$B$6</f>
+        <v>864000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B64" s="1">
-        <v>0.77777777777777779</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="D64">
         <v>32</v>
       </c>
       <c r="E64" s="10">
         <f t="shared" si="2"/>
-        <v>149333333.33333334</v>
+        <v>136533333.33333334</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="1"/>
-        <v>29866.666666666668</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>27306.666666666668</v>
+      </c>
+      <c r="G64" s="11">
+        <f>E64/$B$6</f>
+        <v>682666.66666666674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B65" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="D65">
         <v>32</v>
       </c>
       <c r="E65" s="10">
         <f t="shared" si="2"/>
+        <v>140800000</v>
+      </c>
+      <c r="F65" s="11">
+        <f t="shared" si="1"/>
+        <v>28160</v>
+      </c>
+      <c r="G65" s="11">
+        <f>E65/$B$6</f>
+        <v>704000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D66">
+        <v>32</v>
+      </c>
+      <c r="E66" s="10">
+        <f t="shared" si="2"/>
+        <v>149333333.33333334</v>
+      </c>
+      <c r="F66" s="11">
+        <f t="shared" si="1"/>
+        <v>29866.666666666668</v>
+      </c>
+      <c r="G66" s="11">
+        <f>E66/$B$6</f>
+        <v>746666.66666666674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D67">
+        <v>32</v>
+      </c>
+      <c r="E67" s="10">
+        <f t="shared" si="2"/>
         <v>128000000</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F67" s="11">
         <f t="shared" si="1"/>
         <v>25600</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="4"/>
-      <c r="B66" s="1"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="2" t="s">
+      <c r="G67" s="11">
+        <f>E67/$B$6</f>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="1"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B69" s="1">
         <v>0.73333333333333328</v>
-      </c>
-      <c r="D67">
-        <v>64</v>
-      </c>
-      <c r="E67" s="10">
-        <f t="shared" si="2"/>
-        <v>281600000</v>
-      </c>
-      <c r="F67" s="11">
-        <f t="shared" si="1"/>
-        <v>56320</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D68">
-        <v>64</v>
-      </c>
-      <c r="E68" s="10">
-        <f t="shared" si="2"/>
-        <v>298666666.66666669</v>
-      </c>
-      <c r="F68" s="11">
-        <f t="shared" si="1"/>
-        <v>59733.333333333336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0.8</v>
       </c>
       <c r="D69">
         <v>64</v>
       </c>
       <c r="E69" s="10">
         <f t="shared" si="2"/>
-        <v>307200000</v>
+        <v>281600000</v>
       </c>
       <c r="F69" s="11">
         <f t="shared" si="1"/>
-        <v>61440</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>56320</v>
+      </c>
+      <c r="G69" s="11">
+        <f>E69/$B$6</f>
+        <v>1408000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="D70">
         <v>64</v>
       </c>
       <c r="E70" s="10">
         <f t="shared" si="2"/>
-        <v>320000000</v>
+        <v>298666666.66666669</v>
       </c>
       <c r="F70" s="11">
         <f t="shared" si="1"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>59733.333333333336</v>
+      </c>
+      <c r="G70" s="11">
+        <f>E70/$B$6</f>
+        <v>1493333.3333333335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1">
-        <v>0.71111111111111114</v>
+        <v>0.8</v>
       </c>
       <c r="D71">
         <v>64</v>
       </c>
       <c r="E71" s="10">
         <f t="shared" si="2"/>
+        <v>307200000</v>
+      </c>
+      <c r="F71" s="11">
+        <f t="shared" si="1"/>
+        <v>61440</v>
+      </c>
+      <c r="G71" s="11">
+        <f>E71/$B$6</f>
+        <v>1536000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D72">
+        <v>64</v>
+      </c>
+      <c r="E72" s="10">
+        <f t="shared" si="2"/>
+        <v>320000000</v>
+      </c>
+      <c r="F72" s="11">
+        <f t="shared" si="1"/>
+        <v>64000</v>
+      </c>
+      <c r="G72" s="11">
+        <f>E72/$B$6</f>
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D73">
+        <v>64</v>
+      </c>
+      <c r="E73" s="10">
+        <f t="shared" si="2"/>
         <v>273066666.66666669</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F73" s="11">
         <f t="shared" si="1"/>
         <v>54613.333333333336</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="4"/>
-      <c r="B72" s="1"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="11"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="2" t="s">
+      <c r="G73" s="11">
+        <f>E73/$B$6</f>
+        <v>1365333.3333333335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="1"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B75" s="1">
         <v>0.75</v>
       </c>
-      <c r="D73">
+      <c r="D75">
         <v>128</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E75" s="10">
         <f t="shared" si="2"/>
         <v>576000000</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F75" s="11">
         <f t="shared" si="1"/>
         <v>115200</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="2" t="s">
+      <c r="G75" s="11">
+        <f>E75/$B$6</f>
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B76" s="1">
         <v>0.77777777777777779</v>
       </c>
-      <c r="D74">
+      <c r="D76">
         <v>128</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E76" s="10">
         <f t="shared" si="2"/>
         <v>597333333.33333337</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F76" s="11">
         <f t="shared" si="1"/>
         <v>119466.66666666667</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="2" t="s">
+      <c r="G76" s="11">
+        <f>E76/$B$6</f>
+        <v>2986666.666666667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B77" s="1">
         <v>0.71111111111111114</v>
-      </c>
-      <c r="D75">
-        <v>256</v>
-      </c>
-      <c r="E75" s="10">
-        <f t="shared" si="2"/>
-        <v>1092266666.6666667</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" ref="F75:F138" si="3">E75/$B$4</f>
-        <v>218453.33333333334</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B76" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D76">
-        <v>256</v>
-      </c>
-      <c r="E76" s="10">
-        <f t="shared" si="2"/>
-        <v>1152000000</v>
-      </c>
-      <c r="F76" s="11">
-        <f t="shared" si="3"/>
-        <v>230400</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" s="1">
-        <v>0.64444444444444449</v>
       </c>
       <c r="D77">
         <v>256</v>
       </c>
       <c r="E77" s="10">
         <f t="shared" si="2"/>
-        <v>989866666.66666675</v>
+        <v>1092266666.6666667</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="3"/>
-        <v>197973.33333333334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <f t="shared" ref="F77:F140" si="3">E77/$B$5</f>
+        <v>218453.33333333334</v>
+      </c>
+      <c r="G77" s="11">
+        <f>E77/$B$6</f>
+        <v>5461333.333333334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B78" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D78">
         <v>256</v>
       </c>
       <c r="E78" s="10">
         <f t="shared" si="2"/>
-        <v>1024000000</v>
+        <v>1152000000</v>
       </c>
       <c r="F78" s="11">
         <f t="shared" si="3"/>
-        <v>204800</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>230400</v>
+      </c>
+      <c r="G78" s="11">
+        <f>E78/$B$6</f>
+        <v>5760000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B79" s="1">
-        <v>0.68888888888888888</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="D79">
         <v>256</v>
       </c>
       <c r="E79" s="10">
         <f t="shared" si="2"/>
-        <v>1058133333.3333334</v>
+        <v>989866666.66666675</v>
       </c>
       <c r="F79" s="11">
         <f t="shared" si="3"/>
-        <v>211626.66666666669</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>197973.33333333334</v>
+      </c>
+      <c r="G79" s="11">
+        <f>E79/$B$6</f>
+        <v>4949333.333333334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1">
-        <v>0.73333333333333328</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D80">
         <v>256</v>
       </c>
       <c r="E80" s="10">
         <f t="shared" si="2"/>
+        <v>1024000000</v>
+      </c>
+      <c r="F80" s="11">
+        <f t="shared" si="3"/>
+        <v>204800</v>
+      </c>
+      <c r="G80" s="11">
+        <f>E80/$B$6</f>
+        <v>5120000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="D81">
+        <v>256</v>
+      </c>
+      <c r="E81" s="10">
+        <f t="shared" si="2"/>
+        <v>1058133333.3333334</v>
+      </c>
+      <c r="F81" s="11">
+        <f t="shared" si="3"/>
+        <v>211626.66666666669</v>
+      </c>
+      <c r="G81" s="11">
+        <f>E81/$B$6</f>
+        <v>5290666.666666667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D82">
+        <v>256</v>
+      </c>
+      <c r="E82" s="10">
+        <f t="shared" si="2"/>
         <v>1126400000</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F82" s="11">
         <f t="shared" si="3"/>
         <v>225280</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="4"/>
-      <c r="B81" s="1"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="E82" s="10"/>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="1:6" s="9" customFormat="1">
-      <c r="A83" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" s="9">
-        <v>16200</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G82" s="11">
+        <f>E82/$B$6</f>
+        <v>5632000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="1"/>
       <c r="E83" s="10"/>
       <c r="F83" s="11"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="3" t="s">
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E84" s="10"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="9">
+        <v>16200</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B86" s="6">
         <v>0.25</v>
-      </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-      <c r="E84" s="10">
-        <f t="shared" si="2"/>
-        <v>6000000</v>
-      </c>
-      <c r="F84" s="11">
-        <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85" s="10">
-        <f t="shared" si="2"/>
-        <v>8000000</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" si="3"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="6">
-        <v>0.4</v>
       </c>
       <c r="D86">
         <v>4</v>
       </c>
       <c r="E86" s="10">
         <f t="shared" si="2"/>
-        <v>9600000</v>
+        <v>6000000</v>
       </c>
       <c r="F86" s="11">
         <f t="shared" si="3"/>
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>1200</v>
+      </c>
+      <c r="G86" s="11">
+        <f>E86/$B$6</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B87" s="6">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
       <c r="E87" s="10">
         <f t="shared" si="2"/>
-        <v>12000000</v>
+        <v>8000000</v>
       </c>
       <c r="F87" s="11">
         <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>1600</v>
+      </c>
+      <c r="G87" s="11">
+        <f>E87/$B$6</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B88" s="6">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D88">
         <v>4</v>
       </c>
       <c r="E88" s="10">
         <f t="shared" si="2"/>
-        <v>14400000</v>
+        <v>9600000</v>
       </c>
       <c r="F88" s="11">
         <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>1920</v>
+      </c>
+      <c r="G88" s="11">
+        <f>E88/$B$6</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B89" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89" s="10">
         <f t="shared" si="2"/>
-        <v>16000000</v>
+        <v>12000000</v>
       </c>
       <c r="F89" s="11">
         <f t="shared" si="3"/>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>2400</v>
+      </c>
+      <c r="G89" s="11">
+        <f>E89/$B$6</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B90" s="6">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D90">
         <v>4</v>
       </c>
       <c r="E90" s="10">
-        <f t="shared" ref="E90:E138" si="4">$B$5*B90*D90</f>
-        <v>18000000</v>
+        <f t="shared" si="2"/>
+        <v>14400000</v>
       </c>
       <c r="F90" s="11">
         <f t="shared" si="3"/>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>2880</v>
+      </c>
+      <c r="G90" s="11">
+        <f>E90/$B$6</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" s="6">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D91">
         <v>4</v>
       </c>
       <c r="E91" s="10">
-        <f t="shared" si="4"/>
-        <v>19200000</v>
+        <f t="shared" si="2"/>
+        <v>16000000</v>
       </c>
       <c r="F91" s="11">
         <f t="shared" si="3"/>
-        <v>3840</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>3200</v>
+      </c>
+      <c r="G91" s="11">
+        <f>E91/$B$6</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B92" s="6">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D92">
         <v>4</v>
       </c>
       <c r="E92" s="10">
-        <f t="shared" si="4"/>
-        <v>20000000</v>
+        <f t="shared" ref="E92:E140" si="4">$B$7*B92*D92</f>
+        <v>18000000</v>
       </c>
       <c r="F92" s="11">
         <f t="shared" si="3"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>3600</v>
+      </c>
+      <c r="G92" s="11">
+        <f>E92/$B$6</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B93" s="6">
-        <v>0.88888888888888884</v>
+        <v>0.8</v>
       </c>
       <c r="D93">
         <v>4</v>
       </c>
       <c r="E93" s="10">
         <f t="shared" si="4"/>
-        <v>21333333.333333332</v>
+        <v>19200000</v>
       </c>
       <c r="F93" s="11">
         <f t="shared" si="3"/>
-        <v>4266.6666666666661</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="2" t="s">
-        <v>74</v>
+        <v>3840</v>
+      </c>
+      <c r="G93" s="11">
+        <f>E93/$B$6</f>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B94" s="6">
-        <v>0.24444444444444444</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D94">
         <v>4</v>
       </c>
       <c r="E94" s="10">
         <f t="shared" si="4"/>
-        <v>5866666.666666666</v>
+        <v>20000000</v>
       </c>
       <c r="F94" s="11">
         <f t="shared" si="3"/>
-        <v>1173.3333333333333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="2" t="s">
-        <v>75</v>
+        <v>4000</v>
+      </c>
+      <c r="G94" s="11">
+        <f>E94/$B$6</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B95" s="6">
-        <v>0.26666666666666666</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
       <c r="E95" s="10">
         <f t="shared" si="4"/>
-        <v>6400000</v>
+        <v>21333333.333333332</v>
       </c>
       <c r="F95" s="11">
         <f t="shared" si="3"/>
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>4266.6666666666661</v>
+      </c>
+      <c r="G95" s="11">
+        <f>E95/$B$6</f>
+        <v>106666.66666666666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B96" s="6">
-        <v>0.31111111111111112</v>
+        <v>0.24444444444444444</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
       <c r="E96" s="10">
         <f t="shared" si="4"/>
-        <v>7466666.666666667</v>
+        <v>5866666.666666666</v>
       </c>
       <c r="F96" s="11">
         <f t="shared" si="3"/>
-        <v>1493.3333333333335</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>1173.3333333333333</v>
+      </c>
+      <c r="G96" s="11">
+        <f>E96/$B$6</f>
+        <v>29333.333333333328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B97" s="6">
-        <v>0.46666666666666667</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D97">
         <v>4</v>
       </c>
       <c r="E97" s="10">
         <f t="shared" si="4"/>
-        <v>11200000</v>
+        <v>6400000</v>
       </c>
       <c r="F97" s="11">
         <f t="shared" si="3"/>
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>1280</v>
+      </c>
+      <c r="G97" s="11">
+        <f>E97/$B$6</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B98" s="6">
-        <v>0.53333333333333333</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="D98">
         <v>4</v>
       </c>
       <c r="E98" s="10">
         <f t="shared" si="4"/>
-        <v>12800000</v>
+        <v>7466666.666666667</v>
       </c>
       <c r="F98" s="11">
         <f t="shared" si="3"/>
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>1493.3333333333335</v>
+      </c>
+      <c r="G98" s="11">
+        <f>E98/$B$6</f>
+        <v>37333.333333333336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B99" s="6">
-        <v>0.71111111111111114</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="D99">
         <v>4</v>
       </c>
       <c r="E99" s="10">
         <f t="shared" si="4"/>
+        <v>11200000</v>
+      </c>
+      <c r="F99" s="11">
+        <f t="shared" si="3"/>
+        <v>2240</v>
+      </c>
+      <c r="G99" s="11">
+        <f>E99/$B$6</f>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100" s="6">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="4"/>
+        <v>12800000</v>
+      </c>
+      <c r="F100" s="11">
+        <f t="shared" si="3"/>
+        <v>2560</v>
+      </c>
+      <c r="G100" s="11">
+        <f>E100/$B$6</f>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="6">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="4"/>
         <v>17066666.666666668</v>
       </c>
-      <c r="F99" s="11">
+      <c r="F101" s="11">
         <f t="shared" si="3"/>
         <v>3413.3333333333335</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="B100" s="6"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="11"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="3" t="s">
+      <c r="G101" s="11">
+        <f>E101/$B$6</f>
+        <v>85333.333333333343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="6"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B103" s="6">
         <v>0.6</v>
-      </c>
-      <c r="D101">
-        <v>8</v>
-      </c>
-      <c r="E101" s="10">
-        <f t="shared" si="4"/>
-        <v>28800000</v>
-      </c>
-      <c r="F101" s="11">
-        <f t="shared" si="3"/>
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D102">
-        <v>8</v>
-      </c>
-      <c r="E102" s="10">
-        <f t="shared" si="4"/>
-        <v>32000000</v>
-      </c>
-      <c r="F102" s="11">
-        <f t="shared" si="3"/>
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="6">
-        <v>0.75</v>
       </c>
       <c r="D103">
         <v>8</v>
       </c>
       <c r="E103" s="10">
         <f t="shared" si="4"/>
-        <v>36000000</v>
+        <v>28800000</v>
       </c>
       <c r="F103" s="11">
         <f t="shared" si="3"/>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>5760</v>
+      </c>
+      <c r="G103" s="11">
+        <f>E103/$B$6</f>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B104" s="6">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D104">
         <v>8</v>
       </c>
       <c r="E104" s="10">
         <f t="shared" si="4"/>
-        <v>40000000</v>
+        <v>32000000</v>
       </c>
       <c r="F104" s="11">
         <f t="shared" si="3"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>6400</v>
+      </c>
+      <c r="G104" s="11">
+        <f>E104/$B$6</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B105" s="6">
-        <v>0.88888888888888884</v>
+        <v>0.75</v>
       </c>
       <c r="D105">
         <v>8</v>
       </c>
       <c r="E105" s="10">
         <f t="shared" si="4"/>
-        <v>42666666.666666664</v>
+        <v>36000000</v>
       </c>
       <c r="F105" s="11">
         <f t="shared" si="3"/>
-        <v>8533.3333333333321</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="2" t="s">
-        <v>80</v>
+        <v>7200</v>
+      </c>
+      <c r="G105" s="11">
+        <f>E105/$B$6</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B106" s="6">
-        <v>0.46666666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D106">
         <v>8</v>
       </c>
       <c r="E106" s="10">
         <f t="shared" si="4"/>
-        <v>22400000</v>
+        <v>40000000</v>
       </c>
       <c r="F106" s="11">
         <f t="shared" si="3"/>
-        <v>4480</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="2" t="s">
-        <v>81</v>
+        <v>8000</v>
+      </c>
+      <c r="G106" s="11">
+        <f>E106/$B$6</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B107" s="6">
-        <v>0.53333333333333333</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D107">
         <v>8</v>
       </c>
       <c r="E107" s="10">
         <f t="shared" si="4"/>
-        <v>25600000</v>
+        <v>42666666.666666664</v>
       </c>
       <c r="F107" s="11">
         <f t="shared" si="3"/>
-        <v>5120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>8533.3333333333321</v>
+      </c>
+      <c r="G107" s="11">
+        <f>E107/$B$6</f>
+        <v>213333.33333333331</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B108" s="6">
-        <v>0.57777777777777772</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="D108">
         <v>8</v>
       </c>
       <c r="E108" s="10">
         <f t="shared" si="4"/>
-        <v>27733333.333333332</v>
+        <v>22400000</v>
       </c>
       <c r="F108" s="11">
         <f t="shared" si="3"/>
-        <v>5546.6666666666661</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>4480</v>
+      </c>
+      <c r="G108" s="11">
+        <f>E108/$B$6</f>
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B109" s="6">
-        <v>0.71111111111111114</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="D109">
         <v>8</v>
       </c>
       <c r="E109" s="10">
         <f t="shared" si="4"/>
+        <v>25600000</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="3"/>
+        <v>5120</v>
+      </c>
+      <c r="G109" s="11">
+        <f>E109/$B$6</f>
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B110" s="6">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="D110">
+        <v>8</v>
+      </c>
+      <c r="E110" s="10">
+        <f t="shared" si="4"/>
+        <v>27733333.333333332</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" si="3"/>
+        <v>5546.6666666666661</v>
+      </c>
+      <c r="G110" s="11">
+        <f>E110/$B$6</f>
+        <v>138666.66666666666</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" s="6">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D111">
+        <v>8</v>
+      </c>
+      <c r="E111" s="10">
+        <f t="shared" si="4"/>
         <v>34133333.333333336</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F111" s="11">
         <f t="shared" si="3"/>
         <v>6826.666666666667</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="B110" s="6"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="11"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="3" t="s">
+      <c r="G111" s="11">
+        <f>E111/$B$6</f>
+        <v>170666.66666666669</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B112" s="6"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B113" s="6">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="D111">
-        <v>16</v>
-      </c>
-      <c r="E111" s="10">
-        <f t="shared" si="4"/>
-        <v>64000000</v>
-      </c>
-      <c r="F111" s="11">
-        <f t="shared" si="3"/>
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B112" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D112">
-        <v>16</v>
-      </c>
-      <c r="E112" s="10">
-        <f t="shared" si="4"/>
-        <v>72000000</v>
-      </c>
-      <c r="F112" s="11">
-        <f t="shared" si="3"/>
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B113" s="6">
-        <v>0.8</v>
       </c>
       <c r="D113">
         <v>16</v>
       </c>
       <c r="E113" s="10">
         <f t="shared" si="4"/>
-        <v>76800000</v>
+        <v>64000000</v>
       </c>
       <c r="F113" s="11">
         <f t="shared" si="3"/>
-        <v>15360</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>12800</v>
+      </c>
+      <c r="G113" s="11">
+        <f>E113/$B$6</f>
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B114" s="6">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D114">
         <v>16</v>
       </c>
       <c r="E114" s="10">
         <f t="shared" si="4"/>
-        <v>80000000</v>
+        <v>72000000</v>
       </c>
       <c r="F114" s="11">
         <f t="shared" si="3"/>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>14400</v>
+      </c>
+      <c r="G114" s="11">
+        <f>E114/$B$6</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B115" s="6">
-        <v>0.88888888888888884</v>
+        <v>0.8</v>
       </c>
       <c r="D115">
         <v>16</v>
       </c>
       <c r="E115" s="10">
         <f t="shared" si="4"/>
-        <v>85333333.333333328</v>
+        <v>76800000</v>
       </c>
       <c r="F115" s="11">
         <f t="shared" si="3"/>
-        <v>17066.666666666664</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="2" t="s">
-        <v>85</v>
+        <v>15360</v>
+      </c>
+      <c r="G115" s="11">
+        <f>E115/$B$6</f>
+        <v>384000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B116" s="6">
-        <v>0.46666666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D116">
         <v>16</v>
       </c>
       <c r="E116" s="10">
         <f t="shared" si="4"/>
-        <v>44800000</v>
+        <v>80000000</v>
       </c>
       <c r="F116" s="11">
         <f t="shared" si="3"/>
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="2" t="s">
-        <v>86</v>
+        <v>16000</v>
+      </c>
+      <c r="G116" s="11">
+        <f>E116/$B$6</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B117" s="6">
-        <v>0.53333333333333333</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D117">
         <v>16</v>
       </c>
       <c r="E117" s="10">
         <f t="shared" si="4"/>
-        <v>51200000</v>
+        <v>85333333.333333328</v>
       </c>
       <c r="F117" s="11">
         <f t="shared" si="3"/>
-        <v>10240</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>17066.666666666664</v>
+      </c>
+      <c r="G117" s="11">
+        <f>E117/$B$6</f>
+        <v>426666.66666666663</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B118" s="6">
-        <v>0.57777777777777772</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="D118">
         <v>16</v>
       </c>
       <c r="E118" s="10">
         <f t="shared" si="4"/>
-        <v>55466666.666666664</v>
+        <v>44800000</v>
       </c>
       <c r="F118" s="11">
         <f t="shared" si="3"/>
-        <v>11093.333333333332</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>8960</v>
+      </c>
+      <c r="G118" s="11">
+        <f>E118/$B$6</f>
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B119" s="6">
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="D119">
         <v>16</v>
       </c>
       <c r="E119" s="10">
         <f t="shared" si="4"/>
-        <v>57600000</v>
+        <v>51200000</v>
       </c>
       <c r="F119" s="11">
         <f t="shared" si="3"/>
-        <v>11520</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>10240</v>
+      </c>
+      <c r="G119" s="11">
+        <f>E119/$B$6</f>
+        <v>256000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B120" s="6">
-        <v>0.71111111111111114</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="D120">
         <v>16</v>
       </c>
       <c r="E120" s="10">
         <f t="shared" si="4"/>
+        <v>55466666.666666664</v>
+      </c>
+      <c r="F120" s="11">
+        <f t="shared" si="3"/>
+        <v>11093.333333333332</v>
+      </c>
+      <c r="G120" s="11">
+        <f>E120/$B$6</f>
+        <v>277333.33333333331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B121" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D121">
+        <v>16</v>
+      </c>
+      <c r="E121" s="10">
+        <f t="shared" si="4"/>
+        <v>57600000</v>
+      </c>
+      <c r="F121" s="11">
+        <f t="shared" si="3"/>
+        <v>11520</v>
+      </c>
+      <c r="G121" s="11">
+        <f>E121/$B$6</f>
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B122" s="6">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D122">
+        <v>16</v>
+      </c>
+      <c r="E122" s="10">
+        <f t="shared" si="4"/>
         <v>68266666.666666672</v>
       </c>
-      <c r="F120" s="11">
+      <c r="F122" s="11">
         <f t="shared" si="3"/>
         <v>13653.333333333334</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="4"/>
-      <c r="B121" s="6"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="11"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="2" t="s">
+      <c r="G122" s="11">
+        <f>E122/$B$6</f>
+        <v>341333.33333333337</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="4"/>
+      <c r="B123" s="6"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B124" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D122">
+      <c r="D124">
         <v>32</v>
       </c>
-      <c r="E122" s="10">
+      <c r="E124" s="10">
         <f t="shared" si="4"/>
         <v>128000000</v>
       </c>
-      <c r="F122" s="11">
+      <c r="F124" s="11">
         <f t="shared" si="3"/>
         <v>25600</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="2" t="s">
+      <c r="G124" s="11">
+        <f>E124/$B$6</f>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B125" s="6">
         <v>0.71111111111111114</v>
       </c>
-      <c r="D123">
+      <c r="D125">
         <v>32</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E125" s="10">
         <f t="shared" si="4"/>
         <v>136533333.33333334</v>
       </c>
-      <c r="F123" s="11">
+      <c r="F125" s="11">
         <f t="shared" si="3"/>
         <v>27306.666666666668</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="4"/>
-      <c r="B124" s="6"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="11"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="4"/>
-      <c r="B125" s="6"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="11"/>
-    </row>
-    <row r="126" spans="1:6" s="9" customFormat="1">
-      <c r="A126" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B126" s="8"/>
+      <c r="G125" s="11">
+        <f>E125/$B$6</f>
+        <v>682666.66666666674</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="4"/>
+      <c r="B126" s="6"/>
       <c r="E126" s="10"/>
       <c r="F126" s="11"/>
-    </row>
-    <row r="127" spans="1:6" s="9" customFormat="1">
-      <c r="A127" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="9">
-        <v>64800</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G126" s="11"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="4"/>
+      <c r="B127" s="6"/>
       <c r="E127" s="10"/>
       <c r="F127" s="11"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B128" s="6">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D128">
-        <v>4</v>
-      </c>
-      <c r="E128" s="10">
-        <f t="shared" si="4"/>
-        <v>5333333.333333333</v>
-      </c>
-      <c r="F128" s="11">
-        <f t="shared" si="3"/>
-        <v>1066.6666666666665</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="9" customFormat="1">
+      <c r="G127" s="11"/>
+    </row>
+    <row r="128" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B128" s="8"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+    </row>
+    <row r="129" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B129" s="9">
-        <v>32400</v>
+        <v>64800</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="11"/>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129" s="11"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B130" s="6">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+      <c r="E130" s="10">
+        <f t="shared" si="4"/>
+        <v>5333333.333333333</v>
+      </c>
+      <c r="F130" s="11">
+        <f t="shared" si="3"/>
+        <v>1066.6666666666665</v>
+      </c>
+      <c r="G130" s="11">
+        <f>E130/$B$6</f>
+        <v>26666.666666666664</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="9">
+        <v>32400</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B132" s="6">
         <v>0.2</v>
       </c>
-      <c r="D130">
+      <c r="D132">
         <v>2</v>
       </c>
-      <c r="E130" s="10">
+      <c r="E132" s="10">
         <f t="shared" si="4"/>
         <v>2400000</v>
       </c>
-      <c r="F130" s="11">
+      <c r="F132" s="11">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="2" t="s">
+      <c r="G132" s="11">
+        <f>E132/$B$6</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B133" s="6">
         <v>0.24444444444444444</v>
       </c>
-      <c r="D131">
+      <c r="D133">
         <v>2</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E133" s="10">
         <f t="shared" si="4"/>
         <v>2933333.333333333</v>
       </c>
-      <c r="F131" s="11">
+      <c r="F133" s="11">
         <f t="shared" si="3"/>
         <v>586.66666666666663</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" s="4" customFormat="1">
-      <c r="A132" s="2" t="s">
+      <c r="G133" s="11">
+        <f>E133/$B$6</f>
+        <v>14666.666666666664</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B132" s="6">
+      <c r="B134" s="6">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="D132" s="4">
-        <v>2</v>
-      </c>
-      <c r="E132" s="10">
-        <f t="shared" si="4"/>
-        <v>4000000</v>
-      </c>
-      <c r="F132" s="11">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" s="9" customFormat="1">
-      <c r="A133" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="9">
-        <v>16200</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E133" s="10"/>
-      <c r="F133" s="11"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B134" s="6">
-        <v>0.2</v>
       </c>
       <c r="D134" s="4">
         <v>2</v>
       </c>
       <c r="E134" s="10">
         <f t="shared" si="4"/>
-        <v>2400000</v>
+        <v>4000000</v>
       </c>
       <c r="F134" s="11">
         <f t="shared" si="3"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B135" s="6">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="D135" s="4">
-        <v>2</v>
-      </c>
-      <c r="E135" s="10">
-        <f t="shared" si="4"/>
-        <v>3200000</v>
-      </c>
-      <c r="F135" s="11">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="G134" s="11">
+        <f>E134/$B$6</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="9">
+        <v>16200</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B136" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="D136" s="4">
         <v>2</v>
       </c>
       <c r="E136" s="10">
         <f t="shared" si="4"/>
-        <v>4000000</v>
+        <v>2400000</v>
       </c>
       <c r="F136" s="11">
         <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>480</v>
+      </c>
+      <c r="G136" s="11">
+        <f>E136/$B$6</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B137" s="6">
-        <v>0.2</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D137" s="4">
         <v>2</v>
       </c>
       <c r="E137" s="10">
         <f t="shared" si="4"/>
-        <v>2400000</v>
+        <v>3200000</v>
       </c>
       <c r="F137" s="11">
         <f t="shared" si="3"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>640</v>
+      </c>
+      <c r="G137" s="11">
+        <f>E137/$B$6</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B138" s="6">
-        <v>0.24444444444444444</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D138" s="4">
         <v>2</v>
       </c>
       <c r="E138" s="10">
         <f t="shared" si="4"/>
+        <v>4000000</v>
+      </c>
+      <c r="F138" s="11">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="G138" s="11">
+        <f>E138/$B$6</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B139" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D139" s="4">
+        <v>2</v>
+      </c>
+      <c r="E139" s="10">
+        <f t="shared" si="4"/>
+        <v>2400000</v>
+      </c>
+      <c r="F139" s="11">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="G139" s="11">
+        <f>E139/$B$6</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B140" s="6">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="D140" s="4">
+        <v>2</v>
+      </c>
+      <c r="E140" s="10">
+        <f t="shared" si="4"/>
         <v>2933333.333333333</v>
       </c>
-      <c r="F138" s="11">
+      <c r="F140" s="11">
         <f t="shared" si="3"/>
         <v>586.66666666666663</v>
+      </c>
+      <c r="G140" s="11">
+        <f>E140/$B$6</f>
+        <v>14666.666666666664</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -353,13 +353,13 @@
     <t>Users at Fixed Bit Rate</t>
   </si>
   <si>
-    <t>If using a fixed bit rate per user:</t>
-  </si>
-  <si>
-    <t>If using a fixed number of users:</t>
-  </si>
-  <si>
     <t>This means you can change the value</t>
+  </si>
+  <si>
+    <t>If using a fixed bit rate per operator:</t>
+  </si>
+  <si>
+    <t>If using a fixed number of operator:</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,12 +850,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" s="12">
         <v>5000</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" s="12">
         <v>200</v>

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="960" windowWidth="32020" windowHeight="26120" tabRatio="500"/>
+    <workbookView xWindow="13540" yWindow="1100" windowWidth="32020" windowHeight="26120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
   <si>
     <t>Symbol Rate</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Long FECFRAME</t>
   </si>
   <si>
-    <t>bits</t>
-  </si>
-  <si>
     <t>Medium FECFRAME</t>
   </si>
   <si>
@@ -320,12 +317,6 @@
     <t>BPSK-Spread2 code rate 11/45</t>
   </si>
   <si>
-    <t>Modulation Order</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>then</t>
   </si>
   <si>
@@ -360,6 +351,21 @@
   </si>
   <si>
     <t>If using a fixed number of operator:</t>
+  </si>
+  <si>
+    <t>If Modulation</t>
+  </si>
+  <si>
+    <t>Order is</t>
+  </si>
+  <si>
+    <t>64800 bits</t>
+  </si>
+  <si>
+    <t>16200 bits</t>
+  </si>
+  <si>
+    <t>32400 bits</t>
   </si>
 </sst>
 </file>
@@ -825,7 +831,7 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,39 +846,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" s="12">
         <v>5000</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" s="12">
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -884,49 +890,46 @@
         <v>6000000</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>64800</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
         <v>0.25</v>
@@ -950,7 +953,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
         <v>0.33333333333333331</v>
@@ -973,7 +976,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>0.4</v>
@@ -996,7 +999,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>0.5</v>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
         <v>0.6</v>
@@ -1042,7 +1045,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>0.66666666666666663</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
         <v>0.75</v>
@@ -1088,7 +1091,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>0.8</v>
@@ -1111,7 +1114,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1">
         <v>0.83333333333333337</v>
@@ -1134,7 +1137,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>0.88888888888888884</v>
@@ -1157,7 +1160,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
         <v>0.9</v>
@@ -1180,7 +1183,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1">
         <v>0.52</v>
@@ -1203,7 +1206,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1">
         <v>0.45</v>
@@ -1226,7 +1229,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1">
         <v>0.55000000000000004</v>
@@ -1255,7 +1258,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1">
         <v>0.6</v>
@@ -1278,7 +1281,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>0.66666666666666663</v>
@@ -1301,7 +1304,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>0.75</v>
@@ -1324,7 +1327,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1">
         <v>0.83333333333333337</v>
@@ -1347,7 +1350,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>0.88888888888888884</v>
@@ -1370,7 +1373,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1">
         <v>0.9</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1">
         <v>0.63888888888888884</v>
@@ -1416,7 +1419,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1">
         <v>0.69444444444444442</v>
@@ -1439,7 +1442,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1">
         <v>0.72222222222222221</v>
@@ -1462,7 +1465,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1">
         <v>0.55555555555555558</v>
@@ -1485,7 +1488,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1">
         <v>0.57777777777777772</v>
@@ -1514,7 +1517,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1">
         <v>0.66666666666666663</v>
@@ -1537,7 +1540,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1">
         <v>0.75</v>
@@ -1560,7 +1563,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1">
         <v>0.8</v>
@@ -1583,7 +1586,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1">
         <v>0.83333333333333337</v>
@@ -1606,7 +1609,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1">
         <v>0.88888888888888884</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1">
         <v>0.9</v>
@@ -1652,7 +1655,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1">
         <v>0.57777777777777772</v>
@@ -1675,7 +1678,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="1">
         <v>0.6</v>
@@ -1698,7 +1701,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="1">
         <v>0.62222222222222223</v>
@@ -1721,7 +1724,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="1">
         <v>0.63888888888888884</v>
@@ -1744,7 +1747,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1">
         <v>0.69444444444444442</v>
@@ -1767,7 +1770,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1">
         <v>0.72222222222222221</v>
@@ -1790,7 +1793,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1">
         <v>0.77777777777777779</v>
@@ -1813,7 +1816,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1">
         <v>0.85555555555555551</v>
@@ -1836,7 +1839,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1">
         <v>0.55555555555555558</v>
@@ -1859,7 +1862,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1">
         <v>0.53333333333333333</v>
@@ -1882,7 +1885,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1">
         <v>0.5</v>
@@ -1905,7 +1908,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56" s="1">
         <v>0.6</v>
@@ -1928,7 +1931,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="1">
         <v>0.66666666666666663</v>
@@ -1958,7 +1961,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59" s="1">
         <v>0.75</v>
@@ -1981,7 +1984,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1">
         <v>0.8</v>
@@ -2004,7 +2007,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="1">
         <v>0.83333333333333337</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="1">
         <v>0.88888888888888884</v>
@@ -2050,7 +2053,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" s="1">
         <v>0.9</v>
@@ -2073,7 +2076,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1">
         <v>0.71111111111111114</v>
@@ -2096,7 +2099,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="1">
         <v>0.73333333333333328</v>
@@ -2119,7 +2122,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="1">
         <v>0.77777777777777779</v>
@@ -2142,7 +2145,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="1">
         <v>0.66666666666666663</v>
@@ -2172,7 +2175,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1">
         <v>0.73333333333333328</v>
@@ -2195,7 +2198,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="1">
         <v>0.77777777777777779</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1">
         <v>0.8</v>
@@ -2241,7 +2244,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="1">
         <v>0.83333333333333337</v>
@@ -2264,7 +2267,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" s="1">
         <v>0.71111111111111114</v>
@@ -2294,7 +2297,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1">
         <v>0.75</v>
@@ -2317,7 +2320,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B76" s="1">
         <v>0.77777777777777779</v>
@@ -2340,7 +2343,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B77" s="1">
         <v>0.71111111111111114</v>
@@ -2363,7 +2366,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B78" s="1">
         <v>0.75</v>
@@ -2386,7 +2389,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B79" s="1">
         <v>0.64444444444444449</v>
@@ -2409,7 +2412,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B80" s="1">
         <v>0.66666666666666663</v>
@@ -2432,7 +2435,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B81" s="1">
         <v>0.68888888888888888</v>
@@ -2455,7 +2458,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B82" s="1">
         <v>0.73333333333333328</v>
@@ -2492,11 +2495,8 @@
       <c r="A85" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="9">
-        <v>16200</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>3</v>
+      <c r="B85" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="11"/>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" s="6">
         <v>0.25</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B87" s="6">
         <v>0.33333333333333331</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B88" s="6">
         <v>0.4</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" s="6">
         <v>0.5</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="6">
         <v>0.6</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B91" s="6">
         <v>0.66666666666666663</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="6">
         <v>0.75</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="6">
         <v>0.8</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B94" s="6">
         <v>0.83333333333333337</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B95" s="6">
         <v>0.88888888888888884</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B96" s="6">
         <v>0.24444444444444444</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B97" s="6">
         <v>0.26666666666666666</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B98" s="6">
         <v>0.31111111111111112</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B99" s="6">
         <v>0.46666666666666667</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B100" s="6">
         <v>0.53333333333333333</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B101" s="6">
         <v>0.71111111111111114</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B103" s="6">
         <v>0.6</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B104" s="6">
         <v>0.66666666666666663</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B105" s="6">
         <v>0.75</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B106" s="6">
         <v>0.83333333333333337</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B107" s="6">
         <v>0.88888888888888884</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B108" s="6">
         <v>0.46666666666666667</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B109" s="6">
         <v>0.53333333333333333</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B110" s="6">
         <v>0.57777777777777772</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B111" s="6">
         <v>0.71111111111111114</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B113" s="6">
         <v>0.66666666666666663</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B114" s="6">
         <v>0.75</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B115" s="6">
         <v>0.8</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B116" s="6">
         <v>0.83333333333333337</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B117" s="6">
         <v>0.88888888888888884</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B118" s="6">
         <v>0.46666666666666667</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B119" s="6">
         <v>0.53333333333333333</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B120" s="6">
         <v>0.57777777777777772</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B121" s="6">
         <v>0.6</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B122" s="6">
         <v>0.71111111111111114</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B124" s="6">
         <v>0.66666666666666663</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B125" s="6">
         <v>0.71111111111111114</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="128" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B128" s="8"/>
       <c r="E128" s="10"/>
@@ -3399,11 +3399,8 @@
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="9">
-        <v>64800</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>3</v>
+      <c r="B129" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="11"/>
@@ -3411,7 +3408,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B130" s="6">
         <v>0.22222222222222221</v>
@@ -3434,13 +3431,10 @@
     </row>
     <row r="131" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" s="9">
-        <v>32400</v>
-      </c>
-      <c r="C131" s="9" t="s">
         <v>3</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="11"/>
@@ -3448,7 +3442,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B132" s="6">
         <v>0.2</v>
@@ -3471,7 +3465,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B133" s="6">
         <v>0.24444444444444444</v>
@@ -3494,7 +3488,7 @@
     </row>
     <row r="134" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B134" s="6">
         <v>0.33333333333333331</v>
@@ -3519,11 +3513,8 @@
       <c r="A135" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="9">
-        <v>16200</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>3</v>
+      <c r="B135" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="11"/>
@@ -3531,7 +3522,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B136" s="6">
         <v>0.2</v>
@@ -3554,7 +3545,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B137" s="6">
         <v>0.26666666666666666</v>
@@ -3577,7 +3568,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B138" s="6">
         <v>0.33333333333333331</v>
@@ -3600,7 +3591,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B139" s="6">
         <v>0.2</v>
@@ -3623,7 +3614,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B140" s="6">
         <v>0.24444444444444444</v>

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13540" yWindow="1100" windowWidth="32020" windowHeight="26120" tabRatio="500"/>
+    <workbookView xWindow="18100" yWindow="1060" windowWidth="32020" windowHeight="26120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,7 +831,7 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,7 +875,7 @@
         <v>108</v>
       </c>
       <c r="B6" s="12">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -948,7 +948,7 @@
       </c>
       <c r="G12" s="11">
         <f>E12/$B$6</f>
-        <v>30000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="11">
         <f>E13/$B$6</f>
-        <v>40000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -994,7 +994,7 @@
       </c>
       <c r="G14" s="11">
         <f>E14/$B$6</f>
-        <v>48000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G15" s="11">
         <f>E15/$B$6</f>
-        <v>60000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G16" s="11">
         <f>E16/$B$6</f>
-        <v>72000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="G17" s="11">
         <f>E17/$B$6</f>
-        <v>80000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G18" s="11">
         <f>E18/$B$6</f>
-        <v>90000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="G19" s="11">
         <f>E19/$B$6</f>
-        <v>96000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G20" s="11">
         <f>E20/$B$6</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="G21" s="11">
         <f>E21/$B$6</f>
-        <v>106666.66666666666</v>
+        <v>213333.33333333331</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="G22" s="11">
         <f>E22/$B$6</f>
-        <v>108000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G23" s="11">
         <f>E23/$B$6</f>
-        <v>62400</v>
+        <v>124800</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="G24" s="11">
         <f>E24/$B$6</f>
-        <v>54000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="G25" s="11">
         <f>E25/$B$6</f>
-        <v>66000.000000000015</v>
+        <v>132000.00000000003</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="G27" s="11">
         <f>E27/$B$6</f>
-        <v>144000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="G28" s="11">
         <f>E28/$B$6</f>
-        <v>160000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="G29" s="11">
         <f>E29/$B$6</f>
-        <v>180000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="G30" s="11">
         <f>E30/$B$6</f>
-        <v>200000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="G31" s="11">
         <f>E31/$B$6</f>
-        <v>213333.33333333331</v>
+        <v>426666.66666666663</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G32" s="11">
         <f>E32/$B$6</f>
-        <v>216000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="G33" s="11">
         <f>E33/$B$6</f>
-        <v>153333.33333333331</v>
+        <v>306666.66666666663</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="G34" s="11">
         <f>E34/$B$6</f>
-        <v>166666.66666666666</v>
+        <v>333333.33333333331</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="G35" s="11">
         <f>E35/$B$6</f>
-        <v>173333.33333333331</v>
+        <v>346666.66666666663</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="G36" s="11">
         <f>E36/$B$6</f>
-        <v>133333.33333333334</v>
+        <v>266666.66666666669</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="G37" s="11">
         <f>E37/$B$6</f>
-        <v>138666.66666666666</v>
+        <v>277333.33333333331</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="G39" s="11">
         <f>E39/$B$6</f>
-        <v>320000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="G40" s="11">
         <f>E40/$B$6</f>
-        <v>360000</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G41" s="11">
         <f>E41/$B$6</f>
-        <v>384000</v>
+        <v>768000</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="G42" s="11">
         <f>E42/$B$6</f>
-        <v>400000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G43" s="11">
         <f>E43/$B$6</f>
-        <v>426666.66666666663</v>
+        <v>853333.33333333326</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="G44" s="11">
         <f>E44/$B$6</f>
-        <v>432000</v>
+        <v>864000</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="G45" s="11">
         <f>E45/$B$6</f>
-        <v>277333.33333333331</v>
+        <v>554666.66666666663</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="G46" s="11">
         <f>E46/$B$6</f>
-        <v>288000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="G47" s="11">
         <f>E47/$B$6</f>
-        <v>298666.66666666669</v>
+        <v>597333.33333333337</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="G48" s="11">
         <f>E48/$B$6</f>
-        <v>306666.66666666663</v>
+        <v>613333.33333333326</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="G49" s="11">
         <f>E49/$B$6</f>
-        <v>333333.33333333331</v>
+        <v>666666.66666666663</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="G50" s="11">
         <f>E50/$B$6</f>
-        <v>346666.66666666663</v>
+        <v>693333.33333333326</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="G51" s="11">
         <f>E51/$B$6</f>
-        <v>373333.33333333337</v>
+        <v>746666.66666666674</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G52" s="11">
         <f>E52/$B$6</f>
-        <v>410666.66666666663</v>
+        <v>821333.33333333326</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="G53" s="11">
         <f>E53/$B$6</f>
-        <v>266666.66666666669</v>
+        <v>533333.33333333337</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="G54" s="11">
         <f>E54/$B$6</f>
-        <v>256000</v>
+        <v>512000</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="G55" s="11">
         <f>E55/$B$6</f>
-        <v>240000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="G56" s="11">
         <f>E56/$B$6</f>
-        <v>288000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="G57" s="11">
         <f>E57/$B$6</f>
-        <v>320000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="G59" s="11">
         <f>E59/$B$6</f>
-        <v>720000</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="G60" s="11">
         <f>E60/$B$6</f>
-        <v>768000</v>
+        <v>1536000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="G61" s="11">
         <f>E61/$B$6</f>
-        <v>800000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="G62" s="11">
         <f>E62/$B$6</f>
-        <v>853333.33333333326</v>
+        <v>1706666.6666666665</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="G63" s="11">
         <f>E63/$B$6</f>
-        <v>864000</v>
+        <v>1728000</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G64" s="11">
         <f>E64/$B$6</f>
-        <v>682666.66666666674</v>
+        <v>1365333.3333333335</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="G65" s="11">
         <f>E65/$B$6</f>
-        <v>704000</v>
+        <v>1408000</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G66" s="11">
         <f>E66/$B$6</f>
-        <v>746666.66666666674</v>
+        <v>1493333.3333333335</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G67" s="11">
         <f>E67/$B$6</f>
-        <v>640000</v>
+        <v>1280000</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="G69" s="11">
         <f>E69/$B$6</f>
-        <v>1408000</v>
+        <v>2816000</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G70" s="11">
         <f>E70/$B$6</f>
-        <v>1493333.3333333335</v>
+        <v>2986666.666666667</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="G71" s="11">
         <f>E71/$B$6</f>
-        <v>1536000</v>
+        <v>3072000</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="G72" s="11">
         <f>E72/$B$6</f>
-        <v>1600000</v>
+        <v>3200000</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="G73" s="11">
         <f>E73/$B$6</f>
-        <v>1365333.3333333335</v>
+        <v>2730666.666666667</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="G75" s="11">
         <f>E75/$B$6</f>
-        <v>2880000</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="G76" s="11">
         <f>E76/$B$6</f>
-        <v>2986666.666666667</v>
+        <v>5973333.333333334</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="G77" s="11">
         <f>E77/$B$6</f>
-        <v>5461333.333333334</v>
+        <v>10922666.666666668</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="G78" s="11">
         <f>E78/$B$6</f>
-        <v>5760000</v>
+        <v>11520000</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="G79" s="11">
         <f>E79/$B$6</f>
-        <v>4949333.333333334</v>
+        <v>9898666.6666666679</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="G80" s="11">
         <f>E80/$B$6</f>
-        <v>5120000</v>
+        <v>10240000</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="G81" s="11">
         <f>E81/$B$6</f>
-        <v>5290666.666666667</v>
+        <v>10581333.333333334</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="G82" s="11">
         <f>E82/$B$6</f>
-        <v>5632000</v>
+        <v>11264000</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="G86" s="11">
         <f>E86/$B$6</f>
-        <v>30000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="G87" s="11">
         <f>E87/$B$6</f>
-        <v>40000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="G88" s="11">
         <f>E88/$B$6</f>
-        <v>48000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="G89" s="11">
         <f>E89/$B$6</f>
-        <v>60000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="G90" s="11">
         <f>E90/$B$6</f>
-        <v>72000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="G91" s="11">
         <f>E91/$B$6</f>
-        <v>80000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="G92" s="11">
         <f>E92/$B$6</f>
-        <v>90000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="G93" s="11">
         <f>E93/$B$6</f>
-        <v>96000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="G94" s="11">
         <f>E94/$B$6</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G95" s="11">
         <f>E95/$B$6</f>
-        <v>106666.66666666666</v>
+        <v>213333.33333333331</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="G96" s="11">
         <f>E96/$B$6</f>
-        <v>29333.333333333328</v>
+        <v>58666.666666666657</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="G97" s="11">
         <f>E97/$B$6</f>
-        <v>32000</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="G98" s="11">
         <f>E98/$B$6</f>
-        <v>37333.333333333336</v>
+        <v>74666.666666666672</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G99" s="11">
         <f>E99/$B$6</f>
-        <v>56000</v>
+        <v>112000</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="G100" s="11">
         <f>E100/$B$6</f>
-        <v>64000</v>
+        <v>128000</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="G101" s="11">
         <f>E101/$B$6</f>
-        <v>85333.333333333343</v>
+        <v>170666.66666666669</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="G103" s="11">
         <f>E103/$B$6</f>
-        <v>144000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="G104" s="11">
         <f>E104/$B$6</f>
-        <v>160000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="G105" s="11">
         <f>E105/$B$6</f>
-        <v>180000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="G106" s="11">
         <f>E106/$B$6</f>
-        <v>200000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="G107" s="11">
         <f>E107/$B$6</f>
-        <v>213333.33333333331</v>
+        <v>426666.66666666663</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="G108" s="11">
         <f>E108/$B$6</f>
-        <v>112000</v>
+        <v>224000</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="G109" s="11">
         <f>E109/$B$6</f>
-        <v>128000</v>
+        <v>256000</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G110" s="11">
         <f>E110/$B$6</f>
-        <v>138666.66666666666</v>
+        <v>277333.33333333331</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="G111" s="11">
         <f>E111/$B$6</f>
-        <v>170666.66666666669</v>
+        <v>341333.33333333337</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="G113" s="11">
         <f>E113/$B$6</f>
-        <v>320000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G114" s="11">
         <f>E114/$B$6</f>
-        <v>360000</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="G115" s="11">
         <f>E115/$B$6</f>
-        <v>384000</v>
+        <v>768000</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="G116" s="11">
         <f>E116/$B$6</f>
-        <v>400000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="G117" s="11">
         <f>E117/$B$6</f>
-        <v>426666.66666666663</v>
+        <v>853333.33333333326</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="G118" s="11">
         <f>E118/$B$6</f>
-        <v>224000</v>
+        <v>448000</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="G119" s="11">
         <f>E119/$B$6</f>
-        <v>256000</v>
+        <v>512000</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="G120" s="11">
         <f>E120/$B$6</f>
-        <v>277333.33333333331</v>
+        <v>554666.66666666663</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="G121" s="11">
         <f>E121/$B$6</f>
-        <v>288000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="G122" s="11">
         <f>E122/$B$6</f>
-        <v>341333.33333333337</v>
+        <v>682666.66666666674</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="G124" s="11">
         <f>E124/$B$6</f>
-        <v>640000</v>
+        <v>1280000</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="G125" s="11">
         <f>E125/$B$6</f>
-        <v>682666.66666666674</v>
+        <v>1365333.3333333335</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="G130" s="11">
         <f>E130/$B$6</f>
-        <v>26666.666666666664</v>
+        <v>53333.333333333328</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="G132" s="11">
         <f>E132/$B$6</f>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="G133" s="11">
         <f>E133/$B$6</f>
-        <v>14666.666666666664</v>
+        <v>29333.333333333328</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G134" s="11">
         <f>E134/$B$6</f>
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="G136" s="11">
         <f>E136/$B$6</f>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="G137" s="11">
         <f>E137/$B$6</f>
-        <v>16000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="G138" s="11">
         <f>E138/$B$6</f>
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="G139" s="11">
         <f>E139/$B$6</f>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="G140" s="11">
         <f>E140/$B$6</f>
-        <v>14666.666666666664</v>
+        <v>29333.333333333328</v>
       </c>
     </row>
   </sheetData>

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -788,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,8 +839,8 @@
         <v>7</v>
       </c>
       <c r="B7" s="3">
-        <f>6*10^6</f>
-        <v>6000000</v>
+        <f>8*10^6</f>
+        <v>8000000</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -900,19 +899,19 @@
       </c>
       <c r="E12" s="7">
         <f>$B$7/($B$11/D12+90+ROUNDUP(($B$11/D12/90/16-1),0)*0)*($B$11*(B12)-(16*12)-80)</f>
-        <v>2941458.9104339797</v>
+        <v>3921945.2139119729</v>
       </c>
       <c r="F12" s="7">
         <f>$B$7/($B$11/D12+90+ROUNDUP(($B$11/D12/90/16-1),0)*36)*($B$11*(B12)-(16*12)-80)</f>
-        <v>2871462.0515594012</v>
+        <v>3828616.0687458687</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" ref="G12:G25" si="0">E12/$B$5</f>
-        <v>588.29178208679593</v>
+        <v>784.38904278239454</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" ref="H12:H25" si="1">E12/$B$6</f>
-        <v>29414.589104339797</v>
+        <v>39219.452139119727</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -927,19 +926,19 @@
       </c>
       <c r="E13" s="7">
         <f>$B$7/($B$11/D13+90+ROUNDUP(($B$11/D13/90/16-1),0)*0)*($B$11*(B13)-(16*12)-80)</f>
-        <v>3938688.8273314829</v>
+        <v>5251585.1031086436</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" ref="F13:F76" si="2">$B$7/($B$11/D13+90+ROUNDUP(($B$11/D13/90/16-1),0)*36)*($B$11*(B13)-(16*12)-80)</f>
-        <v>3844961.2403100734</v>
+        <v>5126614.9870800981</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>787.73776546629654</v>
+        <v>1050.3170206217287</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="1"/>
-        <v>39386.888273314828</v>
+        <v>52515.851031086437</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -954,19 +953,19 @@
       </c>
       <c r="E14" s="7">
         <f>$B$7/($B$11/D14+90+ROUNDUP(($B$11/D14/90/16-1),0)*0)*($B$11*(B14)-(16*12)-80)</f>
-        <v>4736472.7608494926</v>
+        <v>6315297.0144659895</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="2"/>
-        <v>4623760.5913106184</v>
+        <v>6165014.1217474909</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>947.29455216989857</v>
+        <v>1263.059402893198</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="1"/>
-        <v>47364.727608494926</v>
+        <v>63152.970144659892</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -981,19 +980,19 @@
       </c>
       <c r="E15" s="7">
         <f>$B$7/($B$11/D15+90+ROUNDUP(($B$11/D15/90/16-1),0)*0)*($B$11*(B15)-(16*12)-80)</f>
-        <v>5933148.6611265009</v>
+        <v>7910864.8815020006</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="2"/>
-        <v>5791959.6178114293</v>
+        <v>7722612.8237485727</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>1186.6297322253001</v>
+        <v>1582.1729763004</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="1"/>
-        <v>59331.486611265012</v>
+        <v>79108.648815020002</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1007,20 +1006,20 @@
         <v>2</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" ref="E13:E76" si="3">$B$7/($B$11/D16+90+ROUNDUP(($B$11/D16/90/16-1),0)*0)*($B$11*(B16)-(16*12)-80)</f>
-        <v>7129824.5614035092</v>
+        <f t="shared" ref="E16:E76" si="3">$B$7/($B$11/D16+90+ROUNDUP(($B$11/D16/90/16-1),0)*0)*($B$11*(B16)-(16*12)-80)</f>
+        <v>9506432.7485380117</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="2"/>
-        <v>6960158.6443122411</v>
+        <v>9280211.5257496554</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>1425.9649122807018</v>
+        <v>1901.2865497076023</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>71298.245614035099</v>
+        <v>95064.327485380112</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1035,19 +1034,19 @@
       </c>
       <c r="E17" s="7">
         <f t="shared" si="3"/>
-        <v>7927608.4949215185</v>
+        <v>10570144.659895359</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>7738957.9953127857</v>
+        <v>10318610.660417048</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>1585.5216989843036</v>
+        <v>2114.0289319790718</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>79276.08494921519</v>
+        <v>105701.44659895358</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1062,19 +1061,19 @@
       </c>
       <c r="E18" s="7">
         <f t="shared" si="3"/>
-        <v>8924838.4118190221</v>
+        <v>11899784.549092028</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="2"/>
-        <v>8712457.184063457</v>
+        <v>11616609.578751277</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>1784.9676823638044</v>
+        <v>2379.9569098184056</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="1"/>
-        <v>89248.384118190224</v>
+        <v>118997.84549092028</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1089,19 +1088,19 @@
       </c>
       <c r="E19" s="7">
         <f t="shared" si="3"/>
-        <v>9523176.3619575258</v>
+        <v>12697568.482610034</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="2"/>
-        <v>9296556.6973138638</v>
+        <v>12395408.929751817</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>1904.6352723915052</v>
+        <v>2539.5136965220067</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="1"/>
-        <v>95231.763619575257</v>
+        <v>126975.68482610033</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1116,19 +1115,19 @@
       </c>
       <c r="E20" s="7">
         <f t="shared" si="3"/>
-        <v>9922068.3287165239</v>
+        <v>13229424.4382887</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="2"/>
-        <v>9685956.37281413</v>
+        <v>12914608.497085506</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>1984.4136657433048</v>
+        <v>2645.8848876577399</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="1"/>
-        <v>99220.683287165244</v>
+        <v>132294.244382887</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1143,19 +1142,19 @@
       </c>
       <c r="E21" s="7">
         <f t="shared" si="3"/>
-        <v>10586888.273314869</v>
+        <v>14115851.03108649</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="2"/>
-        <v>10334955.831981253</v>
+        <v>13779941.109308336</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>2117.3776546629738</v>
+        <v>2823.1702062172981</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="1"/>
-        <v>105868.8827331487</v>
+        <v>141158.51031086489</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1170,19 +1169,19 @@
       </c>
       <c r="E22" s="7">
         <f t="shared" si="3"/>
-        <v>10719852.262234535</v>
+        <v>14293136.349646045</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="2"/>
-        <v>10464755.723814674</v>
+        <v>13953007.631752899</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>2143.9704524469071</v>
+        <v>2858.627269929209</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="1"/>
-        <v>107198.52262234535</v>
+        <v>142931.36349646046</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1197,19 +1196,19 @@
       </c>
       <c r="E23" s="7">
         <f t="shared" si="3"/>
-        <v>3406832.8716528174</v>
+        <v>4542443.8288704231</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="2"/>
-        <v>3325761.6729763844</v>
+        <v>4434348.8973018462</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>681.36657433056348</v>
+        <v>908.48876577408464</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="1"/>
-        <v>34068.328716528173</v>
+        <v>45424.43828870423</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1224,19 +1223,19 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" si="3"/>
-        <v>5334810.7109879963</v>
+        <v>7113080.9479839951</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="2"/>
-        <v>5207860.1045610234</v>
+        <v>6943813.4727480318</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>1066.9621421975992</v>
+        <v>1422.6161895967989</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="1"/>
-        <v>53348.107109879966</v>
+        <v>71130.809479839954</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1251,19 +1250,19 @@
       </c>
       <c r="E25" s="7">
         <f t="shared" si="3"/>
-        <v>6531486.6112650055</v>
+        <v>8708648.8150200062</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="2"/>
-        <v>6376059.1310618352</v>
+        <v>8501412.1747491136</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>1306.2973222530011</v>
+        <v>1741.7297630040011</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="1"/>
-        <v>65314.866112650052</v>
+        <v>87086.488150200064</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1285,19 +1284,19 @@
       </c>
       <c r="E27" s="7">
         <f t="shared" si="3"/>
-        <v>10679944.674965421</v>
+        <v>14239926.233287228</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="2"/>
-        <v>10437415.517707488</v>
+        <v>13916554.023609987</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" ref="G27:G37" si="4">E27/$B$5</f>
-        <v>2135.9889349930841</v>
+        <v>2847.9852466574457</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" ref="H27:H37" si="5">E27/$B$6</f>
-        <v>106799.44674965421</v>
+        <v>142399.26233287228</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1312,19 +1311,19 @@
       </c>
       <c r="E28" s="7">
         <f t="shared" si="3"/>
-        <v>11874965.421853393</v>
+        <v>15833287.22913786</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="2"/>
-        <v>11605298.729386326</v>
+        <v>15473731.63918177</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="4"/>
-        <v>2374.9930843706788</v>
+        <v>3166.6574458275722</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="5"/>
-        <v>118749.65421853393</v>
+        <v>158332.87229137859</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1339,19 +1338,19 @@
       </c>
       <c r="E29" s="7">
         <f t="shared" si="3"/>
-        <v>13368741.355463346</v>
+        <v>17824988.473951131</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="2"/>
-        <v>13065152.743984861</v>
+        <v>17420203.658646483</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="4"/>
-        <v>2673.7482710926693</v>
+        <v>3564.9976947902264</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="5"/>
-        <v>133687.41355463347</v>
+        <v>178249.8847395113</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1366,19 +1365,19 @@
       </c>
       <c r="E30" s="7">
         <f t="shared" si="3"/>
-        <v>14862517.2890733</v>
+        <v>19816689.718764398</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="2"/>
-        <v>14525006.758583395</v>
+        <v>19366675.678111196</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="4"/>
-        <v>2972.5034578146601</v>
+        <v>3963.3379437528797</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="5"/>
-        <v>148625.172890733</v>
+        <v>198166.89718764398</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1393,19 +1392,19 @@
       </c>
       <c r="E31" s="7">
         <f t="shared" si="3"/>
-        <v>15858367.911479946</v>
+        <v>21144490.548639927</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="2"/>
-        <v>15498242.768315762</v>
+        <v>20664323.691087686</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="4"/>
-        <v>3171.673582295989</v>
+        <v>4228.8981097279857</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="5"/>
-        <v>158583.67911479945</v>
+        <v>211444.90548639928</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1420,19 +1419,19 @@
       </c>
       <c r="E32" s="7">
         <f t="shared" si="3"/>
-        <v>16057538.035961272</v>
+        <v>21410050.714615028</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="2"/>
-        <v>15692889.970262233</v>
+        <v>20923853.293682978</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="4"/>
-        <v>3211.5076071922545</v>
+        <v>4282.0101429230053</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="5"/>
-        <v>160575.38035961273</v>
+        <v>214100.50714615028</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1447,19 +1446,19 @@
       </c>
       <c r="E33" s="7">
         <f t="shared" si="3"/>
-        <v>11377040.11065007</v>
+        <v>15169386.814200094</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="2"/>
-        <v>11118680.724520143</v>
+        <v>14824907.632693525</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="4"/>
-        <v>2275.4080221300142</v>
+        <v>3033.8773628400186</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="5"/>
-        <v>113770.40110650071</v>
+        <v>151693.86814200095</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1474,19 +1473,19 @@
       </c>
       <c r="E34" s="7">
         <f t="shared" si="3"/>
-        <v>12372890.7330567</v>
+        <v>16497187.6440756</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="2"/>
-        <v>12091916.734252492</v>
+        <v>16122555.645669991</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="4"/>
-        <v>2474.5781466113399</v>
+        <v>3299.43752881512</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="5"/>
-        <v>123728.907330567</v>
+        <v>164971.87644075599</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1501,19 +1500,19 @@
       </c>
       <c r="E35" s="7">
         <f t="shared" si="3"/>
-        <v>12870816.044260023</v>
+        <v>17161088.059013363</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="2"/>
-        <v>12578534.739118677</v>
+        <v>16771379.652158236</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="4"/>
-        <v>2574.1632088520046</v>
+        <v>3432.2176118026728</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="5"/>
-        <v>128708.16044260023</v>
+        <v>171610.88059013363</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1528,19 +1527,19 @@
       </c>
       <c r="E36" s="7">
         <f t="shared" si="3"/>
-        <v>9883264.1770401187</v>
+        <v>13177685.569386825</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="2"/>
-        <v>9658826.7099216077</v>
+        <v>12878435.613228813</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="4"/>
-        <v>1976.6528354080237</v>
+        <v>2635.5371138773648</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="5"/>
-        <v>98832.641770401184</v>
+        <v>131776.85569386824</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1555,19 +1554,19 @@
       </c>
       <c r="E37" s="7">
         <f t="shared" si="3"/>
-        <v>10281604.426002767</v>
+        <v>13708805.901337024</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="2"/>
-        <v>10048121.113814546</v>
+        <v>13397494.818419397</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="4"/>
-        <v>2056.3208852005532</v>
+        <v>2741.7611802674046</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="5"/>
-        <v>102816.04426002767</v>
+        <v>137088.05901337025</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1589,19 +1588,19 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" si="3"/>
-        <v>15811418.047882145</v>
+        <v>21081890.730509527</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="2"/>
-        <v>15436174.038115792</v>
+        <v>20581565.384154391</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" ref="G39:G57" si="6">E39/$B$5</f>
-        <v>3162.2836095764292</v>
+        <v>4216.3781461019053</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" ref="H39:H57" si="7">E39/$B$6</f>
-        <v>158114.18047882145</v>
+        <v>210818.90730509526</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1616,19 +1615,19 @@
       </c>
       <c r="E40" s="7">
         <f t="shared" si="3"/>
-        <v>17800368.32412523</v>
+        <v>23733824.432166975</v>
       </c>
       <c r="F40" s="7">
         <f t="shared" si="2"/>
-        <v>17377921.610931318</v>
+        <v>23170562.147908427</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="6"/>
-        <v>3560.0736648250459</v>
+        <v>4746.7648864333951</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" si="7"/>
-        <v>178003.68324125229</v>
+        <v>237338.24432166974</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1643,19 +1642,19 @@
       </c>
       <c r="E41" s="7">
         <f t="shared" si="3"/>
-        <v>18993738.489871088</v>
+        <v>25324984.653161451</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" si="2"/>
-        <v>18542970.15462064</v>
+        <v>24723960.206160855</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="6"/>
-        <v>3798.7476979742178</v>
+        <v>5064.9969306322901</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" si="7"/>
-        <v>189937.38489871088</v>
+        <v>253249.84653161452</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1670,19 +1669,19 @@
       </c>
       <c r="E42" s="7">
         <f t="shared" si="3"/>
-        <v>19789318.600368317</v>
+        <v>26385758.133824423</v>
       </c>
       <c r="F42" s="7">
         <f t="shared" si="2"/>
-        <v>19319669.183746845</v>
+        <v>25759558.911662463</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="6"/>
-        <v>3957.8637200736634</v>
+        <v>5277.1516267648849</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="7"/>
-        <v>197893.18600368316</v>
+        <v>263857.58133824426</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1697,19 +1696,19 @@
       </c>
       <c r="E43" s="7">
         <f t="shared" si="3"/>
-        <v>21115285.451197058</v>
+        <v>28153713.934929408</v>
       </c>
       <c r="F43" s="7">
         <f t="shared" si="2"/>
-        <v>20614167.565623879</v>
+        <v>27485556.754165173</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="6"/>
-        <v>4223.057090239412</v>
+        <v>5630.742786985882</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="7"/>
-        <v>211152.85451197057</v>
+        <v>281537.13934929407</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1724,19 +1723,19 @@
       </c>
       <c r="E44" s="7">
         <f t="shared" si="3"/>
-        <v>21380478.821362801</v>
+        <v>28507305.0951504</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="2"/>
-        <v>20873067.24199928</v>
+        <v>27830756.32266571</v>
       </c>
       <c r="G44" s="8">
         <f t="shared" si="6"/>
-        <v>4276.0957642725598</v>
+        <v>5701.46101903008</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="7"/>
-        <v>213804.78821362799</v>
+        <v>285073.05095150397</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1751,19 +1750,19 @@
       </c>
       <c r="E45" s="7">
         <f t="shared" si="3"/>
-        <v>13689871.086556172</v>
+        <v>18253161.448741563</v>
       </c>
       <c r="F45" s="7">
         <f t="shared" si="2"/>
-        <v>13364976.627112551</v>
+        <v>17819968.836150069</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="6"/>
-        <v>2737.9742173112345</v>
+        <v>3650.6322897483124</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="7"/>
-        <v>136898.71086556173</v>
+        <v>182531.61448741562</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1778,19 +1777,19 @@
       </c>
       <c r="E46" s="7">
         <f t="shared" si="3"/>
-        <v>14220257.826887662</v>
+        <v>18960343.76918355</v>
       </c>
       <c r="F46" s="7">
         <f t="shared" si="2"/>
-        <v>13882775.979863357</v>
+        <v>18510367.973151144</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="6"/>
-        <v>2844.0515653775324</v>
+        <v>3792.0687538367101</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="7"/>
-        <v>142202.57826887662</v>
+        <v>189603.43769183551</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1805,19 +1804,19 @@
       </c>
       <c r="E47" s="7">
         <f t="shared" si="3"/>
-        <v>14750644.567219147</v>
+        <v>19667526.08962553</v>
       </c>
       <c r="F47" s="7">
         <f t="shared" si="2"/>
-        <v>14400575.332614161</v>
+        <v>19200767.110152218</v>
       </c>
       <c r="G47" s="8">
         <f t="shared" si="6"/>
-        <v>2950.1289134438293</v>
+        <v>3933.5052179251061</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="7"/>
-        <v>147506.44567219148</v>
+        <v>196675.26089625529</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1832,19 +1831,19 @@
       </c>
       <c r="E48" s="7">
         <f t="shared" si="3"/>
-        <v>15148434.622467775</v>
+        <v>20197912.829957034</v>
       </c>
       <c r="F48" s="7">
         <f t="shared" si="2"/>
-        <v>14788924.847177276</v>
+        <v>19718566.462903038</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="6"/>
-        <v>3029.6869244935551</v>
+        <v>4039.5825659914067</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="7"/>
-        <v>151484.34622467775</v>
+        <v>201979.12829957035</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -1859,19 +1858,19 @@
       </c>
       <c r="E49" s="7">
         <f t="shared" si="3"/>
-        <v>16474401.47329649</v>
+        <v>21965868.63106199</v>
       </c>
       <c r="F49" s="7">
         <f t="shared" si="2"/>
-        <v>16083423.229054285</v>
+        <v>21444564.305405717</v>
       </c>
       <c r="G49" s="8">
         <f t="shared" si="6"/>
-        <v>3294.8802946592978</v>
+        <v>4393.1737262123979</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="7"/>
-        <v>164744.01473296489</v>
+        <v>219658.6863106199</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -1886,19 +1885,19 @@
       </c>
       <c r="E50" s="7">
         <f t="shared" si="3"/>
-        <v>17137384.898710862</v>
+        <v>22849846.531614482</v>
       </c>
       <c r="F50" s="7">
         <f t="shared" si="2"/>
-        <v>16730672.419992803</v>
+        <v>22307563.22665707</v>
       </c>
       <c r="G50" s="8">
         <f t="shared" si="6"/>
-        <v>3427.4769797421723</v>
+        <v>4569.969306322896</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" si="7"/>
-        <v>171373.84898710862</v>
+        <v>228498.46531614484</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -1913,19 +1912,19 @@
       </c>
       <c r="E51" s="7">
         <f t="shared" si="3"/>
-        <v>18463351.749539599</v>
+        <v>24617802.332719468</v>
       </c>
       <c r="F51" s="7">
         <f t="shared" si="2"/>
-        <v>18025170.801869836</v>
+        <v>24033561.069159783</v>
       </c>
       <c r="G51" s="8">
         <f t="shared" si="6"/>
-        <v>3692.6703499079199</v>
+        <v>4923.5604665438932</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" si="7"/>
-        <v>184633.51749539599</v>
+        <v>246178.02332719468</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -1940,19 +1939,19 @@
       </c>
       <c r="E52" s="7">
         <f t="shared" si="3"/>
-        <v>20319705.340699825</v>
+        <v>27092940.454266436</v>
       </c>
       <c r="F52" s="7">
         <f t="shared" si="2"/>
-        <v>19837468.536497671</v>
+        <v>26449958.048663564</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" si="6"/>
-        <v>4063.941068139965</v>
+        <v>5418.5880908532872</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="7"/>
-        <v>203197.05340699825</v>
+        <v>270929.40454266436</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -1967,19 +1966,19 @@
       </c>
       <c r="E53" s="7">
         <f t="shared" si="3"/>
-        <v>13159484.346224688</v>
+        <v>17545979.128299586</v>
       </c>
       <c r="F53" s="7">
         <f t="shared" si="2"/>
-        <v>12847177.27436175</v>
+        <v>17129569.699149001</v>
       </c>
       <c r="G53" s="8">
         <f t="shared" si="6"/>
-        <v>2631.8968692449375</v>
+        <v>3509.1958256599173</v>
       </c>
       <c r="H53" s="8">
         <f t="shared" si="7"/>
-        <v>131594.84346224688</v>
+        <v>175459.79128299587</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -1994,19 +1993,19 @@
       </c>
       <c r="E54" s="7">
         <f t="shared" si="3"/>
-        <v>12629097.605893178</v>
+        <v>16838796.807857573</v>
       </c>
       <c r="F54" s="7">
         <f t="shared" si="2"/>
-        <v>12329377.921610923</v>
+        <v>16439170.562147899</v>
       </c>
       <c r="G54" s="8">
         <f t="shared" si="6"/>
-        <v>2525.8195211786356</v>
+        <v>3367.7593615715145</v>
       </c>
       <c r="H54" s="8">
         <f t="shared" si="7"/>
-        <v>126290.97605893177</v>
+        <v>168387.96807857574</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2021,19 +2020,19 @@
       </c>
       <c r="E55" s="7">
         <f t="shared" si="3"/>
-        <v>11833517.495395949</v>
+        <v>15778023.327194599</v>
       </c>
       <c r="F55" s="7">
         <f t="shared" si="2"/>
-        <v>11552678.892484717</v>
+        <v>15403571.85664629</v>
       </c>
       <c r="G55" s="8">
         <f t="shared" si="6"/>
-        <v>2366.7034990791899</v>
+        <v>3155.6046654389197</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="7"/>
-        <v>118335.17495395949</v>
+        <v>157780.233271946</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2048,19 +2047,19 @@
       </c>
       <c r="E56" s="7">
         <f t="shared" si="3"/>
-        <v>14220257.826887662</v>
+        <v>18960343.76918355</v>
       </c>
       <c r="F56" s="7">
         <f t="shared" si="2"/>
-        <v>13882775.979863357</v>
+        <v>18510367.973151144</v>
       </c>
       <c r="G56" s="8">
         <f t="shared" si="6"/>
-        <v>2844.0515653775324</v>
+        <v>3792.0687538367101</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="7"/>
-        <v>142202.57826887662</v>
+        <v>189603.43769183551</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2075,19 +2074,19 @@
       </c>
       <c r="E57" s="7">
         <f t="shared" si="3"/>
-        <v>15811418.047882145</v>
+        <v>21081890.730509527</v>
       </c>
       <c r="F57" s="7">
         <f t="shared" si="2"/>
-        <v>15436174.038115792</v>
+        <v>20581565.384154391</v>
       </c>
       <c r="G57" s="8">
         <f t="shared" si="6"/>
-        <v>3162.2836095764292</v>
+        <v>4216.3781461019053</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" si="7"/>
-        <v>158114.18047882145</v>
+        <v>210818.90730509526</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2110,19 +2109,19 @@
       </c>
       <c r="E59" s="7">
         <f t="shared" si="3"/>
-        <v>22219770.114942528</v>
+        <v>29626360.153256707</v>
       </c>
       <c r="F59" s="7">
         <f t="shared" si="2"/>
-        <v>21739991.003148898</v>
+        <v>28986654.670865197</v>
       </c>
       <c r="G59" s="8">
         <f t="shared" ref="G59:G67" si="8">E59/$B$5</f>
-        <v>4443.954022988506</v>
+        <v>5925.2720306513411</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" ref="H59:H67" si="9">E59/$B$6</f>
-        <v>222197.70114942529</v>
+        <v>296263.60153256706</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2137,19 +2136,19 @@
       </c>
       <c r="E60" s="7">
         <f t="shared" si="3"/>
-        <v>23709425.287356321</v>
+        <v>31612567.049808431</v>
       </c>
       <c r="F60" s="7">
         <f t="shared" si="2"/>
-        <v>23197480.881691407</v>
+        <v>30929974.508921877</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" si="8"/>
-        <v>4741.8850574712642</v>
+        <v>6322.5134099616862</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="9"/>
-        <v>237094.25287356321</v>
+        <v>316125.67049808434</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2164,19 +2163,19 @@
       </c>
       <c r="E61" s="7">
         <f t="shared" si="3"/>
-        <v>24702528.735632174</v>
+        <v>32936704.980842903</v>
       </c>
       <c r="F61" s="7">
         <f t="shared" si="2"/>
-        <v>24169140.800719738</v>
+        <v>32225521.067626316</v>
       </c>
       <c r="G61" s="8">
         <f t="shared" si="8"/>
-        <v>4940.5057471264345</v>
+        <v>6587.3409961685802</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="9"/>
-        <v>247025.28735632173</v>
+        <v>329367.04980842903</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2191,19 +2190,19 @@
       </c>
       <c r="E62" s="7">
         <f t="shared" si="3"/>
-        <v>26357701.149425291</v>
+        <v>35143601.532567054</v>
       </c>
       <c r="F62" s="7">
         <f t="shared" si="2"/>
-        <v>25788573.99910032</v>
+        <v>34384765.332133755</v>
       </c>
       <c r="G62" s="8">
         <f t="shared" si="8"/>
-        <v>5271.5402298850577</v>
+        <v>7028.7203065134108</v>
       </c>
       <c r="H62" s="8">
         <f t="shared" si="9"/>
-        <v>263577.01149425289</v>
+        <v>351436.01532567054</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2218,19 +2217,19 @@
       </c>
       <c r="E63" s="7">
         <f t="shared" si="3"/>
-        <v>26688735.632183906</v>
+        <v>35584980.842911884</v>
       </c>
       <c r="F63" s="7">
         <f t="shared" si="2"/>
-        <v>26112460.638776429</v>
+        <v>34816614.185035236</v>
       </c>
       <c r="G63" s="8">
         <f t="shared" si="8"/>
-        <v>5337.7471264367814</v>
+        <v>7116.9961685823764</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" si="9"/>
-        <v>266887.35632183903</v>
+        <v>355849.80842911883</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2245,19 +2244,19 @@
       </c>
       <c r="E64" s="7">
         <f t="shared" si="3"/>
-        <v>21061149.425287351</v>
+        <v>28081532.567049805</v>
       </c>
       <c r="F64" s="7">
         <f t="shared" si="2"/>
-        <v>20606387.764282499</v>
+        <v>27475183.685709998</v>
       </c>
       <c r="G64" s="8">
         <f t="shared" si="8"/>
-        <v>4212.2298850574698</v>
+        <v>5616.3065134099606</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="9"/>
-        <v>210611.4942528735</v>
+        <v>280815.32567049807</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2272,19 +2271,19 @@
       </c>
       <c r="E65" s="7">
         <f t="shared" si="3"/>
-        <v>21723218.390804589</v>
+        <v>28964291.187739454</v>
       </c>
       <c r="F65" s="7">
         <f t="shared" si="2"/>
-        <v>21254161.04363472</v>
+        <v>28338881.391512956</v>
       </c>
       <c r="G65" s="8">
         <f t="shared" si="8"/>
-        <v>4344.6436781609182</v>
+        <v>5792.8582375478909</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="9"/>
-        <v>217232.18390804587</v>
+        <v>289642.91187739454</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2299,19 +2298,19 @@
       </c>
       <c r="E66" s="7">
         <f t="shared" si="3"/>
-        <v>23047356.321839087</v>
+        <v>30729808.429118786</v>
       </c>
       <c r="F66" s="7">
         <f t="shared" si="2"/>
-        <v>22549707.602339189</v>
+        <v>30066276.803118918</v>
       </c>
       <c r="G66" s="8">
         <f t="shared" si="8"/>
-        <v>4609.4712643678176</v>
+        <v>6145.9616858237569</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="9"/>
-        <v>230473.56321839086</v>
+        <v>307298.08429118787</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2326,19 +2325,19 @@
       </c>
       <c r="E67" s="7">
         <f t="shared" si="3"/>
-        <v>19737011.494252883</v>
+        <v>26316015.325670514</v>
       </c>
       <c r="F67" s="7">
         <f t="shared" si="2"/>
-        <v>19310841.205578059</v>
+        <v>25747788.274104077</v>
       </c>
       <c r="G67" s="8">
         <f t="shared" si="8"/>
-        <v>3947.4022988505767</v>
+        <v>5263.2030651341029</v>
       </c>
       <c r="H67" s="8">
         <f t="shared" si="9"/>
-        <v>197370.11494252883</v>
+        <v>263160.15325670515</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2361,19 +2360,19 @@
       </c>
       <c r="E69" s="7">
         <f t="shared" si="3"/>
-        <v>26031955.922865</v>
+        <v>34709274.563820004</v>
       </c>
       <c r="F69" s="7">
         <f t="shared" si="2"/>
-        <v>25443187.937533643</v>
+        <v>33924250.583378188</v>
       </c>
       <c r="G69" s="8">
         <f>E69/$B$5</f>
-        <v>5206.3911845729999</v>
+        <v>6941.8549127640008</v>
       </c>
       <c r="H69" s="8">
         <f>E69/$B$6</f>
-        <v>260319.55922865</v>
+        <v>347092.74563820002</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2388,19 +2387,19 @@
       </c>
       <c r="E70" s="7">
         <f t="shared" si="3"/>
-        <v>27618732.782369152</v>
+        <v>36824977.043158874</v>
       </c>
       <c r="F70" s="7">
         <f t="shared" si="2"/>
-        <v>26994076.467420578</v>
+        <v>35992101.956560768</v>
       </c>
       <c r="G70" s="8">
         <f>E70/$B$5</f>
-        <v>5523.7465564738304</v>
+        <v>7364.9954086317748</v>
       </c>
       <c r="H70" s="8">
         <f>E70/$B$6</f>
-        <v>276187.32782369154</v>
+        <v>368249.77043158875</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -2415,19 +2414,19 @@
       </c>
       <c r="E71" s="7">
         <f t="shared" si="3"/>
-        <v>28412121.212121211</v>
+        <v>37882828.282828286</v>
       </c>
       <c r="F71" s="7">
         <f t="shared" si="2"/>
-        <v>27769520.732364025</v>
+        <v>37026027.643152036</v>
       </c>
       <c r="G71" s="8">
         <f>E71/$B$5</f>
-        <v>5682.424242424242</v>
+        <v>7576.5656565656573</v>
       </c>
       <c r="H71" s="8">
         <f>E71/$B$6</f>
-        <v>284121.2121212121</v>
+        <v>378828.28282828286</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2442,19 +2441,19 @@
       </c>
       <c r="E72" s="7">
         <f t="shared" si="3"/>
-        <v>29602203.856749296</v>
+        <v>39469605.142332397</v>
       </c>
       <c r="F72" s="7">
         <f t="shared" si="2"/>
-        <v>28932687.129779201</v>
+        <v>38576916.17303893</v>
       </c>
       <c r="G72" s="8">
         <f>E72/$B$5</f>
-        <v>5920.4407713498595</v>
+        <v>7893.9210284664796</v>
       </c>
       <c r="H72" s="8">
         <f>E72/$B$6</f>
-        <v>296022.03856749297</v>
+        <v>394696.05142332398</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -2469,19 +2468,19 @@
       </c>
       <c r="E73" s="7">
         <f t="shared" si="3"/>
-        <v>25238567.49311294</v>
+        <v>33651423.324150592</v>
       </c>
       <c r="F73" s="7">
         <f t="shared" si="2"/>
-        <v>24667743.672590192</v>
+        <v>32890324.896786924</v>
       </c>
       <c r="G73" s="8">
         <f>E73/$B$5</f>
-        <v>5047.7134986225883</v>
+        <v>6730.2846648301183</v>
       </c>
       <c r="H73" s="8">
         <f>E73/$B$6</f>
-        <v>252385.67493112941</v>
+        <v>336514.23324150592</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2504,19 +2503,19 @@
       </c>
       <c r="E75" s="7">
         <f t="shared" si="3"/>
-        <v>31022099.95414947</v>
+        <v>41362799.938865967</v>
       </c>
       <c r="F75" s="7">
         <f t="shared" si="2"/>
-        <v>30321412.566101998</v>
+        <v>40428550.088135995</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" ref="G75:G82" si="10">E75/$B$5</f>
-        <v>6204.4199908298942</v>
+        <v>8272.5599877731929</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" ref="H75:H82" si="11">E75/$B$6</f>
-        <v>310220.9995414947</v>
+        <v>413627.99938865966</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -2531,19 +2530,19 @@
       </c>
       <c r="E76" s="7">
         <f t="shared" si="3"/>
-        <v>32177533.241632286</v>
+        <v>42903377.655509718</v>
       </c>
       <c r="F76" s="7">
         <f t="shared" si="2"/>
-        <v>31450748.409070548</v>
+        <v>41934331.212094061</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="10"/>
-        <v>6435.5066483264573</v>
+        <v>8580.6755311019442</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="11"/>
-        <v>321775.33241632284</v>
+        <v>429033.7765550972</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -2558,19 +2557,19 @@
       </c>
       <c r="E77" s="7">
         <f t="shared" ref="E77:E140" si="12">$B$7/($B$11/D77+90+ROUNDUP(($B$11/D77/90/16-1),0)*0)*($B$11*(B77)-(16*12)-80)</f>
-        <v>33558974.358974352</v>
+        <v>44745299.145299144</v>
       </c>
       <c r="F77" s="7">
         <f t="shared" ref="F77:F140" si="13">$B$7/($B$11/D77+90+ROUNDUP(($B$11/D77/90/16-1),0)*36)*($B$11*(B77)-(16*12)-80)</f>
-        <v>32837275.985663075</v>
+        <v>43783034.647550769</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="10"/>
-        <v>6711.7948717948702</v>
+        <v>8949.0598290598282</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="11"/>
-        <v>335589.74358974351</v>
+        <v>447452.99145299144</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -2585,19 +2584,19 @@
       </c>
       <c r="E78" s="7">
         <f t="shared" si="12"/>
-        <v>35405128.205128208</v>
+        <v>47206837.606837608</v>
       </c>
       <c r="F78" s="7">
         <f t="shared" si="13"/>
-        <v>34643727.598566309</v>
+        <v>46191636.798088409</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="10"/>
-        <v>7081.0256410256416</v>
+        <v>9441.3675213675215</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="11"/>
-        <v>354051.28205128206</v>
+        <v>472068.37606837606</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -2612,19 +2611,19 @@
       </c>
       <c r="E79" s="7">
         <f t="shared" si="12"/>
-        <v>30394139.194139175</v>
+        <v>40525518.9255189</v>
       </c>
       <c r="F79" s="7">
         <f t="shared" si="13"/>
-        <v>29740501.792114671</v>
+        <v>39654002.389486231</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="10"/>
-        <v>6078.827838827835</v>
+        <v>8105.10378510378</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="11"/>
-        <v>303941.39194139175</v>
+        <v>405255.18925518898</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -2639,19 +2638,19 @@
       </c>
       <c r="E80" s="7">
         <f t="shared" si="12"/>
-        <v>31449084.249084264</v>
+        <v>41932112.332112357</v>
       </c>
       <c r="F80" s="7">
         <f t="shared" si="13"/>
-        <v>30772759.856630839</v>
+        <v>41030346.475507788</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="10"/>
-        <v>6289.8168498168525</v>
+        <v>8386.4224664224712</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="11"/>
-        <v>314490.84249084262</v>
+        <v>419321.1233211236</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2666,19 +2665,19 @@
       </c>
       <c r="E81" s="7">
         <f t="shared" si="12"/>
-        <v>32504029.304029308</v>
+        <v>43338705.738705747</v>
       </c>
       <c r="F81" s="7">
         <f t="shared" si="13"/>
-        <v>31805017.921146955</v>
+        <v>42406690.561529279</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="10"/>
-        <v>6500.8058608058618</v>
+        <v>8667.7411477411497</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="11"/>
-        <v>325040.29304029309</v>
+        <v>433387.05738705746</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -2693,19 +2692,19 @@
       </c>
       <c r="E82" s="7">
         <f t="shared" si="12"/>
-        <v>34613919.413919397</v>
+        <v>46151892.551892534</v>
       </c>
       <c r="F82" s="7">
         <f t="shared" si="13"/>
-        <v>33869534.050179191</v>
+        <v>45159378.73357226</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="10"/>
-        <v>6922.7838827838796</v>
+        <v>9230.3785103785067</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="11"/>
-        <v>346139.19413919398</v>
+        <v>461518.92551892536</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -2746,19 +2745,19 @@
       </c>
       <c r="E86" s="7">
         <f t="shared" si="12"/>
-        <v>2343120.9602954756</v>
+        <v>3124161.2803939674</v>
       </c>
       <c r="F86" s="7">
         <f t="shared" si="13"/>
-        <v>2287362.5383089958</v>
+        <v>3049816.7177453279</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" ref="G86:G101" si="14">E86/$B$5</f>
-        <v>468.62419205909509</v>
+        <v>624.83225607879353</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" ref="H86:H101" si="15">E86/$B$6</f>
-        <v>23431.209602954754</v>
+        <v>31241.612803939675</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -2773,19 +2772,19 @@
       </c>
       <c r="E87" s="7">
         <f t="shared" si="12"/>
-        <v>3938688.8273314829</v>
+        <v>5251585.1031086436</v>
       </c>
       <c r="F87" s="7">
         <f t="shared" si="13"/>
-        <v>3844961.2403100734</v>
+        <v>5126614.9870800981</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="14"/>
-        <v>787.73776546629654</v>
+        <v>1050.3170206217287</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="15"/>
-        <v>39386.888273314828</v>
+        <v>52515.851031086437</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -2800,19 +2799,19 @@
       </c>
       <c r="E88" s="7">
         <f t="shared" si="12"/>
-        <v>4736472.7608494926</v>
+        <v>6315297.0144659895</v>
       </c>
       <c r="F88" s="7">
         <f t="shared" si="13"/>
-        <v>4623760.5913106184</v>
+        <v>6165014.1217474909</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="14"/>
-        <v>947.29455216989857</v>
+        <v>1263.059402893198</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="15"/>
-        <v>47364.727608494926</v>
+        <v>63152.970144659892</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -2827,19 +2826,19 @@
       </c>
       <c r="E89" s="7">
         <f t="shared" si="12"/>
-        <v>5268328.7165281577</v>
+        <v>7024438.28870421</v>
       </c>
       <c r="F89" s="7">
         <f t="shared" si="13"/>
-        <v>5142960.1586443065</v>
+        <v>6857280.2115257429</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="14"/>
-        <v>1053.6657433056316</v>
+        <v>1404.8876577408421</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="15"/>
-        <v>52683.287165281574</v>
+        <v>70244.382887042098</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -2854,19 +2853,19 @@
       </c>
       <c r="E90" s="7">
         <f t="shared" si="12"/>
-        <v>7129824.5614035092</v>
+        <v>9506432.7485380117</v>
       </c>
       <c r="F90" s="7">
         <f t="shared" si="13"/>
-        <v>6960158.6443122411</v>
+        <v>9280211.5257496554</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="14"/>
-        <v>1425.9649122807018</v>
+        <v>1901.2865497076023</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="15"/>
-        <v>71298.245614035099</v>
+        <v>95064.327485380112</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -2881,19 +2880,19 @@
       </c>
       <c r="E91" s="7">
         <f t="shared" si="12"/>
-        <v>7927608.4949215185</v>
+        <v>10570144.659895359</v>
       </c>
       <c r="F91" s="7">
         <f t="shared" si="13"/>
-        <v>7738957.9953127857</v>
+        <v>10318610.660417048</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="14"/>
-        <v>1585.5216989843036</v>
+        <v>2114.0289319790718</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="15"/>
-        <v>79276.08494921519</v>
+        <v>105701.44659895358</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -2908,19 +2907,19 @@
       </c>
       <c r="E92" s="7">
         <f t="shared" si="12"/>
-        <v>8725392.4284395166</v>
+        <v>11633856.571252689</v>
       </c>
       <c r="F92" s="7">
         <f t="shared" si="13"/>
-        <v>8517757.3463133182</v>
+        <v>11357009.795084424</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="14"/>
-        <v>1745.0784856879034</v>
+        <v>2326.7713142505377</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" si="15"/>
-        <v>87253.924284395165</v>
+        <v>116338.56571252689</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -2935,19 +2934,19 @@
       </c>
       <c r="E93" s="7">
         <f t="shared" si="12"/>
-        <v>9257248.3841181938</v>
+        <v>12342997.845490925</v>
       </c>
       <c r="F93" s="7">
         <f t="shared" si="13"/>
-        <v>9036956.9136470184</v>
+        <v>12049275.884862693</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="14"/>
-        <v>1851.4496768236388</v>
+        <v>2468.5995690981849</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="15"/>
-        <v>92572.483841181936</v>
+        <v>123429.97845490924</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -2962,19 +2961,19 @@
       </c>
       <c r="E94" s="7">
         <f t="shared" si="12"/>
-        <v>9789104.3397968579</v>
+        <v>13052139.119729144</v>
       </c>
       <c r="F94" s="7">
         <f t="shared" si="13"/>
-        <v>9556156.4809807073</v>
+        <v>12741541.974640943</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="14"/>
-        <v>1957.8208679593715</v>
+        <v>2610.427823945829</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="15"/>
-        <v>97891.043397968577</v>
+        <v>130521.39119729145</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -2989,19 +2988,19 @@
       </c>
       <c r="E95" s="7">
         <f t="shared" si="12"/>
-        <v>10586888.273314869</v>
+        <v>14115851.03108649</v>
       </c>
       <c r="F95" s="7">
         <f t="shared" si="13"/>
-        <v>10334955.831981253</v>
+        <v>13779941.109308336</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="14"/>
-        <v>2117.3776546629738</v>
+        <v>2823.1702062172981</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="15"/>
-        <v>105868.8827331487</v>
+        <v>141158.51031086489</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -3016,19 +3015,19 @@
       </c>
       <c r="E96" s="7">
         <f t="shared" si="12"/>
-        <v>2874976.9159741406</v>
+        <v>3833302.5546321874</v>
       </c>
       <c r="F96" s="7">
         <f t="shared" si="13"/>
-        <v>2806562.1056426843</v>
+        <v>3742082.8075235793</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="14"/>
-        <v>574.99538319482815</v>
+        <v>766.6605109264375</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="15"/>
-        <v>28749.769159741405</v>
+        <v>38333.025546321871</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3043,19 +3042,19 @@
       </c>
       <c r="E97" s="7">
         <f t="shared" si="12"/>
-        <v>3140904.8938134853</v>
+        <v>4187873.1917513134</v>
       </c>
       <c r="F97" s="7">
         <f t="shared" si="13"/>
-        <v>3066161.8893095404</v>
+        <v>4088215.8524127207</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="14"/>
-        <v>628.18097876269701</v>
+        <v>837.57463835026272</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="15"/>
-        <v>31409.048938134853</v>
+        <v>41878.731917513134</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3070,19 +3069,19 @@
       </c>
       <c r="E98" s="7">
         <f t="shared" si="12"/>
-        <v>3672760.8494921504</v>
+        <v>4897014.4659895338</v>
       </c>
       <c r="F98" s="7">
         <f t="shared" si="13"/>
-        <v>3585361.4566432294</v>
+        <v>4780481.9421909722</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="14"/>
-        <v>734.55216989843007</v>
+        <v>979.40289319790679</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="15"/>
-        <v>36727.6084949215</v>
+        <v>48970.144659895341</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3097,19 +3096,19 @@
       </c>
       <c r="E99" s="7">
         <f t="shared" si="12"/>
-        <v>5534256.6943675019</v>
+        <v>7379008.9258233355</v>
       </c>
       <c r="F99" s="7">
         <f t="shared" si="13"/>
-        <v>5402559.9423111631</v>
+        <v>7203413.2564148847</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="14"/>
-        <v>1106.8513388735005</v>
+        <v>1475.8017851646671</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="15"/>
-        <v>55342.566943675018</v>
+        <v>73790.089258233362</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -3124,19 +3123,19 @@
       </c>
       <c r="E100" s="7">
         <f t="shared" si="12"/>
-        <v>6332040.6278855</v>
+        <v>8442720.8371806666</v>
       </c>
       <c r="F100" s="7">
         <f t="shared" si="13"/>
-        <v>6181359.2933116956</v>
+        <v>8241812.3910822617</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="14"/>
-        <v>1266.4081255771</v>
+        <v>1688.5441674361334</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="15"/>
-        <v>63320.406278855</v>
+        <v>84427.208371806671</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -3151,19 +3150,19 @@
       </c>
       <c r="E101" s="7">
         <f t="shared" si="12"/>
-        <v>8459464.4506001845</v>
+        <v>11279285.934133578</v>
       </c>
       <c r="F101" s="7">
         <f t="shared" si="13"/>
-        <v>8258157.5626464738</v>
+        <v>11010876.750195298</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="14"/>
-        <v>1691.892890120037</v>
+        <v>2255.8571868267154</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="15"/>
-        <v>84594.644506001845</v>
+        <v>112792.85934133577</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -3185,19 +3184,19 @@
       </c>
       <c r="E103" s="7">
         <f t="shared" si="12"/>
-        <v>10679944.674965421</v>
+        <v>14239926.233287228</v>
       </c>
       <c r="F103" s="7">
         <f t="shared" si="13"/>
-        <v>10437415.517707488</v>
+        <v>13916554.023609987</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" ref="G103:G111" si="16">E103/$B$5</f>
-        <v>2135.9889349930841</v>
+        <v>2847.9852466574457</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" ref="H103:H111" si="17">E103/$B$6</f>
-        <v>106799.44674965421</v>
+        <v>142399.26233287228</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -3212,19 +3211,19 @@
       </c>
       <c r="E104" s="7">
         <f t="shared" si="12"/>
-        <v>11874965.421853393</v>
+        <v>15833287.22913786</v>
       </c>
       <c r="F104" s="7">
         <f t="shared" si="13"/>
-        <v>11605298.729386326</v>
+        <v>15473731.63918177</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" si="16"/>
-        <v>2374.9930843706788</v>
+        <v>3166.6574458275722</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" si="17"/>
-        <v>118749.65421853393</v>
+        <v>158332.87229137859</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -3239,19 +3238,19 @@
       </c>
       <c r="E105" s="7">
         <f t="shared" si="12"/>
-        <v>13069986.168741349</v>
+        <v>17426648.224988464</v>
       </c>
       <c r="F105" s="7">
         <f t="shared" si="13"/>
-        <v>12773181.941065146</v>
+        <v>17030909.25475353</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>2613.99723374827</v>
+        <v>3485.3296449976929</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>130699.86168741349</v>
+        <v>174266.48224988463</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3266,19 +3265,19 @@
       </c>
       <c r="E106" s="7">
         <f t="shared" si="12"/>
-        <v>14663347.164591974</v>
+        <v>19551129.552789297</v>
       </c>
       <c r="F106" s="7">
         <f t="shared" si="13"/>
-        <v>14330359.556636924</v>
+        <v>19107146.0755159</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>2932.6694329183947</v>
+        <v>3910.2259105578596</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>146633.47164591972</v>
+        <v>195511.29552789297</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -3293,19 +3292,19 @@
       </c>
       <c r="E107" s="7">
         <f t="shared" si="12"/>
-        <v>15858367.911479946</v>
+        <v>21144490.548639927</v>
       </c>
       <c r="F107" s="7">
         <f t="shared" si="13"/>
-        <v>15498242.768315762</v>
+        <v>20664323.691087686</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>3171.673582295989</v>
+        <v>4228.8981097279857</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>158583.67911479945</v>
+        <v>211444.90548639928</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -3320,19 +3319,19 @@
       </c>
       <c r="E108" s="7">
         <f t="shared" si="12"/>
-        <v>8289903.1811894942</v>
+        <v>11053204.241585992</v>
       </c>
       <c r="F108" s="7">
         <f t="shared" si="13"/>
-        <v>8101649.0943498304</v>
+        <v>10802198.792466441</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>1657.9806362378988</v>
+        <v>2210.6408483171986</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>82899.031811894936</v>
+        <v>110532.04241585992</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -3347,19 +3346,19 @@
       </c>
       <c r="E109" s="7">
         <f t="shared" si="12"/>
-        <v>9484923.9280774482</v>
+        <v>12646565.237436598</v>
       </c>
       <c r="F109" s="7">
         <f t="shared" si="13"/>
-        <v>9269532.3060286511</v>
+        <v>12359376.408038201</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>1896.9847856154897</v>
+        <v>2529.3130474873196</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>94849.239280774476</v>
+        <v>126465.65237436598</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -3374,19 +3373,19 @@
       </c>
       <c r="E110" s="7">
         <f t="shared" si="12"/>
-        <v>10281604.426002767</v>
+        <v>13708805.901337024</v>
       </c>
       <c r="F110" s="7">
         <f t="shared" si="13"/>
-        <v>10048121.113814546</v>
+        <v>13397494.818419397</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>2056.3208852005532</v>
+        <v>2741.7611802674046</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>102816.04426002767</v>
+        <v>137088.05901337025</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -3401,19 +3400,19 @@
       </c>
       <c r="E111" s="7">
         <f t="shared" si="12"/>
-        <v>12671645.919778697</v>
+        <v>16895527.893038265</v>
       </c>
       <c r="F111" s="7">
         <f t="shared" si="13"/>
-        <v>12383887.537172206</v>
+        <v>16511850.049562944</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>2534.3291839557396</v>
+        <v>3379.1055786076531</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>126716.45919778697</v>
+        <v>168955.27893038266</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -3435,19 +3434,19 @@
       </c>
       <c r="E113" s="7">
         <f t="shared" si="12"/>
-        <v>15811418.047882145</v>
+        <v>21081890.730509527</v>
       </c>
       <c r="F113" s="7">
         <f t="shared" si="13"/>
-        <v>15436174.038115792</v>
+        <v>20581565.384154391</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" ref="G113:G122" si="18">E113/$B$5</f>
-        <v>3162.2836095764292</v>
+        <v>4216.3781461019053</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" ref="H113:H122" si="19">E113/$B$6</f>
-        <v>158114.18047882145</v>
+        <v>210818.90730509526</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -3462,19 +3461,19 @@
       </c>
       <c r="E114" s="7">
         <f t="shared" si="12"/>
-        <v>17402578.268876605</v>
+        <v>23203437.69183547</v>
       </c>
       <c r="F114" s="7">
         <f t="shared" si="13"/>
-        <v>16989572.096368205</v>
+        <v>22652762.795157608</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="18"/>
-        <v>3480.515653775321</v>
+        <v>4640.687538367094</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="19"/>
-        <v>174025.78268876605</v>
+        <v>232034.37691835471</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -3489,19 +3488,19 @@
       </c>
       <c r="E115" s="7">
         <f t="shared" si="12"/>
-        <v>18463351.749539599</v>
+        <v>24617802.332719468</v>
       </c>
       <c r="F115" s="7">
         <f t="shared" si="13"/>
-        <v>18025170.801869836</v>
+        <v>24033561.069159783</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="18"/>
-        <v>3692.6703499079199</v>
+        <v>4923.5604665438932</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="19"/>
-        <v>184633.51749539599</v>
+        <v>246178.02332719468</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -3516,19 +3515,19 @@
       </c>
       <c r="E116" s="7">
         <f t="shared" si="12"/>
-        <v>19524125.230202574</v>
+        <v>26032166.973603431</v>
       </c>
       <c r="F116" s="7">
         <f t="shared" si="13"/>
-        <v>19060769.507371444</v>
+        <v>25414359.343161926</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="18"/>
-        <v>3904.8250460405147</v>
+        <v>5206.433394720686</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="19"/>
-        <v>195241.25230202574</v>
+        <v>260321.66973603432</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -3543,19 +3542,19 @@
       </c>
       <c r="E117" s="7">
         <f t="shared" si="12"/>
-        <v>21115285.451197058</v>
+        <v>28153713.934929408</v>
       </c>
       <c r="F117" s="7">
         <f t="shared" si="13"/>
-        <v>20614167.565623879</v>
+        <v>27485556.754165173</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="18"/>
-        <v>4223.057090239412</v>
+        <v>5630.742786985882</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="19"/>
-        <v>211152.85451197057</v>
+        <v>281537.13934929407</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -3570,19 +3569,19 @@
       </c>
       <c r="E118" s="7">
         <f t="shared" si="12"/>
-        <v>11037937.384898718</v>
+        <v>14717249.846531626</v>
       </c>
       <c r="F118" s="7">
         <f t="shared" si="13"/>
-        <v>10775979.863358511</v>
+        <v>14367973.151144683</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="18"/>
-        <v>2207.5874769797438</v>
+        <v>2943.4499693063253</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="19"/>
-        <v>110379.37384898719</v>
+        <v>147172.49846531625</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -3597,19 +3596,19 @@
       </c>
       <c r="E119" s="7">
         <f t="shared" si="12"/>
-        <v>12629097.605893178</v>
+        <v>16838796.807857573</v>
       </c>
       <c r="F119" s="7">
         <f t="shared" si="13"/>
-        <v>12329377.921610923</v>
+        <v>16439170.562147899</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="18"/>
-        <v>2525.8195211786356</v>
+        <v>3367.7593615715145</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="19"/>
-        <v>126290.97605893177</v>
+        <v>168387.96807857574</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -3624,19 +3623,19 @@
       </c>
       <c r="E120" s="7">
         <f t="shared" si="12"/>
-        <v>13689871.086556172</v>
+        <v>18253161.448741563</v>
       </c>
       <c r="F120" s="7">
         <f t="shared" si="13"/>
-        <v>13364976.627112551</v>
+        <v>17819968.836150069</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="18"/>
-        <v>2737.9742173112345</v>
+        <v>3650.6322897483124</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="19"/>
-        <v>136898.71086556173</v>
+        <v>182531.61448741562</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -3651,19 +3650,19 @@
       </c>
       <c r="E121" s="7">
         <f t="shared" si="12"/>
-        <v>14220257.826887662</v>
+        <v>18960343.76918355</v>
       </c>
       <c r="F121" s="7">
         <f t="shared" si="13"/>
-        <v>13882775.979863357</v>
+        <v>18510367.973151144</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="18"/>
-        <v>2844.0515653775324</v>
+        <v>3792.0687538367101</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="19"/>
-        <v>142202.57826887662</v>
+        <v>189603.43769183551</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -3678,19 +3677,19 @@
       </c>
       <c r="E122" s="7">
         <f t="shared" si="12"/>
-        <v>16872191.528545119</v>
+        <v>22496255.371393491</v>
       </c>
       <c r="F122" s="7">
         <f t="shared" si="13"/>
-        <v>16471772.743617401</v>
+        <v>21962363.658156537</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="18"/>
-        <v>3374.4383057090236</v>
+        <v>4499.2510742786981</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="19"/>
-        <v>168721.91528545119</v>
+        <v>224962.5537139349</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3713,19 +3712,19 @@
       </c>
       <c r="E124" s="7">
         <f t="shared" si="12"/>
-        <v>21723218.390804589</v>
+        <v>28964291.187739454</v>
       </c>
       <c r="F124" s="7">
         <f t="shared" si="13"/>
-        <v>21254161.04363472</v>
+        <v>28338881.391512956</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" ref="G124:G129" si="20">E124/$B$5</f>
-        <v>4344.6436781609182</v>
+        <v>5792.8582375478909</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" ref="H124:H129" si="21">E124/$B$6</f>
-        <v>217232.18390804587</v>
+        <v>289642.91187739454</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -3740,19 +3739,19 @@
       </c>
       <c r="E125" s="7">
         <f t="shared" si="12"/>
-        <v>23047356.321839087</v>
+        <v>30729808.429118786</v>
       </c>
       <c r="F125" s="7">
         <f t="shared" si="13"/>
-        <v>22549707.602339189</v>
+        <v>30066276.803118918</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="20"/>
-        <v>4609.4712643678176</v>
+        <v>6145.9616858237569</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="21"/>
-        <v>230473.56321839086</v>
+        <v>307298.08429118787</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -3767,19 +3766,19 @@
       </c>
       <c r="E126" s="7">
         <f t="shared" si="12"/>
-        <v>24371494.252873555</v>
+        <v>32495325.670498077</v>
       </c>
       <c r="F126" s="7">
         <f t="shared" si="13"/>
-        <v>23845254.161043629</v>
+        <v>31793672.214724835</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="20"/>
-        <v>4874.2988505747107</v>
+        <v>6499.0651340996155</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="21"/>
-        <v>243714.94252873556</v>
+        <v>324953.25670498074</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -3794,19 +3793,19 @@
       </c>
       <c r="E127" s="7">
         <f t="shared" si="12"/>
-        <v>26357701.149425291</v>
+        <v>35143601.532567054</v>
       </c>
       <c r="F127" s="7">
         <f t="shared" si="13"/>
-        <v>25788573.99910032</v>
+        <v>34384765.332133755</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="20"/>
-        <v>5271.5402298850577</v>
+        <v>7028.7203065134108</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="21"/>
-        <v>263577.01149425289</v>
+        <v>351436.01532567054</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -3821,19 +3820,19 @@
       </c>
       <c r="E128" s="7">
         <f t="shared" si="12"/>
-        <v>19737011.494252883</v>
+        <v>26316015.325670514</v>
       </c>
       <c r="F128" s="7">
         <f t="shared" si="13"/>
-        <v>19310841.205578059</v>
+        <v>25747788.274104077</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="20"/>
-        <v>3947.4022988505767</v>
+        <v>5263.2030651341029</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="21"/>
-        <v>197370.11494252883</v>
+        <v>263160.15325670515</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -3848,19 +3847,19 @@
       </c>
       <c r="E129" s="7">
         <f t="shared" si="12"/>
-        <v>21061149.425287351</v>
+        <v>28081532.567049805</v>
       </c>
       <c r="F129" s="7">
         <f t="shared" si="13"/>
-        <v>20606387.764282499</v>
+        <v>27475183.685709998</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="20"/>
-        <v>4212.2298850574698</v>
+        <v>5616.3065134099606</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="21"/>
-        <v>210611.4942528735</v>
+        <v>280815.32567049807</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -3913,19 +3912,19 @@
       </c>
       <c r="E134" s="7">
         <f t="shared" si="12"/>
-        <v>2609048.9381348081</v>
+        <v>3478731.9175130776</v>
       </c>
       <c r="F134" s="7">
         <f t="shared" si="13"/>
-        <v>2546962.3219758403</v>
+        <v>3395949.7626344538</v>
       </c>
       <c r="G134" s="8">
         <f>E134/$B$5</f>
-        <v>521.80978762696157</v>
+        <v>695.74638350261557</v>
       </c>
       <c r="H134" s="8">
         <f>E134/$B$6</f>
-        <v>26090.489381348081</v>
+        <v>34787.319175130775</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3952,19 +3951,19 @@
       </c>
       <c r="E136" s="7">
         <f t="shared" si="12"/>
-        <v>1173185.3906611188</v>
+        <v>1564247.1875481585</v>
       </c>
       <c r="F136" s="7">
         <f t="shared" si="13"/>
-        <v>1145229.7138730932</v>
+        <v>1526972.9518307908</v>
       </c>
       <c r="G136" s="8">
         <f>E136/$B$5</f>
-        <v>234.63707813222376</v>
+        <v>312.84943750963168</v>
       </c>
       <c r="H136" s="8">
         <f>E136/$B$6</f>
-        <v>11731.853906611188</v>
+        <v>15642.471875481584</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -3979,19 +3978,19 @@
       </c>
       <c r="E137" s="7">
         <f t="shared" si="12"/>
-        <v>1439482.2006472466</v>
+        <v>1919309.6008629953</v>
       </c>
       <c r="F137" s="7">
         <f t="shared" si="13"/>
-        <v>1405180.973012002</v>
+        <v>1873574.6306826693</v>
       </c>
       <c r="G137" s="8">
         <f>E137/$B$5</f>
-        <v>287.89644012944933</v>
+        <v>383.86192017259907</v>
       </c>
       <c r="H137" s="8">
         <f>E137/$B$6</f>
-        <v>14394.822006472466</v>
+        <v>19193.096008629953</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4006,19 +4005,19 @@
       </c>
       <c r="E138" s="7">
         <f t="shared" si="12"/>
-        <v>1972075.8206195079</v>
+        <v>2629434.4274926772</v>
       </c>
       <c r="F138" s="7">
         <f t="shared" si="13"/>
-        <v>1925083.4912898254</v>
+        <v>2566777.988386434</v>
       </c>
       <c r="G138" s="8">
         <f>E138/$B$5</f>
-        <v>394.4151641239016</v>
+        <v>525.88688549853543</v>
       </c>
       <c r="H138" s="8">
         <f>E138/$B$6</f>
-        <v>19720.758206195078</v>
+        <v>26294.344274926771</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4045,19 +4044,19 @@
       </c>
       <c r="E140" s="7">
         <f t="shared" si="12"/>
-        <v>1173185.3906611188</v>
+        <v>1564247.1875481585</v>
       </c>
       <c r="F140" s="7">
         <f t="shared" si="13"/>
-        <v>1145229.7138730932</v>
+        <v>1526972.9518307908</v>
       </c>
       <c r="G140" s="8">
         <f>E140/$B$5</f>
-        <v>234.63707813222376</v>
+        <v>312.84943750963168</v>
       </c>
       <c r="H140" s="8">
         <f>E140/$B$6</f>
-        <v>11731.853906611188</v>
+        <v>15642.471875481584</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -4072,19 +4071,19 @@
       </c>
       <c r="E141" s="7">
         <f t="shared" ref="E141:E144" si="22">$B$7/($B$11/D141+90+ROUNDUP(($B$11/D141/90/16-1),0)*0)*($B$11*(B141)-(16*12)-80)</f>
-        <v>1572630.6056403164</v>
+        <v>2096840.8075204217</v>
       </c>
       <c r="F141" s="7">
         <f t="shared" ref="F141:F144" si="23">$B$7/($B$11/D141+90+ROUNDUP(($B$11/D141/90/16-1),0)*36)*($B$11*(B141)-(16*12)-80)</f>
-        <v>1535156.6025814624</v>
+        <v>2046875.4701086164</v>
       </c>
       <c r="G141" s="8">
         <f>E141/$B$5</f>
-        <v>314.52612112806327</v>
+        <v>419.36816150408436</v>
       </c>
       <c r="H141" s="8">
         <f>E141/$B$6</f>
-        <v>15726.306056403164</v>
+        <v>20968.408075204217</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -4099,19 +4098,19 @@
       </c>
       <c r="E142" s="7">
         <f t="shared" si="22"/>
-        <v>1972075.8206195079</v>
+        <v>2629434.4274926772</v>
       </c>
       <c r="F142" s="7">
         <f t="shared" si="23"/>
-        <v>1925083.4912898254</v>
+        <v>2566777.988386434</v>
       </c>
       <c r="G142" s="8">
         <f>E142/$B$5</f>
-        <v>394.4151641239016</v>
+        <v>525.88688549853543</v>
       </c>
       <c r="H142" s="8">
         <f>E142/$B$6</f>
-        <v>19720.758206195078</v>
+        <v>26294.344274926771</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -4126,19 +4125,19 @@
       </c>
       <c r="E143" s="7">
         <f t="shared" si="22"/>
-        <v>1173185.3906611188</v>
+        <v>1564247.1875481585</v>
       </c>
       <c r="F143" s="7">
         <f t="shared" si="23"/>
-        <v>1145229.7138730932</v>
+        <v>1526972.9518307908</v>
       </c>
       <c r="G143" s="8">
         <f>E143/$B$5</f>
-        <v>234.63707813222376</v>
+        <v>312.84943750963168</v>
       </c>
       <c r="H143" s="8">
         <f>E143/$B$6</f>
-        <v>11731.853906611188</v>
+        <v>15642.471875481584</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -4153,19 +4152,19 @@
       </c>
       <c r="E144" s="7">
         <f t="shared" si="22"/>
-        <v>1439482.2006472466</v>
+        <v>1919309.6008629953</v>
       </c>
       <c r="F144" s="7">
         <f t="shared" si="23"/>
-        <v>1405180.973012002</v>
+        <v>1873574.6306826693</v>
       </c>
       <c r="G144" s="8">
         <f>E144/$B$5</f>
-        <v>287.89644012944933</v>
+        <v>383.86192017259907</v>
       </c>
       <c r="H144" s="8">
         <f>E144/$B$6</f>
-        <v>14394.822006472466</v>
+        <v>19193.096008629953</v>
       </c>
     </row>
   </sheetData>

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -787,12 +787,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
@@ -895,23 +896,23 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="7">
         <f>$B$7/($B$11/D12+90+ROUNDUP(($B$11/D12/90/16-1),0)*0)*($B$11*(B12)-(16*12)-80)</f>
-        <v>3921945.2139119729</v>
+        <v>7822222.2222222229</v>
       </c>
       <c r="F12" s="7">
         <f>$B$7/($B$11/D12+90+ROUNDUP(($B$11/D12/90/16-1),0)*36)*($B$11*(B12)-(16*12)-80)</f>
-        <v>3828616.0687458687</v>
+        <v>7636581.5653841542</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" ref="G12:G25" si="0">E12/$B$5</f>
-        <v>784.38904278239454</v>
+        <v>1564.4444444444446</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" ref="H12:H25" si="1">E12/$B$6</f>
-        <v>39219.452139119727</v>
+        <v>78222.222222222234</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -922,23 +923,23 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="D13" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="7">
         <f>$B$7/($B$11/D13+90+ROUNDUP(($B$11/D13/90/16-1),0)*0)*($B$11*(B13)-(16*12)-80)</f>
-        <v>5251585.1031086436</v>
+        <v>10474155.92387967</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" ref="F13:F76" si="2">$B$7/($B$11/D13+90+ROUNDUP(($B$11/D13/90/16-1),0)*36)*($B$11*(B13)-(16*12)-80)</f>
-        <v>5126614.9870800981</v>
+        <v>10225578.32913819</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>1050.3170206217287</v>
+        <v>2094.8311847759342</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="1"/>
-        <v>52515.851031086437</v>
+        <v>104741.5592387967</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -949,23 +950,23 @@
         <v>0.4</v>
       </c>
       <c r="D14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="7">
         <f>$B$7/($B$11/D14+90+ROUNDUP(($B$11/D14/90/16-1),0)*0)*($B$11*(B14)-(16*12)-80)</f>
-        <v>6315297.0144659895</v>
+        <v>12595702.885205649</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="2"/>
-        <v>6165014.1217474909</v>
+        <v>12296775.740141436</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>1263.059402893198</v>
+        <v>2519.1405770411297</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="1"/>
-        <v>63152.970144659892</v>
+        <v>125957.02885205649</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -976,23 +977,23 @@
         <v>0.5</v>
       </c>
       <c r="D15" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="7">
         <f>$B$7/($B$11/D15+90+ROUNDUP(($B$11/D15/90/16-1),0)*0)*($B$11*(B15)-(16*12)-80)</f>
-        <v>7910864.8815020006</v>
+        <v>15778023.327194599</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="2"/>
-        <v>7722612.8237485727</v>
+        <v>15403571.85664629</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>1582.1729763004</v>
+        <v>3155.6046654389197</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="1"/>
-        <v>79108.648815020002</v>
+        <v>157780.233271946</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1003,23 +1004,23 @@
         <v>0.6</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" ref="E16:E76" si="3">$B$7/($B$11/D16+90+ROUNDUP(($B$11/D16/90/16-1),0)*0)*($B$11*(B16)-(16*12)-80)</f>
-        <v>9506432.7485380117</v>
+        <v>18960343.76918355</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="2"/>
-        <v>9280211.5257496554</v>
+        <v>18510367.973151144</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>1901.2865497076023</v>
+        <v>3792.0687538367101</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>95064.327485380112</v>
+        <v>189603.43769183551</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1030,23 +1031,23 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D17" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="3"/>
-        <v>10570144.659895359</v>
+        <v>21081890.730509527</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>10318610.660417048</v>
+        <v>20581565.384154391</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>2114.0289319790718</v>
+        <v>4216.3781461019053</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>105701.44659895358</v>
+        <v>210818.90730509526</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1057,23 +1058,23 @@
         <v>0.75</v>
       </c>
       <c r="D18" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="3"/>
-        <v>11899784.549092028</v>
+        <v>23733824.432166975</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="2"/>
-        <v>11616609.578751277</v>
+        <v>23170562.147908427</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>2379.9569098184056</v>
+        <v>4746.7648864333951</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="1"/>
-        <v>118997.84549092028</v>
+        <v>237338.24432166974</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1084,23 +1085,23 @@
         <v>0.8</v>
       </c>
       <c r="D19" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="3"/>
-        <v>12697568.482610034</v>
+        <v>25324984.653161451</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="2"/>
-        <v>12395408.929751817</v>
+        <v>24723960.206160855</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>2539.5136965220067</v>
+        <v>5064.9969306322901</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="1"/>
-        <v>126975.68482610033</v>
+        <v>253249.84653161452</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1111,23 +1112,23 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D20" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="3"/>
-        <v>13229424.4382887</v>
+        <v>26385758.133824423</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="2"/>
-        <v>12914608.497085506</v>
+        <v>25759558.911662463</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>2645.8848876577399</v>
+        <v>5277.1516267648849</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="1"/>
-        <v>132294.244382887</v>
+        <v>263857.58133824426</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1138,23 +1139,23 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="D21" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="3"/>
-        <v>14115851.03108649</v>
+        <v>28153713.934929408</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="2"/>
-        <v>13779941.109308336</v>
+        <v>27485556.754165173</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>2823.1702062172981</v>
+        <v>5630.742786985882</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="1"/>
-        <v>141158.51031086489</v>
+        <v>281537.13934929407</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1165,23 +1166,23 @@
         <v>0.9</v>
       </c>
       <c r="D22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="3"/>
-        <v>14293136.349646045</v>
+        <v>28507305.0951504</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="2"/>
-        <v>13953007.631752899</v>
+        <v>27830756.32266571</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>2858.627269929209</v>
+        <v>5701.46101903008</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="1"/>
-        <v>142931.36349646046</v>
+        <v>285073.05095150397</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1192,23 +1193,23 @@
         <v>0.28888888888888897</v>
       </c>
       <c r="D23" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="3"/>
-        <v>4542443.8288704231</v>
+        <v>9059791.2829957046</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="2"/>
-        <v>4434348.8973018462</v>
+        <v>8844780.0551360436</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>908.48876577408464</v>
+        <v>1811.9582565991409</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="1"/>
-        <v>45424.43828870423</v>
+        <v>90597.912829957044</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1219,23 +1220,23 @@
         <v>0.45</v>
       </c>
       <c r="D24" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="3"/>
-        <v>7113080.9479839951</v>
+        <v>14186863.106200123</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="2"/>
-        <v>6943813.4727480318</v>
+        <v>13850173.798393864</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>1422.6161895967989</v>
+        <v>2837.3726212400247</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="1"/>
-        <v>71130.809479839954</v>
+        <v>141868.63106200122</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1246,23 +1247,23 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D25" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="3"/>
-        <v>8708648.8150200062</v>
+        <v>17369183.548189074</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="2"/>
-        <v>8501412.1747491136</v>
+        <v>16956969.91489872</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>1741.7297630040011</v>
+        <v>3473.8367096378147</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="1"/>
-        <v>87086.488150200064</v>
+        <v>173691.83548189074</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1280,23 +1281,23 @@
         <v>0.6</v>
       </c>
       <c r="D27" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="3"/>
-        <v>14239926.233287228</v>
+        <v>37712332.112332113</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="2"/>
-        <v>13916554.023609987</v>
+        <v>36901314.21744325</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" ref="G27:G37" si="4">E27/$B$5</f>
-        <v>2847.9852466574457</v>
+        <v>7542.466422466423</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" ref="H27:H37" si="5">E27/$B$6</f>
-        <v>142399.26233287228</v>
+        <v>377123.32112332113</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1307,23 +1308,23 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D28" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="3"/>
-        <v>15833287.22913786</v>
+        <v>41932112.332112357</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="2"/>
-        <v>15473731.63918177</v>
+        <v>41030346.475507788</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="4"/>
-        <v>3166.6574458275722</v>
+        <v>8386.4224664224712</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="5"/>
-        <v>158332.87229137859</v>
+        <v>419321.1233211236</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1334,23 +1335,23 @@
         <v>0.75</v>
       </c>
       <c r="D29" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="3"/>
-        <v>17824988.473951131</v>
+        <v>47206837.606837608</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="2"/>
-        <v>17420203.658646483</v>
+        <v>46191636.798088409</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="4"/>
-        <v>3564.9976947902264</v>
+        <v>9441.3675213675215</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="5"/>
-        <v>178249.8847395113</v>
+        <v>472068.37606837606</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1361,23 +1362,23 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D30" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="3"/>
-        <v>19816689.718764398</v>
+        <v>52481562.881562866</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="2"/>
-        <v>19366675.678111196</v>
+        <v>51352927.120669037</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="4"/>
-        <v>3963.3379437528797</v>
+        <v>10496.312576312574</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="5"/>
-        <v>198166.89718764398</v>
+        <v>524815.6288156287</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1388,23 +1389,23 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="D31" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="3"/>
-        <v>21144490.548639927</v>
+        <v>55998046.398046412</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="2"/>
-        <v>20664323.691087686</v>
+        <v>54793787.335722826</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="4"/>
-        <v>4228.8981097279857</v>
+        <v>11199.609279609282</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="5"/>
-        <v>211444.90548639928</v>
+        <v>559980.46398046415</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1415,23 +1416,23 @@
         <v>0.9</v>
       </c>
       <c r="D32" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="3"/>
-        <v>21410050.714615028</v>
+        <v>56701343.101343103</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="2"/>
-        <v>20923853.293682978</v>
+        <v>55481959.378733568</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="4"/>
-        <v>4282.0101429230053</v>
+        <v>11340.26862026862</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="5"/>
-        <v>214100.50714615028</v>
+        <v>567013.43101343105</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1442,23 +1443,23 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="D33" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="3"/>
-        <v>15169386.814200094</v>
+        <v>40173870.573870584</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="2"/>
-        <v>14824907.632693525</v>
+        <v>39309916.36798089</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="4"/>
-        <v>3033.8773628400186</v>
+        <v>8034.7741147741172</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="5"/>
-        <v>151693.86814200095</v>
+        <v>401738.70573870582</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1469,23 +1470,23 @@
         <v>0.69444444444444398</v>
       </c>
       <c r="D34" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="3"/>
-        <v>16497187.6440756</v>
+        <v>43690354.090354063</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="2"/>
-        <v>16122555.645669991</v>
+        <v>42750776.58303462</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="4"/>
-        <v>3299.43752881512</v>
+        <v>8738.0708180708134</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="5"/>
-        <v>164971.87644075599</v>
+        <v>436903.54090354062</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1496,23 +1497,23 @@
         <v>0.72222222222222199</v>
       </c>
       <c r="D35" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="3"/>
-        <v>17161088.059013363</v>
+        <v>45448595.848595835</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="2"/>
-        <v>16771379.652158236</v>
+        <v>44471206.690561511</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="4"/>
-        <v>3432.2176118026728</v>
+        <v>9089.7191697191665</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="5"/>
-        <v>171610.88059013363</v>
+        <v>454485.95848595834</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1523,23 +1524,23 @@
         <v>0.55555555555555602</v>
       </c>
       <c r="D36" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="3"/>
-        <v>13177685.569386825</v>
+        <v>34899145.299145326</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="2"/>
-        <v>12878435.613228813</v>
+        <v>34148626.045400269</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="4"/>
-        <v>2635.5371138773648</v>
+        <v>6979.829059829065</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="5"/>
-        <v>131776.85569386824</v>
+        <v>348991.45299145323</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1550,23 +1551,23 @@
         <v>0.57777777777777795</v>
       </c>
       <c r="D37" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="3"/>
-        <v>13708805.901337024</v>
+        <v>36305738.705738716</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="2"/>
-        <v>13397494.818419397</v>
+        <v>35524970.131421752</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="4"/>
-        <v>2741.7611802674046</v>
+        <v>7261.1477411477435</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="5"/>
-        <v>137088.05901337025</v>
+        <v>363057.38705738715</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1584,23 +1585,23 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D39" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="3"/>
-        <v>21081890.730509527</v>
+        <v>82952657.004830956</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="2"/>
-        <v>20581565.384154391</v>
+        <v>81534662.867996246</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" ref="G39:G57" si="6">E39/$B$5</f>
-        <v>4216.3781461019053</v>
+        <v>16590.531400966192</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" ref="H39:H57" si="7">E39/$B$6</f>
-        <v>210818.90730509526</v>
+        <v>829526.57004830951</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1611,23 +1612,23 @@
         <v>0.75</v>
       </c>
       <c r="D40" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="3"/>
-        <v>23733824.432166975</v>
+        <v>93387439.613526568</v>
       </c>
       <c r="F40" s="7">
         <f t="shared" si="2"/>
-        <v>23170562.147908427</v>
+        <v>91791073.124406457</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="6"/>
-        <v>4746.7648864333951</v>
+        <v>18677.487922705313</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" si="7"/>
-        <v>237338.24432166974</v>
+        <v>933874.39613526571</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1638,23 +1639,23 @@
         <v>0.8</v>
       </c>
       <c r="D41" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="3"/>
-        <v>25324984.653161451</v>
+        <v>99648309.178743958</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" si="2"/>
-        <v>24723960.206160855</v>
+        <v>97944919.278252617</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="6"/>
-        <v>5064.9969306322901</v>
+        <v>19929.661835748793</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" si="7"/>
-        <v>253249.84653161452</v>
+        <v>996483.09178743954</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1665,23 +1666,23 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D42" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="3"/>
-        <v>26385758.133824423</v>
+        <v>103822222.22222218</v>
       </c>
       <c r="F42" s="7">
         <f t="shared" si="2"/>
-        <v>25759558.911662463</v>
+        <v>102047483.38081667</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="6"/>
-        <v>5277.1516267648849</v>
+        <v>20764.444444444434</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="7"/>
-        <v>263857.58133824426</v>
+        <v>1038222.2222222218</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1692,23 +1693,23 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="D43" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="3"/>
-        <v>28153713.934929408</v>
+        <v>110778743.96135268</v>
       </c>
       <c r="F43" s="7">
         <f t="shared" si="2"/>
-        <v>27485556.754165173</v>
+        <v>108885090.21842358</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="6"/>
-        <v>5630.742786985882</v>
+        <v>22155.748792270537</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="7"/>
-        <v>281537.13934929407</v>
+        <v>1107787.4396135267</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1719,23 +1720,23 @@
         <v>0.9</v>
       </c>
       <c r="D44" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="3"/>
-        <v>28507305.0951504</v>
+        <v>112170048.30917874</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="2"/>
-        <v>27830756.32266571</v>
+        <v>110252611.58594492</v>
       </c>
       <c r="G44" s="8">
         <f t="shared" si="6"/>
-        <v>5701.46101903008</v>
+        <v>22434.009661835749</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="7"/>
-        <v>285073.05095150397</v>
+        <v>1121700.4830917874</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1746,23 +1747,23 @@
         <v>0.57777777777777795</v>
       </c>
       <c r="D45" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="3"/>
-        <v>18253161.448741563</v>
+        <v>71822222.222222239</v>
       </c>
       <c r="F45" s="7">
         <f t="shared" si="2"/>
-        <v>17819968.836150069</v>
+        <v>70594491.927825272</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="6"/>
-        <v>3650.6322897483124</v>
+        <v>14364.444444444447</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="7"/>
-        <v>182531.61448741562</v>
+        <v>718222.22222222236</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1773,23 +1774,23 @@
         <v>0.6</v>
       </c>
       <c r="D46" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="3"/>
-        <v>18960343.76918355</v>
+        <v>74604830.917874396</v>
       </c>
       <c r="F46" s="7">
         <f t="shared" si="2"/>
-        <v>18510367.973151144</v>
+        <v>73329534.662867993</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="6"/>
-        <v>3792.0687538367101</v>
+        <v>14920.966183574879</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="7"/>
-        <v>189603.43769183551</v>
+        <v>746048.30917874398</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1800,23 +1801,23 @@
         <v>0.62222222222222201</v>
       </c>
       <c r="D47" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="3"/>
-        <v>19667526.08962553</v>
+        <v>77387439.613526538</v>
       </c>
       <c r="F47" s="7">
         <f t="shared" si="2"/>
-        <v>19200767.110152218</v>
+        <v>76064577.397910699</v>
       </c>
       <c r="G47" s="8">
         <f t="shared" si="6"/>
-        <v>3933.5052179251061</v>
+        <v>15477.487922705308</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="7"/>
-        <v>196675.26089625529</v>
+        <v>773874.39613526536</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1827,23 +1828,23 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="D48" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="3"/>
-        <v>20197912.829957034</v>
+        <v>79474396.135265723</v>
       </c>
       <c r="F48" s="7">
         <f t="shared" si="2"/>
-        <v>19718566.462903038</v>
+        <v>78115859.449192792</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="6"/>
-        <v>4039.5825659914067</v>
+        <v>15894.879227053145</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="7"/>
-        <v>201979.12829957035</v>
+        <v>794743.96135265718</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -1854,23 +1855,23 @@
         <v>0.69444444444444398</v>
       </c>
       <c r="D49" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="3"/>
-        <v>21965868.63106199</v>
+        <v>86430917.874396086</v>
       </c>
       <c r="F49" s="7">
         <f t="shared" si="2"/>
-        <v>21444564.305405717</v>
+        <v>84953466.286799565</v>
       </c>
       <c r="G49" s="8">
         <f t="shared" si="6"/>
-        <v>4393.1737262123979</v>
+        <v>17286.183574879218</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="7"/>
-        <v>219658.6863106199</v>
+        <v>864309.1787439608</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -1881,23 +1882,23 @@
         <v>0.72222222222222199</v>
       </c>
       <c r="D50" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" si="3"/>
-        <v>22849846.531614482</v>
+        <v>89909178.743961334</v>
       </c>
       <c r="F50" s="7">
         <f t="shared" si="2"/>
-        <v>22307563.22665707</v>
+        <v>88372269.705603018</v>
       </c>
       <c r="G50" s="8">
         <f t="shared" si="6"/>
-        <v>4569.969306322896</v>
+        <v>17981.835748792266</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" si="7"/>
-        <v>228498.46531614484</v>
+        <v>899091.78743961337</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -1908,23 +1909,23 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="D51" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="3"/>
-        <v>24617802.332719468</v>
+        <v>96865700.483091816</v>
       </c>
       <c r="F51" s="7">
         <f t="shared" si="2"/>
-        <v>24033561.069159783</v>
+        <v>95209876.54320991</v>
       </c>
       <c r="G51" s="8">
         <f t="shared" si="6"/>
-        <v>4923.5604665438932</v>
+        <v>19373.140096618365</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" si="7"/>
-        <v>246178.02332719468</v>
+        <v>968657.00483091816</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -1935,23 +1936,23 @@
         <v>0.85555555555555596</v>
       </c>
       <c r="D52" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="3"/>
-        <v>27092940.454266436</v>
+        <v>106604830.91787446</v>
       </c>
       <c r="F52" s="7">
         <f t="shared" si="2"/>
-        <v>26449958.048663564</v>
+        <v>104782526.11585951</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" si="6"/>
-        <v>5418.5880908532872</v>
+        <v>21320.966183574892</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="7"/>
-        <v>270929.40454266436</v>
+        <v>1066048.3091787444</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -1962,23 +1963,23 @@
         <v>0.55555555555555602</v>
       </c>
       <c r="D53" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="3"/>
-        <v>17545979.128299586</v>
+        <v>69039613.526570112</v>
       </c>
       <c r="F53" s="7">
         <f t="shared" si="2"/>
-        <v>17129569.699149001</v>
+        <v>67859449.192782581</v>
       </c>
       <c r="G53" s="8">
         <f t="shared" si="6"/>
-        <v>3509.1958256599173</v>
+        <v>13807.922705314022</v>
       </c>
       <c r="H53" s="8">
         <f t="shared" si="7"/>
-        <v>175459.79128299587</v>
+        <v>690396.1352657011</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -1989,23 +1990,23 @@
         <v>0.53333333333333299</v>
       </c>
       <c r="D54" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="3"/>
-        <v>16838796.807857573</v>
+        <v>66257004.830917835</v>
       </c>
       <c r="F54" s="7">
         <f t="shared" si="2"/>
-        <v>16439170.562147899</v>
+        <v>65124406.457739748</v>
       </c>
       <c r="G54" s="8">
         <f t="shared" si="6"/>
-        <v>3367.7593615715145</v>
+        <v>13251.400966183566</v>
       </c>
       <c r="H54" s="8">
         <f t="shared" si="7"/>
-        <v>168387.96807857574</v>
+        <v>662570.04830917832</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2016,23 +2017,23 @@
         <v>0.5</v>
       </c>
       <c r="D55" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="3"/>
-        <v>15778023.327194599</v>
+        <v>62083091.787439615</v>
       </c>
       <c r="F55" s="7">
         <f t="shared" si="2"/>
-        <v>15403571.85664629</v>
+        <v>61021842.355175689</v>
       </c>
       <c r="G55" s="8">
         <f t="shared" si="6"/>
-        <v>3155.6046654389197</v>
+        <v>12416.618357487923</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="7"/>
-        <v>157780.233271946</v>
+        <v>620830.9178743962</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2043,23 +2044,23 @@
         <v>0.6</v>
       </c>
       <c r="D56" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="3"/>
-        <v>18960343.76918355</v>
+        <v>74604830.917874396</v>
       </c>
       <c r="F56" s="7">
         <f t="shared" si="2"/>
-        <v>18510367.973151144</v>
+        <v>73329534.662867993</v>
       </c>
       <c r="G56" s="8">
         <f t="shared" si="6"/>
-        <v>3792.0687538367101</v>
+        <v>14920.966183574879</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="7"/>
-        <v>189603.43769183551</v>
+        <v>746048.30917874398</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2070,23 +2071,23 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D57" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E57" s="7">
         <f t="shared" si="3"/>
-        <v>21081890.730509527</v>
+        <v>82952657.004830956</v>
       </c>
       <c r="F57" s="7">
         <f t="shared" si="2"/>
-        <v>20581565.384154391</v>
+        <v>81534662.867996246</v>
       </c>
       <c r="G57" s="8">
         <f t="shared" si="6"/>
-        <v>4216.3781461019053</v>
+        <v>16590.531400966192</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" si="7"/>
-        <v>210818.90730509526</v>
+        <v>829526.57004830951</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2105,23 +2106,23 @@
         <v>0.75</v>
       </c>
       <c r="D59" s="4">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="3"/>
-        <v>29626360.153256707</v>
+        <v>182800945.62647754</v>
       </c>
       <c r="F59" s="7">
         <f t="shared" si="2"/>
-        <v>28986654.670865197</v>
+        <v>179741515.57415155</v>
       </c>
       <c r="G59" s="8">
         <f t="shared" ref="G59:G67" si="8">E59/$B$5</f>
-        <v>5925.2720306513411</v>
+        <v>36560.18912529551</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" ref="H59:H67" si="9">E59/$B$6</f>
-        <v>296263.60153256706</v>
+        <v>1828009.4562647755</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2132,23 +2133,23 @@
         <v>0.8</v>
       </c>
       <c r="D60" s="4">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="3"/>
-        <v>31612567.049808431</v>
+        <v>195056264.77541372</v>
       </c>
       <c r="F60" s="7">
         <f t="shared" si="2"/>
-        <v>30929974.508921877</v>
+        <v>191791724.77917248</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" si="8"/>
-        <v>6322.5134099616862</v>
+        <v>39011.252955082746</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="9"/>
-        <v>316125.67049808434</v>
+        <v>1950562.6477541372</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2159,23 +2160,23 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D61" s="4">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="3"/>
-        <v>32936704.980842903</v>
+        <v>203226477.54137108</v>
       </c>
       <c r="F61" s="7">
         <f t="shared" si="2"/>
-        <v>32225521.067626316</v>
+        <v>199825197.58251968</v>
       </c>
       <c r="G61" s="8">
         <f t="shared" si="8"/>
-        <v>6587.3409961685802</v>
+        <v>40645.295508274212</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="9"/>
-        <v>329367.04980842903</v>
+        <v>2032264.7754137109</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2186,23 +2187,23 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="D62" s="4">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="3"/>
-        <v>35143601.532567054</v>
+        <v>216843498.81796694</v>
       </c>
       <c r="F62" s="7">
         <f t="shared" si="2"/>
-        <v>34384765.332133755</v>
+        <v>213214318.9214319</v>
       </c>
       <c r="G62" s="8">
         <f t="shared" si="8"/>
-        <v>7028.7203065134108</v>
+        <v>43368.699763593388</v>
       </c>
       <c r="H62" s="8">
         <f t="shared" si="9"/>
-        <v>351436.01532567054</v>
+        <v>2168434.9881796692</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2213,23 +2214,23 @@
         <v>0.9</v>
       </c>
       <c r="D63" s="4">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="3"/>
-        <v>35584980.842911884</v>
+        <v>219566903.07328606</v>
       </c>
       <c r="F63" s="7">
         <f t="shared" si="2"/>
-        <v>34816614.185035236</v>
+        <v>215892143.18921432</v>
       </c>
       <c r="G63" s="8">
         <f t="shared" si="8"/>
-        <v>7116.9961685823764</v>
+        <v>43913.38061465721</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" si="9"/>
-        <v>355849.80842911883</v>
+        <v>2195669.0307328608</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2240,23 +2241,23 @@
         <v>0.71111111111111103</v>
       </c>
       <c r="D64" s="4">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="3"/>
-        <v>28081532.567049805</v>
+        <v>173269030.73286051</v>
       </c>
       <c r="F64" s="7">
         <f t="shared" si="2"/>
-        <v>27475183.685709998</v>
+        <v>170369130.63691303</v>
       </c>
       <c r="G64" s="8">
         <f t="shared" si="8"/>
-        <v>5616.3065134099606</v>
+        <v>34653.806146572104</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="9"/>
-        <v>280815.32567049807</v>
+        <v>1732690.3073286051</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2267,23 +2268,23 @@
         <v>0.73333333333333295</v>
       </c>
       <c r="D65" s="4">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="3"/>
-        <v>28964291.187739454</v>
+        <v>178715839.24349874</v>
       </c>
       <c r="F65" s="7">
         <f t="shared" si="2"/>
-        <v>28338881.391512956</v>
+        <v>175724779.17247784</v>
       </c>
       <c r="G65" s="8">
         <f t="shared" si="8"/>
-        <v>5792.8582375478909</v>
+        <v>35743.167848699748</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="9"/>
-        <v>289642.91187739454</v>
+        <v>1787158.3924349875</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2294,23 +2295,23 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="D66" s="4">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="3"/>
-        <v>30729808.429118786</v>
+        <v>189609456.26477548</v>
       </c>
       <c r="F66" s="7">
         <f t="shared" si="2"/>
-        <v>30066276.803118918</v>
+        <v>186436076.24360767</v>
       </c>
       <c r="G66" s="8">
         <f t="shared" si="8"/>
-        <v>6145.9616858237569</v>
+        <v>37921.891252955094</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="9"/>
-        <v>307298.08429118787</v>
+        <v>1896094.5626477548</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2321,23 +2322,23 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D67" s="4">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="3"/>
-        <v>26316015.325670514</v>
+        <v>162375413.711584</v>
       </c>
       <c r="F67" s="7">
         <f t="shared" si="2"/>
-        <v>25747788.274104077</v>
+        <v>159657833.56578344</v>
       </c>
       <c r="G67" s="8">
         <f t="shared" si="8"/>
-        <v>5263.2030651341029</v>
+        <v>32475.082742316801</v>
       </c>
       <c r="H67" s="8">
         <f t="shared" si="9"/>
-        <v>263160.15325670515</v>
+        <v>1623754.1371158401</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2356,23 +2357,23 @@
         <v>0.73333333333333295</v>
       </c>
       <c r="D69" s="4">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="3"/>
-        <v>34709274.563820004</v>
+        <v>342842630.38548738</v>
       </c>
       <c r="F69" s="7">
         <f t="shared" si="2"/>
-        <v>33924250.583378188</v>
+        <v>354415377.40271902</v>
       </c>
       <c r="G69" s="8">
         <f>E69/$B$5</f>
-        <v>6941.8549127640008</v>
+        <v>68568.526077097471</v>
       </c>
       <c r="H69" s="8">
         <f>E69/$B$6</f>
-        <v>347092.74563820002</v>
+        <v>3428426.3038548739</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2383,23 +2384,23 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="D70" s="4">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="3"/>
-        <v>36824977.043158874</v>
+        <v>363740589.56916112</v>
       </c>
       <c r="F70" s="7">
         <f t="shared" si="2"/>
-        <v>35992101.956560768</v>
+        <v>376018752.93014544</v>
       </c>
       <c r="G70" s="8">
         <f>E70/$B$5</f>
-        <v>7364.9954086317748</v>
+        <v>72748.117913832219</v>
       </c>
       <c r="H70" s="8">
         <f>E70/$B$6</f>
-        <v>368249.77043158875</v>
+        <v>3637405.8956916113</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -2410,23 +2411,23 @@
         <v>0.8</v>
       </c>
       <c r="D71" s="4">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E71" s="7">
         <f t="shared" si="3"/>
-        <v>37882828.282828286</v>
+        <v>374189569.16099775</v>
       </c>
       <c r="F71" s="7">
         <f t="shared" si="2"/>
-        <v>37026027.643152036</v>
+        <v>386820440.69385839</v>
       </c>
       <c r="G71" s="8">
         <f>E71/$B$5</f>
-        <v>7576.5656565656573</v>
+        <v>74837.913832199556</v>
       </c>
       <c r="H71" s="8">
         <f>E71/$B$6</f>
-        <v>378828.28282828286</v>
+        <v>3741895.6916099773</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2437,23 +2438,23 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D72" s="4">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="3"/>
-        <v>39469605.142332397</v>
+        <v>389863038.54875267</v>
       </c>
       <c r="F72" s="7">
         <f t="shared" si="2"/>
-        <v>38576916.17303893</v>
+        <v>403022972.33942789</v>
       </c>
       <c r="G72" s="8">
         <f>E72/$B$5</f>
-        <v>7893.9210284664796</v>
+        <v>77972.607709750533</v>
       </c>
       <c r="H72" s="8">
         <f>E72/$B$6</f>
-        <v>394696.05142332398</v>
+        <v>3898630.3854875267</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -2464,23 +2465,23 @@
         <v>0.71111111111111103</v>
       </c>
       <c r="D73" s="4">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E73" s="7">
         <f t="shared" si="3"/>
-        <v>33651423.324150592</v>
+        <v>332393650.79365075</v>
       </c>
       <c r="F73" s="7">
         <f t="shared" si="2"/>
-        <v>32890324.896786924</v>
+        <v>343613689.63900602</v>
       </c>
       <c r="G73" s="8">
         <f>E73/$B$5</f>
-        <v>6730.2846648301183</v>
+        <v>66478.730158730148</v>
       </c>
       <c r="H73" s="8">
         <f>E73/$B$6</f>
-        <v>336514.23324150592</v>
+        <v>3323936.5079365075</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2499,23 +2500,23 @@
         <v>0.75</v>
       </c>
       <c r="D75" s="4">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="3"/>
-        <v>41362799.938865967</v>
+        <v>648425995.80712783</v>
       </c>
       <c r="F75" s="7">
         <f t="shared" si="2"/>
-        <v>40428550.088135995</v>
+        <v>690091923.2485497</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" ref="G75:G82" si="10">E75/$B$5</f>
-        <v>8272.5599877731929</v>
+        <v>129685.19916142557</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" ref="H75:H82" si="11">E75/$B$6</f>
-        <v>413627.99938865966</v>
+        <v>6484259.9580712784</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -2526,23 +2527,23 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="D76" s="4">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="E76" s="7">
         <f t="shared" si="3"/>
-        <v>42903377.655509718</v>
+        <v>672576939.20335448</v>
       </c>
       <c r="F76" s="7">
         <f t="shared" si="2"/>
-        <v>41934331.212094061</v>
+        <v>715794734.49352992</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="10"/>
-        <v>8580.6755311019442</v>
+        <v>134515.38784067088</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="11"/>
-        <v>429033.7765550972</v>
+        <v>6725769.3920335444</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -2553,23 +2554,23 @@
         <v>0.71111111111111103</v>
       </c>
       <c r="D77" s="4">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="E77" s="7">
         <f t="shared" ref="E77:E140" si="12">$B$7/($B$11/D77+90+ROUNDUP(($B$11/D77/90/16-1),0)*0)*($B$11*(B77)-(16*12)-80)</f>
-        <v>44745299.145299144</v>
+        <v>614614675.05241084</v>
       </c>
       <c r="F77" s="7">
         <f t="shared" ref="F77:F140" si="13">$B$7/($B$11/D77+90+ROUNDUP(($B$11/D77/90/16-1),0)*36)*($B$11*(B77)-(16*12)-80)</f>
-        <v>43783034.647550769</v>
+        <v>654107987.5055778</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="10"/>
-        <v>8949.0598290598282</v>
+        <v>122922.93501048216</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="11"/>
-        <v>447452.99145299144</v>
+        <v>6146146.7505241083</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -2580,23 +2581,23 @@
         <v>0.75</v>
       </c>
       <c r="D78" s="4">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="12"/>
-        <v>47206837.606837608</v>
+        <v>648425995.80712783</v>
       </c>
       <c r="F78" s="7">
         <f t="shared" si="13"/>
-        <v>46191636.798088409</v>
+        <v>690091923.2485497</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="10"/>
-        <v>9441.3675213675215</v>
+        <v>129685.19916142557</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="11"/>
-        <v>472068.37606837606</v>
+        <v>6484259.9580712784</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -2607,23 +2608,23 @@
         <v>0.64444444444444404</v>
       </c>
       <c r="D79" s="4">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="12"/>
-        <v>40525518.9255189</v>
+        <v>556652410.90146708</v>
       </c>
       <c r="F79" s="7">
         <f t="shared" si="13"/>
-        <v>39654002.389486231</v>
+        <v>592421240.51762569</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="10"/>
-        <v>8105.10378510378</v>
+        <v>111330.48218029342</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="11"/>
-        <v>405255.18925518898</v>
+        <v>5566524.1090146713</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -2634,23 +2635,23 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D80" s="4">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="E80" s="7">
         <f t="shared" si="12"/>
-        <v>41932112.332112357</v>
+        <v>575973165.61844897</v>
       </c>
       <c r="F80" s="7">
         <f t="shared" si="13"/>
-        <v>41030346.475507788</v>
+        <v>612983489.51361024</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="10"/>
-        <v>8386.4224664224712</v>
+        <v>115194.6331236898</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="11"/>
-        <v>419321.1233211236</v>
+        <v>5759731.6561844898</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2661,23 +2662,23 @@
         <v>0.68888888888888899</v>
       </c>
       <c r="D81" s="4">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="E81" s="7">
         <f t="shared" si="12"/>
-        <v>43338705.738705747</v>
+        <v>595293920.33542991</v>
       </c>
       <c r="F81" s="7">
         <f t="shared" si="13"/>
-        <v>42406690.561529279</v>
+        <v>633545738.50959408</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="10"/>
-        <v>8667.7411477411497</v>
+        <v>119058.78406708599</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="11"/>
-        <v>433387.05738705746</v>
+        <v>5952939.2033542991</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -2688,23 +2689,23 @@
         <v>0.73333333333333295</v>
       </c>
       <c r="D82" s="4">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="E82" s="7">
         <f t="shared" si="12"/>
-        <v>46151892.551892534</v>
+        <v>633935429.76939178</v>
       </c>
       <c r="F82" s="7">
         <f t="shared" si="13"/>
-        <v>45159378.73357226</v>
+        <v>674670236.50156152</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="10"/>
-        <v>9230.3785103785067</v>
+        <v>126787.08595387836</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="11"/>
-        <v>461518.92551892536</v>
+        <v>6339354.2976939175</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -2741,23 +2742,23 @@
         <v>0.2</v>
       </c>
       <c r="D86" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E86" s="7">
         <f t="shared" si="12"/>
-        <v>3124161.2803939674</v>
+        <v>6231062.0012277476</v>
       </c>
       <c r="F86" s="7">
         <f t="shared" si="13"/>
-        <v>3049816.7177453279</v>
+        <v>6083183.5071317274</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" ref="G86:G101" si="14">E86/$B$5</f>
-        <v>624.83225607879353</v>
+        <v>1246.2124002455496</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" ref="H86:H101" si="15">E86/$B$6</f>
-        <v>31241.612803939675</v>
+        <v>62310.620012277475</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -2768,23 +2769,23 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="D87" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E87" s="7">
         <f t="shared" si="12"/>
-        <v>5251585.1031086436</v>
+        <v>10474155.92387967</v>
       </c>
       <c r="F87" s="7">
         <f t="shared" si="13"/>
-        <v>5126614.9870800981</v>
+        <v>10225578.32913819</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="14"/>
-        <v>1050.3170206217287</v>
+        <v>2094.8311847759342</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="15"/>
-        <v>52515.851031086437</v>
+        <v>104741.5592387967</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -2795,23 +2796,23 @@
         <v>0.4</v>
       </c>
       <c r="D88" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" si="12"/>
-        <v>6315297.0144659895</v>
+        <v>12595702.885205649</v>
       </c>
       <c r="F88" s="7">
         <f t="shared" si="13"/>
-        <v>6165014.1217474909</v>
+        <v>12296775.740141436</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="14"/>
-        <v>1263.059402893198</v>
+        <v>2519.1405770411297</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="15"/>
-        <v>63152.970144659892</v>
+        <v>125957.02885205649</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -2822,23 +2823,23 @@
         <v>0.44444444444444398</v>
       </c>
       <c r="D89" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E89" s="7">
         <f t="shared" si="12"/>
-        <v>7024438.28870421</v>
+        <v>14010067.526089612</v>
       </c>
       <c r="F89" s="7">
         <f t="shared" si="13"/>
-        <v>6857280.2115257429</v>
+        <v>13677574.014143581</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="14"/>
-        <v>1404.8876577408421</v>
+        <v>2802.0135052179226</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="15"/>
-        <v>70244.382887042098</v>
+        <v>140100.67526089613</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -2849,23 +2850,23 @@
         <v>0.6</v>
       </c>
       <c r="D90" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E90" s="7">
         <f t="shared" si="12"/>
-        <v>9506432.7485380117</v>
+        <v>18960343.76918355</v>
       </c>
       <c r="F90" s="7">
         <f t="shared" si="13"/>
-        <v>9280211.5257496554</v>
+        <v>18510367.973151144</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="14"/>
-        <v>1901.2865497076023</v>
+        <v>3792.0687538367101</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="15"/>
-        <v>95064.327485380112</v>
+        <v>189603.43769183551</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -2876,23 +2877,23 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D91" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" si="12"/>
-        <v>10570144.659895359</v>
+        <v>21081890.730509527</v>
       </c>
       <c r="F91" s="7">
         <f t="shared" si="13"/>
-        <v>10318610.660417048</v>
+        <v>20581565.384154391</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="14"/>
-        <v>2114.0289319790718</v>
+        <v>4216.3781461019053</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="15"/>
-        <v>105701.44659895358</v>
+        <v>210818.90730509526</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -2903,23 +2904,23 @@
         <v>0.73333333333333295</v>
       </c>
       <c r="D92" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E92" s="7">
         <f t="shared" si="12"/>
-        <v>11633856.571252689</v>
+        <v>23203437.69183547</v>
       </c>
       <c r="F92" s="7">
         <f t="shared" si="13"/>
-        <v>11357009.795084424</v>
+        <v>22652762.795157608</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="14"/>
-        <v>2326.7713142505377</v>
+        <v>4640.687538367094</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" si="15"/>
-        <v>116338.56571252689</v>
+        <v>232034.37691835471</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -2930,23 +2931,23 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="D93" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" si="12"/>
-        <v>12342997.845490925</v>
+        <v>24617802.332719468</v>
       </c>
       <c r="F93" s="7">
         <f t="shared" si="13"/>
-        <v>12049275.884862693</v>
+        <v>24033561.069159783</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="14"/>
-        <v>2468.5995690981849</v>
+        <v>4923.5604665438932</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="15"/>
-        <v>123429.97845490924</v>
+        <v>246178.02332719468</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -2957,23 +2958,23 @@
         <v>0.82222222222222197</v>
       </c>
       <c r="D94" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E94" s="7">
         <f t="shared" si="12"/>
-        <v>13052139.119729144</v>
+        <v>26032166.973603431</v>
       </c>
       <c r="F94" s="7">
         <f t="shared" si="13"/>
-        <v>12741541.974640943</v>
+        <v>25414359.343161926</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="14"/>
-        <v>2610.427823945829</v>
+        <v>5206.433394720686</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="15"/>
-        <v>130521.39119729145</v>
+        <v>260321.66973603432</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -2984,23 +2985,23 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="D95" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E95" s="7">
         <f t="shared" si="12"/>
-        <v>14115851.03108649</v>
+        <v>28153713.934929408</v>
       </c>
       <c r="F95" s="7">
         <f t="shared" si="13"/>
-        <v>13779941.109308336</v>
+        <v>27485556.754165173</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="14"/>
-        <v>2823.1702062172981</v>
+        <v>5630.742786985882</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="15"/>
-        <v>141158.51031086489</v>
+        <v>281537.13934929407</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -3011,23 +3012,23 @@
         <v>0.24444444444444399</v>
       </c>
       <c r="D96" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E96" s="7">
         <f t="shared" si="12"/>
-        <v>3833302.5546321874</v>
+        <v>7645426.6421117112</v>
       </c>
       <c r="F96" s="7">
         <f t="shared" si="13"/>
-        <v>3742082.8075235793</v>
+        <v>7463981.7811338706</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="14"/>
-        <v>766.6605109264375</v>
+        <v>1529.0853284223422</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="15"/>
-        <v>38333.025546321871</v>
+        <v>76454.266421117107</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3038,23 +3039,23 @@
         <v>0.266666666666667</v>
       </c>
       <c r="D97" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E97" s="7">
         <f t="shared" si="12"/>
-        <v>4187873.1917513134</v>
+        <v>8352608.9625537246</v>
       </c>
       <c r="F97" s="7">
         <f t="shared" si="13"/>
-        <v>4088215.8524127207</v>
+        <v>8154380.9181349743</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="14"/>
-        <v>837.57463835026272</v>
+        <v>1670.5217925107449</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="15"/>
-        <v>41878.731917513134</v>
+        <v>83526.08962553725</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3065,23 +3066,23 @@
         <v>0.31111111111111101</v>
       </c>
       <c r="D98" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E98" s="7">
         <f t="shared" si="12"/>
-        <v>4897014.4659895338</v>
+        <v>9766973.6034376882</v>
       </c>
       <c r="F98" s="7">
         <f t="shared" si="13"/>
-        <v>4780481.9421909722</v>
+        <v>9535179.1921371184</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="14"/>
-        <v>979.40289319790679</v>
+        <v>1953.3947206875375</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="15"/>
-        <v>48970.144659895341</v>
+        <v>97669.736034376881</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3092,23 +3093,23 @@
         <v>0.46666666666666701</v>
       </c>
       <c r="D99" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E99" s="7">
         <f t="shared" si="12"/>
-        <v>7379008.9258233355</v>
+        <v>14717249.846531626</v>
       </c>
       <c r="F99" s="7">
         <f t="shared" si="13"/>
-        <v>7203413.2564148847</v>
+        <v>14367973.151144683</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="14"/>
-        <v>1475.8017851646671</v>
+        <v>2943.4499693063253</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="15"/>
-        <v>73790.089258233362</v>
+        <v>147172.49846531625</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -3119,23 +3120,23 @@
         <v>0.53333333333333299</v>
       </c>
       <c r="D100" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E100" s="7">
         <f t="shared" si="12"/>
-        <v>8442720.8371806666</v>
+        <v>16838796.807857573</v>
       </c>
       <c r="F100" s="7">
         <f t="shared" si="13"/>
-        <v>8241812.3910822617</v>
+        <v>16439170.562147899</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="14"/>
-        <v>1688.5441674361334</v>
+        <v>3367.7593615715145</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="15"/>
-        <v>84427.208371806671</v>
+        <v>168387.96807857574</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -3146,23 +3147,23 @@
         <v>0.71111111111111103</v>
       </c>
       <c r="D101" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E101" s="7">
         <f t="shared" si="12"/>
-        <v>11279285.934133578</v>
+        <v>22496255.371393491</v>
       </c>
       <c r="F101" s="7">
         <f t="shared" si="13"/>
-        <v>11010876.750195298</v>
+        <v>21962363.658156537</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="14"/>
-        <v>2255.8571868267154</v>
+        <v>4499.2510742786981</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="15"/>
-        <v>112792.85934133577</v>
+        <v>224962.5537139349</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -3180,23 +3181,23 @@
         <v>0.6</v>
       </c>
       <c r="D103" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E103" s="7">
         <f t="shared" si="12"/>
-        <v>14239926.233287228</v>
+        <v>37712332.112332113</v>
       </c>
       <c r="F103" s="7">
         <f t="shared" si="13"/>
-        <v>13916554.023609987</v>
+        <v>36901314.21744325</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" ref="G103:G111" si="16">E103/$B$5</f>
-        <v>2847.9852466574457</v>
+        <v>7542.466422466423</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" ref="H103:H111" si="17">E103/$B$6</f>
-        <v>142399.26233287228</v>
+        <v>377123.32112332113</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -3207,23 +3208,23 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D104" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E104" s="7">
         <f t="shared" si="12"/>
-        <v>15833287.22913786</v>
+        <v>41932112.332112357</v>
       </c>
       <c r="F104" s="7">
         <f t="shared" si="13"/>
-        <v>15473731.63918177</v>
+        <v>41030346.475507788</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" si="16"/>
-        <v>3166.6574458275722</v>
+        <v>8386.4224664224712</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" si="17"/>
-        <v>158332.87229137859</v>
+        <v>419321.1233211236</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -3234,23 +3235,23 @@
         <v>0.73333333333333295</v>
       </c>
       <c r="D105" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E105" s="7">
         <f t="shared" si="12"/>
-        <v>17426648.224988464</v>
+        <v>46151892.551892534</v>
       </c>
       <c r="F105" s="7">
         <f t="shared" si="13"/>
-        <v>17030909.25475353</v>
+        <v>45159378.73357226</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>3485.3296449976929</v>
+        <v>9230.3785103785067</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>174266.48224988463</v>
+        <v>461518.92551892536</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3261,23 +3262,23 @@
         <v>0.82222222222222197</v>
       </c>
       <c r="D106" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E106" s="7">
         <f t="shared" si="12"/>
-        <v>19551129.552789297</v>
+        <v>51778266.178266168</v>
       </c>
       <c r="F106" s="7">
         <f t="shared" si="13"/>
-        <v>19107146.0755159</v>
+        <v>50664755.077658288</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>3910.2259105578596</v>
+        <v>10355.653235653233</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>195511.29552789297</v>
+        <v>517782.66178266169</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -3288,23 +3289,23 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="D107" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E107" s="7">
         <f t="shared" si="12"/>
-        <v>21144490.548639927</v>
+        <v>55998046.398046412</v>
       </c>
       <c r="F107" s="7">
         <f t="shared" si="13"/>
-        <v>20664323.691087686</v>
+        <v>54793787.335722826</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>4228.8981097279857</v>
+        <v>11199.609279609282</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>211444.90548639928</v>
+        <v>559980.46398046415</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -3315,23 +3316,23 @@
         <v>0.46666666666666701</v>
       </c>
       <c r="D108" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E108" s="7">
         <f t="shared" si="12"/>
-        <v>11053204.241585992</v>
+        <v>29272771.672771696</v>
       </c>
       <c r="F108" s="7">
         <f t="shared" si="13"/>
-        <v>10802198.792466441</v>
+        <v>28643249.701314237</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>2210.6408483171986</v>
+        <v>5854.5543345543392</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>110532.04241585992</v>
+        <v>292727.71672771696</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -3342,23 +3343,23 @@
         <v>0.53333333333333299</v>
       </c>
       <c r="D109" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E109" s="7">
         <f t="shared" si="12"/>
-        <v>12646565.237436598</v>
+        <v>33492551.892551873</v>
       </c>
       <c r="F109" s="7">
         <f t="shared" si="13"/>
-        <v>12359376.408038201</v>
+        <v>32772281.959378712</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>2529.3130474873196</v>
+        <v>6698.5103785103747</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>126465.65237436598</v>
+        <v>334925.51892551873</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -3369,23 +3370,23 @@
         <v>0.57777777777777795</v>
       </c>
       <c r="D110" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E110" s="7">
         <f t="shared" si="12"/>
-        <v>13708805.901337024</v>
+        <v>36305738.705738716</v>
       </c>
       <c r="F110" s="7">
         <f t="shared" si="13"/>
-        <v>13397494.818419397</v>
+        <v>35524970.131421752</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>2741.7611802674046</v>
+        <v>7261.1477411477435</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>137088.05901337025</v>
+        <v>363057.38705738715</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -3396,23 +3397,23 @@
         <v>0.71111111111111103</v>
       </c>
       <c r="D111" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E111" s="7">
         <f t="shared" si="12"/>
-        <v>16895527.893038265</v>
+        <v>44745299.145299144</v>
       </c>
       <c r="F111" s="7">
         <f t="shared" si="13"/>
-        <v>16511850.049562944</v>
+        <v>43783034.647550769</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>3379.1055786076531</v>
+        <v>8949.0598290598282</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>168955.27893038266</v>
+        <v>447452.99145299144</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -3430,23 +3431,23 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D113" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E113" s="7">
         <f t="shared" si="12"/>
-        <v>21081890.730509527</v>
+        <v>82952657.004830956</v>
       </c>
       <c r="F113" s="7">
         <f t="shared" si="13"/>
-        <v>20581565.384154391</v>
+        <v>81534662.867996246</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" ref="G113:G122" si="18">E113/$B$5</f>
-        <v>4216.3781461019053</v>
+        <v>16590.531400966192</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" ref="H113:H122" si="19">E113/$B$6</f>
-        <v>210818.90730509526</v>
+        <v>829526.57004830951</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -3457,23 +3458,23 @@
         <v>0.73333333333333295</v>
       </c>
       <c r="D114" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E114" s="7">
         <f t="shared" si="12"/>
-        <v>23203437.69183547</v>
+        <v>91300483.091787398</v>
       </c>
       <c r="F114" s="7">
         <f t="shared" si="13"/>
-        <v>22652762.795157608</v>
+        <v>89739791.073124364</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="18"/>
-        <v>4640.687538367094</v>
+        <v>18260.096618357478</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="19"/>
-        <v>232034.37691835471</v>
+        <v>913004.830917874</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -3484,23 +3485,23 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="D115" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E115" s="7">
         <f t="shared" si="12"/>
-        <v>24617802.332719468</v>
+        <v>96865700.483091816</v>
       </c>
       <c r="F115" s="7">
         <f t="shared" si="13"/>
-        <v>24033561.069159783</v>
+        <v>95209876.54320991</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="18"/>
-        <v>4923.5604665438932</v>
+        <v>19373.140096618365</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="19"/>
-        <v>246178.02332719468</v>
+        <v>968657.00483091816</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -3511,23 +3512,23 @@
         <v>0.82222222222222197</v>
       </c>
       <c r="D116" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E116" s="7">
         <f t="shared" si="12"/>
-        <v>26032166.973603431</v>
+        <v>102430917.87439612</v>
       </c>
       <c r="F116" s="7">
         <f t="shared" si="13"/>
-        <v>25414359.343161926</v>
+        <v>100679962.01329532</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="18"/>
-        <v>5206.433394720686</v>
+        <v>20486.183574879222</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="19"/>
-        <v>260321.66973603432</v>
+        <v>1024309.1787439612</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -3538,23 +3539,23 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="D117" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E117" s="7">
         <f t="shared" si="12"/>
-        <v>28153713.934929408</v>
+        <v>110778743.96135268</v>
       </c>
       <c r="F117" s="7">
         <f t="shared" si="13"/>
-        <v>27485556.754165173</v>
+        <v>108885090.21842358</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="18"/>
-        <v>5630.742786985882</v>
+        <v>22155.748792270537</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="19"/>
-        <v>281537.13934929407</v>
+        <v>1107787.4396135267</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -3565,23 +3566,23 @@
         <v>0.46666666666666701</v>
       </c>
       <c r="D118" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E118" s="7">
         <f t="shared" si="12"/>
-        <v>14717249.846531626</v>
+        <v>57909178.743961394</v>
       </c>
       <c r="F118" s="7">
         <f t="shared" si="13"/>
-        <v>14367973.151144683</v>
+        <v>56919278.25261163</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="18"/>
-        <v>2943.4499693063253</v>
+        <v>11581.835748792279</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="19"/>
-        <v>147172.49846531625</v>
+        <v>579091.78743961395</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -3592,23 +3593,23 @@
         <v>0.53333333333333299</v>
       </c>
       <c r="D119" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E119" s="7">
         <f t="shared" si="12"/>
-        <v>16838796.807857573</v>
+        <v>66257004.830917835</v>
       </c>
       <c r="F119" s="7">
         <f t="shared" si="13"/>
-        <v>16439170.562147899</v>
+        <v>65124406.457739748</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="18"/>
-        <v>3367.7593615715145</v>
+        <v>13251.400966183566</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="19"/>
-        <v>168387.96807857574</v>
+        <v>662570.04830917832</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -3619,23 +3620,23 @@
         <v>0.57777777777777795</v>
       </c>
       <c r="D120" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E120" s="7">
         <f t="shared" si="12"/>
-        <v>18253161.448741563</v>
+        <v>71822222.222222239</v>
       </c>
       <c r="F120" s="7">
         <f t="shared" si="13"/>
-        <v>17819968.836150069</v>
+        <v>70594491.927825272</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="18"/>
-        <v>3650.6322897483124</v>
+        <v>14364.444444444447</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="19"/>
-        <v>182531.61448741562</v>
+        <v>718222.22222222236</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -3646,23 +3647,23 @@
         <v>0.6</v>
       </c>
       <c r="D121" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E121" s="7">
         <f t="shared" si="12"/>
-        <v>18960343.76918355</v>
+        <v>74604830.917874396</v>
       </c>
       <c r="F121" s="7">
         <f t="shared" si="13"/>
-        <v>18510367.973151144</v>
+        <v>73329534.662867993</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="18"/>
-        <v>3792.0687538367101</v>
+        <v>14920.966183574879</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="19"/>
-        <v>189603.43769183551</v>
+        <v>746048.30917874398</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -3673,23 +3674,23 @@
         <v>0.71111111111111103</v>
       </c>
       <c r="D122" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E122" s="7">
         <f t="shared" si="12"/>
-        <v>22496255.371393491</v>
+        <v>88517874.396135256</v>
       </c>
       <c r="F122" s="7">
         <f t="shared" si="13"/>
-        <v>21962363.658156537</v>
+        <v>87004748.338081658</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="18"/>
-        <v>4499.2510742786981</v>
+        <v>17703.57487922705</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="19"/>
-        <v>224962.5537139349</v>
+        <v>885178.74396135251</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3708,23 +3709,23 @@
         <v>0.73333333333333295</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E124" s="7">
         <f t="shared" si="12"/>
-        <v>28964291.187739454</v>
+        <v>178715839.24349874</v>
       </c>
       <c r="F124" s="7">
         <f t="shared" si="13"/>
-        <v>28338881.391512956</v>
+        <v>175724779.17247784</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" ref="G124:G129" si="20">E124/$B$5</f>
-        <v>5792.8582375478909</v>
+        <v>35743.167848699748</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" ref="H124:H129" si="21">E124/$B$6</f>
-        <v>289642.91187739454</v>
+        <v>1787158.3924349875</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -3735,23 +3736,23 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E125" s="7">
         <f t="shared" si="12"/>
-        <v>30729808.429118786</v>
+        <v>189609456.26477548</v>
       </c>
       <c r="F125" s="7">
         <f t="shared" si="13"/>
-        <v>30066276.803118918</v>
+        <v>186436076.24360767</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="20"/>
-        <v>6145.9616858237569</v>
+        <v>37921.891252955094</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="21"/>
-        <v>307298.08429118787</v>
+        <v>1896094.5626477548</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -3762,23 +3763,23 @@
         <v>0.82222222222222197</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E126" s="7">
         <f t="shared" si="12"/>
-        <v>32495325.670498077</v>
+        <v>200503073.28605196</v>
       </c>
       <c r="F126" s="7">
         <f t="shared" si="13"/>
-        <v>31793672.214724835</v>
+        <v>197147373.31473726</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="20"/>
-        <v>6499.0651340996155</v>
+        <v>40100.61465721039</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="21"/>
-        <v>324953.25670498074</v>
+        <v>2005030.7328605196</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -3789,23 +3790,23 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E127" s="7">
         <f t="shared" si="12"/>
-        <v>35143601.532567054</v>
+        <v>216843498.81796694</v>
       </c>
       <c r="F127" s="7">
         <f t="shared" si="13"/>
-        <v>34384765.332133755</v>
+        <v>213214318.9214319</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="20"/>
-        <v>7028.7203065134108</v>
+        <v>43368.699763593388</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="21"/>
-        <v>351436.01532567054</v>
+        <v>2168434.9881796692</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -3815,24 +3816,24 @@
       <c r="B128" s="10">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D128" s="4">
-        <v>5</v>
+      <c r="D128">
+        <v>32</v>
       </c>
       <c r="E128" s="7">
         <f t="shared" si="12"/>
-        <v>26316015.325670514</v>
+        <v>162375413.711584</v>
       </c>
       <c r="F128" s="7">
         <f t="shared" si="13"/>
-        <v>25747788.274104077</v>
+        <v>159657833.56578344</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="20"/>
-        <v>5263.2030651341029</v>
+        <v>32475.082742316801</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="21"/>
-        <v>263160.15325670515</v>
+        <v>1623754.1371158401</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -3842,24 +3843,24 @@
       <c r="B129" s="10">
         <v>0.71111111111111103</v>
       </c>
-      <c r="D129" s="4">
-        <v>5</v>
+      <c r="D129">
+        <v>32</v>
       </c>
       <c r="E129" s="7">
         <f t="shared" si="12"/>
-        <v>28081532.567049805</v>
+        <v>173269030.73286051</v>
       </c>
       <c r="F129" s="7">
         <f t="shared" si="13"/>
-        <v>27475183.685709998</v>
+        <v>170369130.63691303</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="20"/>
-        <v>5616.3065134099606</v>
+        <v>34653.806146572104</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="21"/>
-        <v>280815.32567049807</v>
+        <v>1732690.3073286051</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -3908,23 +3909,23 @@
         <v>0.22222222222222199</v>
       </c>
       <c r="D134" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E134" s="7">
         <f t="shared" si="12"/>
-        <v>3478731.9175130776</v>
+        <v>6938244.3216697294</v>
       </c>
       <c r="F134" s="7">
         <f t="shared" si="13"/>
-        <v>3395949.7626344538</v>
+        <v>6773582.6441327995</v>
       </c>
       <c r="G134" s="8">
         <f>E134/$B$5</f>
-        <v>695.74638350261557</v>
+        <v>1387.648864333946</v>
       </c>
       <c r="H134" s="8">
         <f>E134/$B$6</f>
-        <v>34787.319175130775</v>
+        <v>69382.443216697298</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3947,23 +3948,23 @@
         <v>0.2</v>
       </c>
       <c r="D136" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136" s="7">
         <f t="shared" si="12"/>
-        <v>1564247.1875481585</v>
+        <v>3124161.2803939674</v>
       </c>
       <c r="F136" s="7">
         <f t="shared" si="13"/>
-        <v>1526972.9518307908</v>
+        <v>3049816.7177453279</v>
       </c>
       <c r="G136" s="8">
         <f>E136/$B$5</f>
-        <v>312.84943750963168</v>
+        <v>624.83225607879353</v>
       </c>
       <c r="H136" s="8">
         <f>E136/$B$6</f>
-        <v>15642.471875481584</v>
+        <v>31241.612803939675</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -3974,23 +3975,23 @@
         <v>0.24444444444444399</v>
       </c>
       <c r="D137" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137" s="7">
         <f t="shared" si="12"/>
-        <v>1919309.6008629953</v>
+        <v>3833302.5546321874</v>
       </c>
       <c r="F137" s="7">
         <f t="shared" si="13"/>
-        <v>1873574.6306826693</v>
+        <v>3742082.8075235793</v>
       </c>
       <c r="G137" s="8">
         <f>E137/$B$5</f>
-        <v>383.86192017259907</v>
+        <v>766.6605109264375</v>
       </c>
       <c r="H137" s="8">
         <f>E137/$B$6</f>
-        <v>19193.096008629953</v>
+        <v>38333.025546321871</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4001,23 +4002,23 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="D138" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138" s="7">
         <f t="shared" si="12"/>
-        <v>2629434.4274926772</v>
+        <v>5251585.1031086436</v>
       </c>
       <c r="F138" s="7">
         <f t="shared" si="13"/>
-        <v>2566777.988386434</v>
+        <v>5126614.9870800981</v>
       </c>
       <c r="G138" s="8">
         <f>E138/$B$5</f>
-        <v>525.88688549853543</v>
+        <v>1050.3170206217287</v>
       </c>
       <c r="H138" s="8">
         <f>E138/$B$6</f>
-        <v>26294.344274926771</v>
+        <v>52515.851031086437</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4040,23 +4041,23 @@
         <v>0.2</v>
       </c>
       <c r="D140" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140" s="7">
         <f t="shared" si="12"/>
-        <v>1564247.1875481585</v>
+        <v>3124161.2803939674</v>
       </c>
       <c r="F140" s="7">
         <f t="shared" si="13"/>
-        <v>1526972.9518307908</v>
+        <v>3049816.7177453279</v>
       </c>
       <c r="G140" s="8">
         <f>E140/$B$5</f>
-        <v>312.84943750963168</v>
+        <v>624.83225607879353</v>
       </c>
       <c r="H140" s="8">
         <f>E140/$B$6</f>
-        <v>15642.471875481584</v>
+        <v>31241.612803939675</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -4067,23 +4068,23 @@
         <v>0.266666666666667</v>
       </c>
       <c r="D141" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141" s="7">
         <f t="shared" ref="E141:E144" si="22">$B$7/($B$11/D141+90+ROUNDUP(($B$11/D141/90/16-1),0)*0)*($B$11*(B141)-(16*12)-80)</f>
-        <v>2096840.8075204217</v>
+        <v>4187873.1917513134</v>
       </c>
       <c r="F141" s="7">
         <f t="shared" ref="F141:F144" si="23">$B$7/($B$11/D141+90+ROUNDUP(($B$11/D141/90/16-1),0)*36)*($B$11*(B141)-(16*12)-80)</f>
-        <v>2046875.4701086164</v>
+        <v>4088215.8524127207</v>
       </c>
       <c r="G141" s="8">
         <f>E141/$B$5</f>
-        <v>419.36816150408436</v>
+        <v>837.57463835026272</v>
       </c>
       <c r="H141" s="8">
         <f>E141/$B$6</f>
-        <v>20968.408075204217</v>
+        <v>41878.731917513134</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -4094,23 +4095,23 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="D142" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142" s="7">
         <f t="shared" si="22"/>
-        <v>2629434.4274926772</v>
+        <v>5251585.1031086436</v>
       </c>
       <c r="F142" s="7">
         <f t="shared" si="23"/>
-        <v>2566777.988386434</v>
+        <v>5126614.9870800981</v>
       </c>
       <c r="G142" s="8">
         <f>E142/$B$5</f>
-        <v>525.88688549853543</v>
+        <v>1050.3170206217287</v>
       </c>
       <c r="H142" s="8">
         <f>E142/$B$6</f>
-        <v>26294.344274926771</v>
+        <v>52515.851031086437</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -4121,23 +4122,23 @@
         <v>0.2</v>
       </c>
       <c r="D143" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" s="7">
         <f t="shared" si="22"/>
-        <v>1564247.1875481585</v>
+        <v>3124161.2803939674</v>
       </c>
       <c r="F143" s="7">
         <f t="shared" si="23"/>
-        <v>1526972.9518307908</v>
+        <v>3049816.7177453279</v>
       </c>
       <c r="G143" s="8">
         <f>E143/$B$5</f>
-        <v>312.84943750963168</v>
+        <v>624.83225607879353</v>
       </c>
       <c r="H143" s="8">
         <f>E143/$B$6</f>
-        <v>15642.471875481584</v>
+        <v>31241.612803939675</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -4148,23 +4149,23 @@
         <v>0.24444444444444399</v>
       </c>
       <c r="D144" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144" s="7">
         <f t="shared" si="22"/>
-        <v>1919309.6008629953</v>
+        <v>3833302.5546321874</v>
       </c>
       <c r="F144" s="7">
         <f t="shared" si="23"/>
-        <v>1873574.6306826693</v>
+        <v>3742082.8075235793</v>
       </c>
       <c r="G144" s="8">
         <f>E144/$B$5</f>
-        <v>383.86192017259907</v>
+        <v>766.6605109264375</v>
       </c>
       <c r="H144" s="8">
         <f>E144/$B$6</f>
-        <v>19193.096008629953</v>
+        <v>38333.025546321871</v>
       </c>
     </row>
   </sheetData>

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="1660" windowWidth="39120" windowHeight="24660" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="3360" windowWidth="39120" windowHeight="24660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -787,15 +787,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="8" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="3360" windowWidth="39120" windowHeight="24660" tabRatio="500"/>
+    <workbookView xWindow="3800" yWindow="2960" windowWidth="39120" windowHeight="24660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4120,26 +4120,26 @@
         <v>110</v>
       </c>
       <c r="B143" s="10">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D143" s="4">
         <v>2</v>
       </c>
       <c r="E143" s="7">
         <f t="shared" si="22"/>
-        <v>3124161.2803939674</v>
+        <v>7910864.8815020006</v>
       </c>
       <c r="F143" s="7">
         <f t="shared" si="23"/>
-        <v>3049816.7177453279</v>
+        <v>7722612.8237485727</v>
       </c>
       <c r="G143" s="8">
         <f>E143/$B$5</f>
-        <v>624.83225607879353</v>
+        <v>1582.1729763004</v>
       </c>
       <c r="H143" s="8">
         <f>E143/$B$6</f>
-        <v>31241.612803939675</v>
+        <v>79108.648815020002</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="2960" windowWidth="39120" windowHeight="24660" tabRatio="500"/>
+    <workbookView xWindow="26340" yWindow="3580" windowWidth="16780" windowHeight="24660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
+++ b/Engineering/Link_Budget/Phase4_DVBS2X_MODCOD.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26340" yWindow="3580" windowWidth="16780" windowHeight="24660" tabRatio="500"/>
+    <workbookView xWindow="4180" yWindow="2400" windowWidth="22160" windowHeight="24660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="119">
   <si>
     <t>This means DVB-S2</t>
   </si>
@@ -119,9 +120,6 @@
     <t>QPSK code rate 9/10</t>
   </si>
   <si>
-    <t>QPSK code rate 13/25</t>
-  </si>
-  <si>
     <t>QPSK code rate 9/20</t>
   </si>
   <si>
@@ -363,6 +361,30 @@
   </si>
   <si>
     <t>BPSK-Spread2 code rate 11/45</t>
+  </si>
+  <si>
+    <t>ID Code</t>
+  </si>
+  <si>
+    <t>QPSK code rate 13/45</t>
+  </si>
+  <si>
+    <t>QPSK code rate ¼</t>
+  </si>
+  <si>
+    <t>QPSK code rate ½</t>
+  </si>
+  <si>
+    <t>QPSK code rate ¾</t>
+  </si>
+  <si>
+    <t>8PSK code rate ¾</t>
+  </si>
+  <si>
+    <t>MODCOD Name</t>
+  </si>
+  <si>
+    <t>Ideal Es/N0</t>
   </si>
 </sst>
 </file>
@@ -372,7 +394,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -387,6 +409,33 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="5">
@@ -415,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -423,11 +472,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -440,8 +519,17 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="13" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,6 +608,1075 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ideal Es/N0 per modcod that</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> achieves quasi-error-free operation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Es/N0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>QPSK code rate ¼</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>QPSK code rate 1/3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>QPSK code rate 2/5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>QPSK code rate ½</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>QPSK code rate 3/5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>QPSK code rate 2/3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>QPSK code rate ¾</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>QPSK code rate 4/5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>QPSK code rate 5/6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>QPSK code rate 8/9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>QPSK code rate 11/45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>QPSK code rate 4/15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>QPSK code rate 14/45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>QPSK code rate 7/15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>QPSK code rate 8/15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>QPSK code rate 32/45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8PSK code rate 3/5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8PSK code rate 2/3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8PSK code rate ¾</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8PSK code rate 5/6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8PSK code rate 8/9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8PSK code rate 7/15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8PSK code rate 8/15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8PSK code rate 26/45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8PSK code rate 32/45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-2.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="347392960"/>
+        <c:axId val="249654576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="347392960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249654576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="249654576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="347392960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>679449</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,3387 +1942,3540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="8" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="9" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>5000</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>100</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <f>8*10^6</f>
         <v>8000000</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="5" t="s">
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5">
+      <c r="C11" s="5">
         <v>64800</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6">
+      <c r="C12" s="6">
         <v>0.25</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4">
+      <c r="D12" s="6"/>
+      <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="E12" s="7">
-        <f>$B$7/($B$11/D12+90+ROUNDUP(($B$11/D12/90/16-1),0)*0)*($B$11*(B12)-(16*12)-80)</f>
+      <c r="F12" s="7">
+        <f>$C$7/($C$11/E12+90+ROUNDUP(($C$11/E12/90/16-1),0)*0)*($C$11*(C12)-(16*12)-80)</f>
         <v>7822222.2222222229</v>
       </c>
-      <c r="F12" s="7">
-        <f>$B$7/($B$11/D12+90+ROUNDUP(($B$11/D12/90/16-1),0)*36)*($B$11*(B12)-(16*12)-80)</f>
+      <c r="G12" s="7">
+        <f>$C$7/($C$11/E12+90+ROUNDUP(($C$11/E12/90/16-1),0)*36)*($C$11*(C12)-(16*12)-80)</f>
         <v>7636581.5653841542</v>
       </c>
-      <c r="G12" s="8">
-        <f t="shared" ref="G12:G25" si="0">E12/$B$5</f>
+      <c r="H12" s="8">
+        <f t="shared" ref="H12:H25" si="0">F12/$C$5</f>
         <v>1564.4444444444446</v>
       </c>
-      <c r="H12" s="8">
-        <f t="shared" ref="H12:H25" si="1">E12/$B$6</f>
+      <c r="I12" s="8">
+        <f t="shared" ref="I12:I25" si="1">F12/$C$6</f>
         <v>78222.222222222234</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="6">
+      <c r="C13" s="6">
         <v>0.33333333333333298</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="E13" s="7">
-        <f>$B$7/($B$11/D13+90+ROUNDUP(($B$11/D13/90/16-1),0)*0)*($B$11*(B13)-(16*12)-80)</f>
+      <c r="F13" s="7">
+        <f>$C$7/($C$11/E13+90+ROUNDUP(($C$11/E13/90/16-1),0)*0)*($C$11*(C13)-(16*12)-80)</f>
         <v>10474155.92387967</v>
       </c>
-      <c r="F13" s="7">
-        <f t="shared" ref="F13:F76" si="2">$B$7/($B$11/D13+90+ROUNDUP(($B$11/D13/90/16-1),0)*36)*($B$11*(B13)-(16*12)-80)</f>
+      <c r="G13" s="7">
+        <f t="shared" ref="G13:G76" si="2">$C$7/($C$11/E13+90+ROUNDUP(($C$11/E13/90/16-1),0)*36)*($C$11*(C13)-(16*12)-80)</f>
         <v>10225578.32913819</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>2094.8311847759342</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <f t="shared" si="1"/>
         <v>104741.5592387967</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="6">
+      <c r="C14" s="6">
         <v>0.4</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="E14" s="7">
-        <f>$B$7/($B$11/D14+90+ROUNDUP(($B$11/D14/90/16-1),0)*0)*($B$11*(B14)-(16*12)-80)</f>
+      <c r="F14" s="7">
+        <f>$C$7/($C$11/E14+90+ROUNDUP(($C$11/E14/90/16-1),0)*0)*($C$11*(C14)-(16*12)-80)</f>
         <v>12595702.885205649</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <f t="shared" si="2"/>
         <v>12296775.740141436</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>2519.1405770411297</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <f t="shared" si="1"/>
         <v>125957.02885205649</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6">
+      <c r="C15" s="6">
         <v>0.5</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>4</v>
       </c>
-      <c r="E15" s="7">
-        <f>$B$7/($B$11/D15+90+ROUNDUP(($B$11/D15/90/16-1),0)*0)*($B$11*(B15)-(16*12)-80)</f>
+      <c r="F15" s="7">
+        <f>$C$7/($C$11/E15+90+ROUNDUP(($C$11/E15/90/16-1),0)*0)*($C$11*(C15)-(16*12)-80)</f>
         <v>15778023.327194599</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <f t="shared" si="2"/>
         <v>15403571.85664629</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H15" s="8">
         <f t="shared" si="0"/>
         <v>3155.6046654389197</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <f t="shared" si="1"/>
         <v>157780.233271946</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6">
+      <c r="C16" s="6">
         <v>0.6</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>4</v>
       </c>
-      <c r="E16" s="7">
-        <f t="shared" ref="E16:E76" si="3">$B$7/($B$11/D16+90+ROUNDUP(($B$11/D16/90/16-1),0)*0)*($B$11*(B16)-(16*12)-80)</f>
+      <c r="F16" s="7">
+        <f t="shared" ref="F16:F76" si="3">$C$7/($C$11/E16+90+ROUNDUP(($C$11/E16/90/16-1),0)*0)*($C$11*(C16)-(16*12)-80)</f>
         <v>18960343.76918355</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="7">
         <f t="shared" si="2"/>
         <v>18510367.973151144</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="8">
         <f t="shared" si="0"/>
         <v>3792.0687538367101</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <f t="shared" si="1"/>
         <v>189603.43769183551</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="6">
+      <c r="C17" s="6">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>4</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <f t="shared" si="3"/>
         <v>21081890.730509527</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="7">
         <f t="shared" si="2"/>
         <v>20581565.384154391</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H17" s="8">
         <f t="shared" si="0"/>
         <v>4216.3781461019053</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <f t="shared" si="1"/>
         <v>210818.90730509526</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6">
+      <c r="C18" s="6">
         <v>0.75</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18" s="7">
         <f t="shared" si="3"/>
         <v>23733824.432166975</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <f t="shared" si="2"/>
         <v>23170562.147908427</v>
       </c>
-      <c r="G18" s="8">
+      <c r="H18" s="8">
         <f t="shared" si="0"/>
         <v>4746.7648864333951</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <f t="shared" si="1"/>
         <v>237338.24432166974</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6">
+      <c r="C19" s="6">
         <v>0.8</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>4</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19" s="7">
         <f t="shared" si="3"/>
         <v>25324984.653161451</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19" s="7">
         <f t="shared" si="2"/>
         <v>24723960.206160855</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="8">
         <f t="shared" si="0"/>
         <v>5064.9969306322901</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <f t="shared" si="1"/>
         <v>253249.84653161452</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="6">
+      <c r="C20" s="6">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>4</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20" s="7">
         <f t="shared" si="3"/>
         <v>26385758.133824423</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20" s="7">
         <f t="shared" si="2"/>
         <v>25759558.911662463</v>
       </c>
-      <c r="G20" s="8">
+      <c r="H20" s="8">
         <f t="shared" si="0"/>
         <v>5277.1516267648849</v>
       </c>
-      <c r="H20" s="8">
+      <c r="I20" s="8">
         <f t="shared" si="1"/>
         <v>263857.58133824426</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6">
+      <c r="C21" s="6">
         <v>0.88888888888888895</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>4</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="7">
         <f t="shared" si="3"/>
         <v>28153713.934929408</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21" s="7">
         <f t="shared" si="2"/>
         <v>27485556.754165173</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="8">
         <f t="shared" si="0"/>
         <v>5630.742786985882</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <f t="shared" si="1"/>
         <v>281537.13934929407</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="6">
+      <c r="C22" s="6">
         <v>0.9</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22" s="7">
         <f t="shared" si="3"/>
         <v>28507305.0951504</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22" s="7">
         <f t="shared" si="2"/>
         <v>27830756.32266571</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="8">
         <f t="shared" si="0"/>
         <v>5701.46101903008</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="8">
         <f t="shared" si="1"/>
         <v>285073.05095150397</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>132</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="6">
         <v>0.28888888888888897</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>4</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23" s="7">
         <f t="shared" si="3"/>
         <v>9059791.2829957046</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="7">
         <f t="shared" si="2"/>
         <v>8844780.0551360436</v>
       </c>
-      <c r="G23" s="8">
+      <c r="H23" s="8">
         <f t="shared" si="0"/>
         <v>1811.9582565991409</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <f t="shared" si="1"/>
         <v>90597.912829957044</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="6">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>134</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="6">
         <v>0.45</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>4</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24" s="7">
         <f t="shared" si="3"/>
         <v>14186863.106200123</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24" s="7">
         <f t="shared" si="2"/>
         <v>13850173.798393864</v>
       </c>
-      <c r="G24" s="8">
+      <c r="H24" s="8">
         <f t="shared" si="0"/>
         <v>2837.3726212400247</v>
       </c>
-      <c r="H24" s="8">
+      <c r="I24" s="8">
         <f t="shared" si="1"/>
         <v>141868.63106200122</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="6">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>136</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>4</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25" s="7">
         <f t="shared" si="3"/>
         <v>17369183.548189074</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G25" s="7">
         <f t="shared" si="2"/>
         <v>16956969.91489872</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H25" s="8">
         <f t="shared" si="0"/>
         <v>3473.8367096378147</v>
       </c>
-      <c r="H25" s="8">
+      <c r="I25" s="8">
         <f t="shared" si="1"/>
         <v>173691.83548189074</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="E26" s="7"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="6">
         <v>0.6</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>8</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27" s="7">
         <f t="shared" si="3"/>
         <v>37712332.112332113</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27" s="7">
         <f t="shared" si="2"/>
         <v>36901314.21744325</v>
       </c>
-      <c r="G27" s="8">
-        <f t="shared" ref="G27:G37" si="4">E27/$B$5</f>
+      <c r="H27" s="8">
+        <f t="shared" ref="H27:H37" si="4">F27/$C$5</f>
         <v>7542.466422466423</v>
       </c>
-      <c r="H27" s="8">
-        <f t="shared" ref="H27:H37" si="5">E27/$B$6</f>
+      <c r="I27" s="8">
+        <f t="shared" ref="I27:I37" si="5">F27/$C$6</f>
         <v>377123.32112332113</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="6">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="6">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>8</v>
       </c>
-      <c r="E28" s="7">
+      <c r="F28" s="7">
         <f t="shared" si="3"/>
         <v>41932112.332112357</v>
       </c>
-      <c r="F28" s="7">
+      <c r="G28" s="7">
         <f t="shared" si="2"/>
         <v>41030346.475507788</v>
       </c>
-      <c r="G28" s="8">
+      <c r="H28" s="8">
         <f t="shared" si="4"/>
         <v>8386.4224664224712</v>
       </c>
-      <c r="H28" s="8">
+      <c r="I28" s="8">
         <f t="shared" si="5"/>
         <v>419321.1233211236</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="6">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="6">
         <v>0.75</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>8</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F29" s="7">
         <f t="shared" si="3"/>
         <v>47206837.606837608</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G29" s="7">
         <f t="shared" si="2"/>
         <v>46191636.798088409</v>
       </c>
-      <c r="G29" s="8">
+      <c r="H29" s="8">
         <f t="shared" si="4"/>
         <v>9441.3675213675215</v>
       </c>
-      <c r="H29" s="8">
+      <c r="I29" s="8">
         <f t="shared" si="5"/>
         <v>472068.37606837606</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="6">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="6">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>8</v>
       </c>
-      <c r="E30" s="7">
+      <c r="F30" s="7">
         <f t="shared" si="3"/>
         <v>52481562.881562866</v>
       </c>
-      <c r="F30" s="7">
+      <c r="G30" s="7">
         <f t="shared" si="2"/>
         <v>51352927.120669037</v>
       </c>
-      <c r="G30" s="8">
+      <c r="H30" s="8">
         <f t="shared" si="4"/>
         <v>10496.312576312574</v>
       </c>
-      <c r="H30" s="8">
+      <c r="I30" s="8">
         <f t="shared" si="5"/>
         <v>524815.6288156287</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="6">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="6">
         <v>0.88888888888888895</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>8</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F31" s="7">
         <f t="shared" si="3"/>
         <v>55998046.398046412</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G31" s="7">
         <f t="shared" si="2"/>
         <v>54793787.335722826</v>
       </c>
-      <c r="G31" s="8">
+      <c r="H31" s="8">
         <f t="shared" si="4"/>
         <v>11199.609279609282</v>
       </c>
-      <c r="H31" s="8">
+      <c r="I31" s="8">
         <f t="shared" si="5"/>
         <v>559980.46398046415</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="6">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6">
         <v>0.9</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>8</v>
       </c>
-      <c r="E32" s="7">
+      <c r="F32" s="7">
         <f t="shared" si="3"/>
         <v>56701343.101343103</v>
       </c>
-      <c r="F32" s="7">
+      <c r="G32" s="7">
         <f t="shared" si="2"/>
         <v>55481959.378733568</v>
       </c>
-      <c r="G32" s="8">
+      <c r="H32" s="8">
         <f t="shared" si="4"/>
         <v>11340.26862026862</v>
       </c>
-      <c r="H32" s="8">
+      <c r="I32" s="8">
         <f t="shared" si="5"/>
         <v>567013.43101343105</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="6">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>142</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="6">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>8</v>
       </c>
-      <c r="E33" s="7">
+      <c r="F33" s="7">
         <f t="shared" si="3"/>
         <v>40173870.573870584</v>
       </c>
-      <c r="F33" s="7">
+      <c r="G33" s="7">
         <f t="shared" si="2"/>
         <v>39309916.36798089</v>
       </c>
-      <c r="G33" s="8">
+      <c r="H33" s="8">
         <f t="shared" si="4"/>
         <v>8034.7741147741172</v>
       </c>
-      <c r="H33" s="8">
+      <c r="I33" s="8">
         <f t="shared" si="5"/>
         <v>401738.70573870582</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="6">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>144</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="6">
         <v>0.69444444444444398</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>8</v>
       </c>
-      <c r="E34" s="7">
+      <c r="F34" s="7">
         <f t="shared" si="3"/>
         <v>43690354.090354063</v>
       </c>
-      <c r="F34" s="7">
+      <c r="G34" s="7">
         <f t="shared" si="2"/>
         <v>42750776.58303462</v>
       </c>
-      <c r="G34" s="8">
+      <c r="H34" s="8">
         <f t="shared" si="4"/>
         <v>8738.0708180708134</v>
       </c>
-      <c r="H34" s="8">
+      <c r="I34" s="8">
         <f t="shared" si="5"/>
         <v>436903.54090354062</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="6">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>146</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="6">
         <v>0.72222222222222199</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>8</v>
       </c>
-      <c r="E35" s="7">
+      <c r="F35" s="7">
         <f t="shared" si="3"/>
         <v>45448595.848595835</v>
       </c>
-      <c r="F35" s="7">
+      <c r="G35" s="7">
         <f t="shared" si="2"/>
         <v>44471206.690561511</v>
       </c>
-      <c r="G35" s="8">
+      <c r="H35" s="8">
         <f t="shared" si="4"/>
         <v>9089.7191697191665</v>
       </c>
-      <c r="H35" s="8">
+      <c r="I35" s="8">
         <f t="shared" si="5"/>
         <v>454485.95848595834</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="6">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>138</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="6">
         <v>0.55555555555555602</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>8</v>
       </c>
-      <c r="E36" s="7">
+      <c r="F36" s="7">
         <f t="shared" si="3"/>
         <v>34899145.299145326</v>
       </c>
-      <c r="F36" s="7">
+      <c r="G36" s="7">
         <f t="shared" si="2"/>
         <v>34148626.045400269</v>
       </c>
-      <c r="G36" s="8">
+      <c r="H36" s="8">
         <f t="shared" si="4"/>
         <v>6979.829059829065</v>
       </c>
-      <c r="H36" s="8">
+      <c r="I36" s="8">
         <f t="shared" si="5"/>
         <v>348991.45299145323</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="6">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>140</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="6">
         <v>0.57777777777777795</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>8</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F37" s="7">
         <f t="shared" si="3"/>
         <v>36305738.705738716</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G37" s="7">
         <f t="shared" si="2"/>
         <v>35524970.131421752</v>
       </c>
-      <c r="G37" s="8">
+      <c r="H37" s="8">
         <f t="shared" si="4"/>
         <v>7261.1477411477435</v>
       </c>
-      <c r="H37" s="8">
+      <c r="I37" s="8">
         <f t="shared" si="5"/>
         <v>363057.38705738715</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="6"/>
-      <c r="E38" s="7"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="6"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="6">
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="6">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>16</v>
       </c>
-      <c r="E39" s="7">
+      <c r="F39" s="7">
         <f t="shared" si="3"/>
         <v>82952657.004830956</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="7">
         <f t="shared" si="2"/>
         <v>81534662.867996246</v>
       </c>
-      <c r="G39" s="8">
-        <f t="shared" ref="G39:G57" si="6">E39/$B$5</f>
+      <c r="H39" s="8">
+        <f t="shared" ref="H39:H57" si="6">F39/$C$5</f>
         <v>16590.531400966192</v>
       </c>
-      <c r="H39" s="8">
-        <f t="shared" ref="H39:H57" si="7">E39/$B$6</f>
+      <c r="I39" s="8">
+        <f t="shared" ref="I39:I57" si="7">F39/$C$6</f>
         <v>829526.57004830951</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="6">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="6">
         <v>0.75</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>16</v>
       </c>
-      <c r="E40" s="7">
+      <c r="F40" s="7">
         <f t="shared" si="3"/>
         <v>93387439.613526568</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
         <f t="shared" si="2"/>
         <v>91791073.124406457</v>
       </c>
-      <c r="G40" s="8">
+      <c r="H40" s="8">
         <f t="shared" si="6"/>
         <v>18677.487922705313</v>
       </c>
-      <c r="H40" s="8">
+      <c r="I40" s="8">
         <f t="shared" si="7"/>
         <v>933874.39613526571</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="6">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="6">
         <v>0.8</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>16</v>
       </c>
-      <c r="E41" s="7">
+      <c r="F41" s="7">
         <f t="shared" si="3"/>
         <v>99648309.178743958</v>
       </c>
-      <c r="F41" s="7">
+      <c r="G41" s="7">
         <f t="shared" si="2"/>
         <v>97944919.278252617</v>
       </c>
-      <c r="G41" s="8">
+      <c r="H41" s="8">
         <f t="shared" si="6"/>
         <v>19929.661835748793</v>
       </c>
-      <c r="H41" s="8">
+      <c r="I41" s="8">
         <f t="shared" si="7"/>
         <v>996483.09178743954</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="6">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="6">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>16</v>
       </c>
-      <c r="E42" s="7">
+      <c r="F42" s="7">
         <f t="shared" si="3"/>
         <v>103822222.22222218</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <f t="shared" si="2"/>
         <v>102047483.38081667</v>
       </c>
-      <c r="G42" s="8">
+      <c r="H42" s="8">
         <f t="shared" si="6"/>
         <v>20764.444444444434</v>
       </c>
-      <c r="H42" s="8">
+      <c r="I42" s="8">
         <f t="shared" si="7"/>
         <v>1038222.2222222218</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="6">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="6">
         <v>0.88888888888888895</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>16</v>
       </c>
-      <c r="E43" s="7">
+      <c r="F43" s="7">
         <f t="shared" si="3"/>
         <v>110778743.96135268</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G43" s="7">
         <f t="shared" si="2"/>
         <v>108885090.21842358</v>
       </c>
-      <c r="G43" s="8">
+      <c r="H43" s="8">
         <f t="shared" si="6"/>
         <v>22155.748792270537</v>
       </c>
-      <c r="H43" s="8">
+      <c r="I43" s="8">
         <f t="shared" si="7"/>
         <v>1107787.4396135267</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="6">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="6">
         <v>0.9</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>16</v>
       </c>
-      <c r="E44" s="7">
+      <c r="F44" s="7">
         <f t="shared" si="3"/>
         <v>112170048.30917874</v>
       </c>
-      <c r="F44" s="7">
+      <c r="G44" s="7">
         <f t="shared" si="2"/>
         <v>110252611.58594492</v>
       </c>
-      <c r="G44" s="8">
+      <c r="H44" s="8">
         <f t="shared" si="6"/>
         <v>22434.009661835749</v>
       </c>
-      <c r="H44" s="8">
+      <c r="I44" s="8">
         <f t="shared" si="7"/>
         <v>1121700.4830917874</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="6">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="6">
         <v>0.57777777777777795</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>16</v>
       </c>
-      <c r="E45" s="7">
+      <c r="F45" s="7">
         <f t="shared" si="3"/>
         <v>71822222.222222239</v>
       </c>
-      <c r="F45" s="7">
+      <c r="G45" s="7">
         <f t="shared" si="2"/>
         <v>70594491.927825272</v>
       </c>
-      <c r="G45" s="8">
+      <c r="H45" s="8">
         <f t="shared" si="6"/>
         <v>14364.444444444447</v>
       </c>
-      <c r="H45" s="8">
+      <c r="I45" s="8">
         <f t="shared" si="7"/>
         <v>718222.22222222236</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="6">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="6">
         <v>0.6</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>16</v>
       </c>
-      <c r="E46" s="7">
+      <c r="F46" s="7">
         <f t="shared" si="3"/>
         <v>74604830.917874396</v>
       </c>
-      <c r="F46" s="7">
+      <c r="G46" s="7">
         <f t="shared" si="2"/>
         <v>73329534.662867993</v>
       </c>
-      <c r="G46" s="8">
+      <c r="H46" s="8">
         <f t="shared" si="6"/>
         <v>14920.966183574879</v>
       </c>
-      <c r="H46" s="8">
+      <c r="I46" s="8">
         <f t="shared" si="7"/>
         <v>746048.30917874398</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="6">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="6">
         <v>0.62222222222222201</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>16</v>
       </c>
-      <c r="E47" s="7">
+      <c r="F47" s="7">
         <f t="shared" si="3"/>
         <v>77387439.613526538</v>
       </c>
-      <c r="F47" s="7">
+      <c r="G47" s="7">
         <f t="shared" si="2"/>
         <v>76064577.397910699</v>
       </c>
-      <c r="G47" s="8">
+      <c r="H47" s="8">
         <f t="shared" si="6"/>
         <v>15477.487922705308</v>
       </c>
-      <c r="H47" s="8">
+      <c r="I47" s="8">
         <f t="shared" si="7"/>
         <v>773874.39613526536</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="6">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="6">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>16</v>
       </c>
-      <c r="E48" s="7">
+      <c r="F48" s="7">
         <f t="shared" si="3"/>
         <v>79474396.135265723</v>
       </c>
-      <c r="F48" s="7">
+      <c r="G48" s="7">
         <f t="shared" si="2"/>
         <v>78115859.449192792</v>
       </c>
-      <c r="G48" s="8">
+      <c r="H48" s="8">
         <f t="shared" si="6"/>
         <v>15894.879227053145</v>
       </c>
-      <c r="H48" s="8">
+      <c r="I48" s="8">
         <f t="shared" si="7"/>
         <v>794743.96135265718</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="6">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="6">
         <v>0.69444444444444398</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>16</v>
       </c>
-      <c r="E49" s="7">
+      <c r="F49" s="7">
         <f t="shared" si="3"/>
         <v>86430917.874396086</v>
       </c>
-      <c r="F49" s="7">
+      <c r="G49" s="7">
         <f t="shared" si="2"/>
         <v>84953466.286799565</v>
       </c>
-      <c r="G49" s="8">
+      <c r="H49" s="8">
         <f t="shared" si="6"/>
         <v>17286.183574879218</v>
       </c>
-      <c r="H49" s="8">
+      <c r="I49" s="8">
         <f t="shared" si="7"/>
         <v>864309.1787439608</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="6">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="6">
         <v>0.72222222222222199</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>16</v>
       </c>
-      <c r="E50" s="7">
+      <c r="F50" s="7">
         <f t="shared" si="3"/>
         <v>89909178.743961334</v>
       </c>
-      <c r="F50" s="7">
+      <c r="G50" s="7">
         <f t="shared" si="2"/>
         <v>88372269.705603018</v>
       </c>
-      <c r="G50" s="8">
+      <c r="H50" s="8">
         <f t="shared" si="6"/>
         <v>17981.835748792266</v>
       </c>
-      <c r="H50" s="8">
+      <c r="I50" s="8">
         <f t="shared" si="7"/>
         <v>899091.78743961337</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="6">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="6">
         <v>0.77777777777777801</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>16</v>
       </c>
-      <c r="E51" s="7">
+      <c r="F51" s="7">
         <f t="shared" si="3"/>
         <v>96865700.483091816</v>
       </c>
-      <c r="F51" s="7">
+      <c r="G51" s="7">
         <f t="shared" si="2"/>
         <v>95209876.54320991</v>
       </c>
-      <c r="G51" s="8">
+      <c r="H51" s="8">
         <f t="shared" si="6"/>
         <v>19373.140096618365</v>
       </c>
-      <c r="H51" s="8">
+      <c r="I51" s="8">
         <f t="shared" si="7"/>
         <v>968657.00483091816</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="6">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="6">
         <v>0.85555555555555596</v>
       </c>
-      <c r="D52" s="4">
+      <c r="E52" s="4">
         <v>16</v>
       </c>
-      <c r="E52" s="7">
+      <c r="F52" s="7">
         <f t="shared" si="3"/>
         <v>106604830.91787446</v>
       </c>
-      <c r="F52" s="7">
+      <c r="G52" s="7">
         <f t="shared" si="2"/>
         <v>104782526.11585951</v>
       </c>
-      <c r="G52" s="8">
+      <c r="H52" s="8">
         <f t="shared" si="6"/>
         <v>21320.966183574892</v>
       </c>
-      <c r="H52" s="8">
+      <c r="I52" s="8">
         <f t="shared" si="7"/>
         <v>1066048.3091787444</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="6">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="6">
         <v>0.55555555555555602</v>
       </c>
-      <c r="D53" s="4">
+      <c r="E53" s="4">
         <v>16</v>
       </c>
-      <c r="E53" s="7">
+      <c r="F53" s="7">
         <f t="shared" si="3"/>
         <v>69039613.526570112</v>
       </c>
-      <c r="F53" s="7">
+      <c r="G53" s="7">
         <f t="shared" si="2"/>
         <v>67859449.192782581</v>
       </c>
-      <c r="G53" s="8">
+      <c r="H53" s="8">
         <f t="shared" si="6"/>
         <v>13807.922705314022</v>
       </c>
-      <c r="H53" s="8">
+      <c r="I53" s="8">
         <f t="shared" si="7"/>
         <v>690396.1352657011</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="6">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="6">
         <v>0.53333333333333299</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E54" s="4">
         <v>16</v>
       </c>
-      <c r="E54" s="7">
+      <c r="F54" s="7">
         <f t="shared" si="3"/>
         <v>66257004.830917835</v>
       </c>
-      <c r="F54" s="7">
+      <c r="G54" s="7">
         <f t="shared" si="2"/>
         <v>65124406.457739748</v>
       </c>
-      <c r="G54" s="8">
+      <c r="H54" s="8">
         <f t="shared" si="6"/>
         <v>13251.400966183566</v>
       </c>
-      <c r="H54" s="8">
+      <c r="I54" s="8">
         <f t="shared" si="7"/>
         <v>662570.04830917832</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="6">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="6">
         <v>0.5</v>
       </c>
-      <c r="D55" s="4">
+      <c r="E55" s="4">
         <v>16</v>
       </c>
-      <c r="E55" s="7">
+      <c r="F55" s="7">
         <f t="shared" si="3"/>
         <v>62083091.787439615</v>
       </c>
-      <c r="F55" s="7">
+      <c r="G55" s="7">
         <f t="shared" si="2"/>
         <v>61021842.355175689</v>
       </c>
-      <c r="G55" s="8">
+      <c r="H55" s="8">
         <f t="shared" si="6"/>
         <v>12416.618357487923</v>
       </c>
-      <c r="H55" s="8">
+      <c r="I55" s="8">
         <f t="shared" si="7"/>
         <v>620830.9178743962</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="6">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="6">
         <v>0.6</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E56" s="4">
         <v>16</v>
       </c>
-      <c r="E56" s="7">
+      <c r="F56" s="7">
         <f t="shared" si="3"/>
         <v>74604830.917874396</v>
       </c>
-      <c r="F56" s="7">
+      <c r="G56" s="7">
         <f t="shared" si="2"/>
         <v>73329534.662867993</v>
       </c>
-      <c r="G56" s="8">
+      <c r="H56" s="8">
         <f t="shared" si="6"/>
         <v>14920.966183574879</v>
       </c>
-      <c r="H56" s="8">
+      <c r="I56" s="8">
         <f t="shared" si="7"/>
         <v>746048.30917874398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="6">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="6">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D57" s="4">
+      <c r="E57" s="4">
         <v>16</v>
       </c>
-      <c r="E57" s="7">
+      <c r="F57" s="7">
         <f t="shared" si="3"/>
         <v>82952657.004830956</v>
       </c>
-      <c r="F57" s="7">
+      <c r="G57" s="7">
         <f t="shared" si="2"/>
         <v>81534662.867996246</v>
       </c>
-      <c r="G57" s="8">
+      <c r="H57" s="8">
         <f t="shared" si="6"/>
         <v>16590.531400966192</v>
       </c>
-      <c r="H57" s="8">
+      <c r="I57" s="8">
         <f t="shared" si="7"/>
         <v>829526.57004830951</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="6"/>
-      <c r="E58" s="7"/>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="4"/>
+      <c r="C58" s="6"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
+      <c r="G58" s="7"/>
       <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="6">
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="6">
         <v>0.75</v>
       </c>
-      <c r="D59" s="4">
+      <c r="E59" s="4">
         <v>32</v>
       </c>
-      <c r="E59" s="7">
+      <c r="F59" s="7">
         <f t="shared" si="3"/>
         <v>182800945.62647754</v>
       </c>
-      <c r="F59" s="7">
+      <c r="G59" s="7">
         <f t="shared" si="2"/>
         <v>179741515.57415155</v>
       </c>
-      <c r="G59" s="8">
-        <f t="shared" ref="G59:G67" si="8">E59/$B$5</f>
+      <c r="H59" s="8">
+        <f t="shared" ref="H59:H67" si="8">F59/$C$5</f>
         <v>36560.18912529551</v>
       </c>
-      <c r="H59" s="8">
-        <f t="shared" ref="H59:H67" si="9">E59/$B$6</f>
+      <c r="I59" s="8">
+        <f t="shared" ref="I59:I67" si="9">F59/$C$6</f>
         <v>1828009.4562647755</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="6">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="6">
         <v>0.8</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E60" s="4">
         <v>32</v>
       </c>
-      <c r="E60" s="7">
+      <c r="F60" s="7">
         <f t="shared" si="3"/>
         <v>195056264.77541372</v>
       </c>
-      <c r="F60" s="7">
+      <c r="G60" s="7">
         <f t="shared" si="2"/>
         <v>191791724.77917248</v>
       </c>
-      <c r="G60" s="8">
+      <c r="H60" s="8">
         <f t="shared" si="8"/>
         <v>39011.252955082746</v>
       </c>
-      <c r="H60" s="8">
+      <c r="I60" s="8">
         <f t="shared" si="9"/>
         <v>1950562.6477541372</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="6">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="6">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D61" s="4">
+      <c r="E61" s="4">
         <v>32</v>
       </c>
-      <c r="E61" s="7">
+      <c r="F61" s="7">
         <f t="shared" si="3"/>
         <v>203226477.54137108</v>
       </c>
-      <c r="F61" s="7">
+      <c r="G61" s="7">
         <f t="shared" si="2"/>
         <v>199825197.58251968</v>
       </c>
-      <c r="G61" s="8">
+      <c r="H61" s="8">
         <f t="shared" si="8"/>
         <v>40645.295508274212</v>
       </c>
-      <c r="H61" s="8">
+      <c r="I61" s="8">
         <f t="shared" si="9"/>
         <v>2032264.7754137109</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="6">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="6">
         <v>0.88888888888888895</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E62" s="4">
         <v>32</v>
       </c>
-      <c r="E62" s="7">
+      <c r="F62" s="7">
         <f t="shared" si="3"/>
         <v>216843498.81796694</v>
       </c>
-      <c r="F62" s="7">
+      <c r="G62" s="7">
         <f t="shared" si="2"/>
         <v>213214318.9214319</v>
       </c>
-      <c r="G62" s="8">
+      <c r="H62" s="8">
         <f t="shared" si="8"/>
         <v>43368.699763593388</v>
       </c>
-      <c r="H62" s="8">
+      <c r="I62" s="8">
         <f t="shared" si="9"/>
         <v>2168434.9881796692</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="6">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="6">
         <v>0.9</v>
       </c>
-      <c r="D63" s="4">
+      <c r="E63" s="4">
         <v>32</v>
       </c>
-      <c r="E63" s="7">
+      <c r="F63" s="7">
         <f t="shared" si="3"/>
         <v>219566903.07328606</v>
       </c>
-      <c r="F63" s="7">
+      <c r="G63" s="7">
         <f t="shared" si="2"/>
         <v>215892143.18921432</v>
       </c>
-      <c r="G63" s="8">
+      <c r="H63" s="8">
         <f t="shared" si="8"/>
         <v>43913.38061465721</v>
       </c>
-      <c r="H63" s="8">
+      <c r="I63" s="8">
         <f t="shared" si="9"/>
         <v>2195669.0307328608</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="6">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="6">
         <v>0.71111111111111103</v>
       </c>
-      <c r="D64" s="4">
+      <c r="E64" s="4">
         <v>32</v>
       </c>
-      <c r="E64" s="7">
+      <c r="F64" s="7">
         <f t="shared" si="3"/>
         <v>173269030.73286051</v>
       </c>
-      <c r="F64" s="7">
+      <c r="G64" s="7">
         <f t="shared" si="2"/>
         <v>170369130.63691303</v>
       </c>
-      <c r="G64" s="8">
+      <c r="H64" s="8">
         <f t="shared" si="8"/>
         <v>34653.806146572104</v>
       </c>
-      <c r="H64" s="8">
+      <c r="I64" s="8">
         <f t="shared" si="9"/>
         <v>1732690.3073286051</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="6">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="6">
         <v>0.73333333333333295</v>
       </c>
-      <c r="D65" s="4">
+      <c r="E65" s="4">
         <v>32</v>
       </c>
-      <c r="E65" s="7">
+      <c r="F65" s="7">
         <f t="shared" si="3"/>
         <v>178715839.24349874</v>
       </c>
-      <c r="F65" s="7">
+      <c r="G65" s="7">
         <f t="shared" si="2"/>
         <v>175724779.17247784</v>
       </c>
-      <c r="G65" s="8">
+      <c r="H65" s="8">
         <f t="shared" si="8"/>
         <v>35743.167848699748</v>
       </c>
-      <c r="H65" s="8">
+      <c r="I65" s="8">
         <f t="shared" si="9"/>
         <v>1787158.3924349875</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="6">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="6">
         <v>0.77777777777777801</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E66" s="4">
         <v>32</v>
       </c>
-      <c r="E66" s="7">
+      <c r="F66" s="7">
         <f t="shared" si="3"/>
         <v>189609456.26477548</v>
       </c>
-      <c r="F66" s="7">
+      <c r="G66" s="7">
         <f t="shared" si="2"/>
         <v>186436076.24360767</v>
       </c>
-      <c r="G66" s="8">
+      <c r="H66" s="8">
         <f t="shared" si="8"/>
         <v>37921.891252955094</v>
       </c>
-      <c r="H66" s="8">
+      <c r="I66" s="8">
         <f t="shared" si="9"/>
         <v>1896094.5626477548</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="6">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="6">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D67" s="4">
+      <c r="E67" s="4">
         <v>32</v>
       </c>
-      <c r="E67" s="7">
+      <c r="F67" s="7">
         <f t="shared" si="3"/>
         <v>162375413.711584</v>
       </c>
-      <c r="F67" s="7">
+      <c r="G67" s="7">
         <f t="shared" si="2"/>
         <v>159657833.56578344</v>
       </c>
-      <c r="G67" s="8">
+      <c r="H67" s="8">
         <f t="shared" si="8"/>
         <v>32475.082742316801</v>
       </c>
-      <c r="H67" s="8">
+      <c r="I67" s="8">
         <f t="shared" si="9"/>
         <v>1623754.1371158401</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="6"/>
-      <c r="E68" s="7"/>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="4"/>
+      <c r="C68" s="6"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="8"/>
+      <c r="G68" s="7"/>
       <c r="H68" s="8"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="6">
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="6">
         <v>0.73333333333333295</v>
       </c>
-      <c r="D69" s="4">
+      <c r="E69" s="4">
         <v>64</v>
       </c>
-      <c r="E69" s="7">
+      <c r="F69" s="7">
         <f t="shared" si="3"/>
         <v>342842630.38548738</v>
       </c>
-      <c r="F69" s="7">
+      <c r="G69" s="7">
         <f t="shared" si="2"/>
         <v>354415377.40271902</v>
       </c>
-      <c r="G69" s="8">
-        <f>E69/$B$5</f>
+      <c r="H69" s="8">
+        <f>F69/$C$5</f>
         <v>68568.526077097471</v>
       </c>
-      <c r="H69" s="8">
-        <f>E69/$B$6</f>
+      <c r="I69" s="8">
+        <f>F69/$C$6</f>
         <v>3428426.3038548739</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="6">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="6">
         <v>0.77777777777777801</v>
       </c>
-      <c r="D70" s="4">
+      <c r="E70" s="4">
         <v>64</v>
       </c>
-      <c r="E70" s="7">
+      <c r="F70" s="7">
         <f t="shared" si="3"/>
         <v>363740589.56916112</v>
       </c>
-      <c r="F70" s="7">
+      <c r="G70" s="7">
         <f t="shared" si="2"/>
         <v>376018752.93014544</v>
       </c>
-      <c r="G70" s="8">
-        <f>E70/$B$5</f>
+      <c r="H70" s="8">
+        <f>F70/$C$5</f>
         <v>72748.117913832219</v>
       </c>
-      <c r="H70" s="8">
-        <f>E70/$B$6</f>
+      <c r="I70" s="8">
+        <f>F70/$C$6</f>
         <v>3637405.8956916113</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="6">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="6">
         <v>0.8</v>
       </c>
-      <c r="D71" s="4">
+      <c r="E71" s="4">
         <v>64</v>
       </c>
-      <c r="E71" s="7">
+      <c r="F71" s="7">
         <f t="shared" si="3"/>
         <v>374189569.16099775</v>
       </c>
-      <c r="F71" s="7">
+      <c r="G71" s="7">
         <f t="shared" si="2"/>
         <v>386820440.69385839</v>
       </c>
-      <c r="G71" s="8">
-        <f>E71/$B$5</f>
+      <c r="H71" s="8">
+        <f>F71/$C$5</f>
         <v>74837.913832199556</v>
       </c>
-      <c r="H71" s="8">
-        <f>E71/$B$6</f>
+      <c r="I71" s="8">
+        <f>F71/$C$6</f>
         <v>3741895.6916099773</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="6">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="6">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D72" s="4">
+      <c r="E72" s="4">
         <v>64</v>
       </c>
-      <c r="E72" s="7">
+      <c r="F72" s="7">
         <f t="shared" si="3"/>
         <v>389863038.54875267</v>
       </c>
-      <c r="F72" s="7">
+      <c r="G72" s="7">
         <f t="shared" si="2"/>
         <v>403022972.33942789</v>
       </c>
-      <c r="G72" s="8">
-        <f>E72/$B$5</f>
+      <c r="H72" s="8">
+        <f>F72/$C$5</f>
         <v>77972.607709750533</v>
       </c>
-      <c r="H72" s="8">
-        <f>E72/$B$6</f>
+      <c r="I72" s="8">
+        <f>F72/$C$6</f>
         <v>3898630.3854875267</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="6">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="6">
         <v>0.71111111111111103</v>
       </c>
-      <c r="D73" s="4">
+      <c r="E73" s="4">
         <v>64</v>
       </c>
-      <c r="E73" s="7">
+      <c r="F73" s="7">
         <f t="shared" si="3"/>
         <v>332393650.79365075</v>
       </c>
-      <c r="F73" s="7">
+      <c r="G73" s="7">
         <f t="shared" si="2"/>
         <v>343613689.63900602</v>
       </c>
-      <c r="G73" s="8">
-        <f>E73/$B$5</f>
+      <c r="H73" s="8">
+        <f>F73/$C$5</f>
         <v>66478.730158730148</v>
       </c>
-      <c r="H73" s="8">
-        <f>E73/$B$6</f>
+      <c r="I73" s="8">
+        <f>F73/$C$6</f>
         <v>3323936.5079365075</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-      <c r="B74" s="6"/>
-      <c r="E74" s="7"/>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="4"/>
+      <c r="C74" s="6"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="8"/>
+      <c r="G74" s="7"/>
       <c r="H74" s="8"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="6">
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="6">
         <v>0.75</v>
       </c>
-      <c r="D75" s="4">
+      <c r="E75" s="4">
         <v>128</v>
       </c>
-      <c r="E75" s="7">
+      <c r="F75" s="7">
         <f t="shared" si="3"/>
         <v>648425995.80712783</v>
       </c>
-      <c r="F75" s="7">
+      <c r="G75" s="7">
         <f t="shared" si="2"/>
         <v>690091923.2485497</v>
       </c>
-      <c r="G75" s="8">
-        <f t="shared" ref="G75:G82" si="10">E75/$B$5</f>
+      <c r="H75" s="8">
+        <f t="shared" ref="H75:H82" si="10">F75/$C$5</f>
         <v>129685.19916142557</v>
       </c>
-      <c r="H75" s="8">
-        <f t="shared" ref="H75:H82" si="11">E75/$B$6</f>
+      <c r="I75" s="8">
+        <f t="shared" ref="I75:I82" si="11">F75/$C$6</f>
         <v>6484259.9580712784</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="6">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="6">
         <v>0.77777777777777801</v>
       </c>
-      <c r="D76" s="4">
+      <c r="E76" s="4">
         <v>128</v>
       </c>
-      <c r="E76" s="7">
+      <c r="F76" s="7">
         <f t="shared" si="3"/>
         <v>672576939.20335448</v>
       </c>
-      <c r="F76" s="7">
+      <c r="G76" s="7">
         <f t="shared" si="2"/>
         <v>715794734.49352992</v>
       </c>
-      <c r="G76" s="8">
+      <c r="H76" s="8">
         <f t="shared" si="10"/>
         <v>134515.38784067088</v>
       </c>
-      <c r="H76" s="8">
+      <c r="I76" s="8">
         <f t="shared" si="11"/>
         <v>6725769.3920335444</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="6">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="6">
         <v>0.71111111111111103</v>
       </c>
-      <c r="D77" s="4">
+      <c r="E77" s="4">
         <v>128</v>
       </c>
-      <c r="E77" s="7">
-        <f t="shared" ref="E77:E140" si="12">$B$7/($B$11/D77+90+ROUNDUP(($B$11/D77/90/16-1),0)*0)*($B$11*(B77)-(16*12)-80)</f>
+      <c r="F77" s="7">
+        <f t="shared" ref="F77:F140" si="12">$C$7/($C$11/E77+90+ROUNDUP(($C$11/E77/90/16-1),0)*0)*($C$11*(C77)-(16*12)-80)</f>
         <v>614614675.05241084</v>
       </c>
-      <c r="F77" s="7">
-        <f t="shared" ref="F77:F140" si="13">$B$7/($B$11/D77+90+ROUNDUP(($B$11/D77/90/16-1),0)*36)*($B$11*(B77)-(16*12)-80)</f>
+      <c r="G77" s="7">
+        <f t="shared" ref="G77:G140" si="13">$C$7/($C$11/E77+90+ROUNDUP(($C$11/E77/90/16-1),0)*36)*($C$11*(C77)-(16*12)-80)</f>
         <v>654107987.5055778</v>
       </c>
-      <c r="G77" s="8">
+      <c r="H77" s="8">
         <f t="shared" si="10"/>
         <v>122922.93501048216</v>
       </c>
-      <c r="H77" s="8">
+      <c r="I77" s="8">
         <f t="shared" si="11"/>
         <v>6146146.7505241083</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="6">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="6">
         <v>0.75</v>
       </c>
-      <c r="D78" s="4">
+      <c r="E78" s="4">
         <v>128</v>
       </c>
-      <c r="E78" s="7">
+      <c r="F78" s="7">
         <f t="shared" si="12"/>
         <v>648425995.80712783</v>
       </c>
-      <c r="F78" s="7">
+      <c r="G78" s="7">
         <f t="shared" si="13"/>
         <v>690091923.2485497</v>
       </c>
-      <c r="G78" s="8">
+      <c r="H78" s="8">
         <f t="shared" si="10"/>
         <v>129685.19916142557</v>
       </c>
-      <c r="H78" s="8">
+      <c r="I78" s="8">
         <f t="shared" si="11"/>
         <v>6484259.9580712784</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="6">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="6">
         <v>0.64444444444444404</v>
       </c>
-      <c r="D79" s="4">
+      <c r="E79" s="4">
         <v>128</v>
       </c>
-      <c r="E79" s="7">
+      <c r="F79" s="7">
         <f t="shared" si="12"/>
         <v>556652410.90146708</v>
       </c>
-      <c r="F79" s="7">
+      <c r="G79" s="7">
         <f t="shared" si="13"/>
         <v>592421240.51762569</v>
       </c>
-      <c r="G79" s="8">
+      <c r="H79" s="8">
         <f t="shared" si="10"/>
         <v>111330.48218029342</v>
       </c>
-      <c r="H79" s="8">
+      <c r="I79" s="8">
         <f t="shared" si="11"/>
         <v>5566524.1090146713</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="6">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="6">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E80" s="4">
         <v>128</v>
       </c>
-      <c r="E80" s="7">
+      <c r="F80" s="7">
         <f t="shared" si="12"/>
         <v>575973165.61844897</v>
       </c>
-      <c r="F80" s="7">
+      <c r="G80" s="7">
         <f t="shared" si="13"/>
         <v>612983489.51361024</v>
       </c>
-      <c r="G80" s="8">
+      <c r="H80" s="8">
         <f t="shared" si="10"/>
         <v>115194.6331236898</v>
       </c>
-      <c r="H80" s="8">
+      <c r="I80" s="8">
         <f t="shared" si="11"/>
         <v>5759731.6561844898</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="6">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="6">
         <v>0.68888888888888899</v>
       </c>
-      <c r="D81" s="4">
+      <c r="E81" s="4">
         <v>128</v>
       </c>
-      <c r="E81" s="7">
+      <c r="F81" s="7">
         <f t="shared" si="12"/>
         <v>595293920.33542991</v>
       </c>
-      <c r="F81" s="7">
+      <c r="G81" s="7">
         <f t="shared" si="13"/>
         <v>633545738.50959408</v>
       </c>
-      <c r="G81" s="8">
+      <c r="H81" s="8">
         <f t="shared" si="10"/>
         <v>119058.78406708599</v>
       </c>
-      <c r="H81" s="8">
+      <c r="I81" s="8">
         <f t="shared" si="11"/>
         <v>5952939.2033542991</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="6">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="6">
         <v>0.73333333333333295</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <v>128</v>
       </c>
-      <c r="E82" s="7">
+      <c r="F82" s="7">
         <f t="shared" si="12"/>
         <v>633935429.76939178</v>
       </c>
-      <c r="F82" s="7">
+      <c r="G82" s="7">
         <f t="shared" si="13"/>
         <v>674670236.50156152</v>
       </c>
-      <c r="G82" s="8">
+      <c r="H82" s="8">
         <f t="shared" si="10"/>
         <v>126787.08595387836</v>
       </c>
-      <c r="H82" s="8">
+      <c r="I82" s="8">
         <f t="shared" si="11"/>
         <v>6339354.2976939175</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="6"/>
-      <c r="E83" s="7"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="4"/>
+      <c r="C83" s="6"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="8"/>
+      <c r="G83" s="7"/>
       <c r="H83" s="8"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E84" s="7"/>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F84" s="7"/>
-      <c r="G84" s="8"/>
+      <c r="G84" s="7"/>
       <c r="H84" s="8"/>
-    </row>
-    <row r="85" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="5">
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="5">
         <v>16200</v>
       </c>
-      <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="8"/>
+      <c r="G85" s="7"/>
       <c r="H85" s="8"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="10">
+      <c r="C86" s="10">
         <v>0.2</v>
       </c>
-      <c r="D86" s="4">
+      <c r="E86" s="4">
         <v>4</v>
       </c>
-      <c r="E86" s="7">
+      <c r="F86" s="7">
         <f t="shared" si="12"/>
         <v>6231062.0012277476</v>
       </c>
-      <c r="F86" s="7">
+      <c r="G86" s="7">
         <f t="shared" si="13"/>
         <v>6083183.5071317274</v>
       </c>
-      <c r="G86" s="8">
-        <f t="shared" ref="G86:G101" si="14">E86/$B$5</f>
+      <c r="H86" s="8">
+        <f t="shared" ref="H86:H101" si="14">F86/$C$5</f>
         <v>1246.2124002455496</v>
       </c>
-      <c r="H86" s="8">
-        <f t="shared" ref="H86:H101" si="15">E86/$B$6</f>
+      <c r="I86" s="8">
+        <f t="shared" ref="I86:I101" si="15">F86/$C$6</f>
         <v>62310.620012277475</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B87" s="10">
+      <c r="C87" s="10">
         <v>0.33333333333333298</v>
       </c>
-      <c r="D87" s="4">
+      <c r="E87" s="4">
         <v>4</v>
       </c>
-      <c r="E87" s="7">
+      <c r="F87" s="7">
         <f t="shared" si="12"/>
         <v>10474155.92387967</v>
       </c>
-      <c r="F87" s="7">
+      <c r="G87" s="7">
         <f t="shared" si="13"/>
         <v>10225578.32913819</v>
       </c>
-      <c r="G87" s="8">
+      <c r="H87" s="8">
         <f t="shared" si="14"/>
         <v>2094.8311847759342</v>
       </c>
-      <c r="H87" s="8">
+      <c r="I87" s="8">
         <f t="shared" si="15"/>
         <v>104741.5592387967</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="10">
+      <c r="C88" s="10">
         <v>0.4</v>
       </c>
-      <c r="D88" s="4">
+      <c r="E88" s="4">
         <v>4</v>
       </c>
-      <c r="E88" s="7">
+      <c r="F88" s="7">
         <f t="shared" si="12"/>
         <v>12595702.885205649</v>
       </c>
-      <c r="F88" s="7">
+      <c r="G88" s="7">
         <f t="shared" si="13"/>
         <v>12296775.740141436</v>
       </c>
-      <c r="G88" s="8">
+      <c r="H88" s="8">
         <f t="shared" si="14"/>
         <v>2519.1405770411297</v>
       </c>
-      <c r="H88" s="8">
+      <c r="I88" s="8">
         <f t="shared" si="15"/>
         <v>125957.02885205649</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B89" s="10">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="D89" s="4">
+      <c r="C89" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E89" s="4">
         <v>4</v>
       </c>
-      <c r="E89" s="7">
+      <c r="F89" s="7">
         <f t="shared" si="12"/>
-        <v>14010067.526089612</v>
-      </c>
-      <c r="F89" s="7">
+        <v>15778023.327194599</v>
+      </c>
+      <c r="G89" s="7">
         <f t="shared" si="13"/>
-        <v>13677574.014143581</v>
-      </c>
-      <c r="G89" s="8">
+        <v>15403571.85664629</v>
+      </c>
+      <c r="H89" s="8">
         <f t="shared" si="14"/>
-        <v>2802.0135052179226</v>
-      </c>
-      <c r="H89" s="8">
+        <v>3155.6046654389197</v>
+      </c>
+      <c r="I89" s="8">
         <f t="shared" si="15"/>
-        <v>140100.67526089613</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+        <v>157780.233271946</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B90" s="10">
+      <c r="C90" s="10">
         <v>0.6</v>
       </c>
-      <c r="D90" s="4">
+      <c r="E90" s="4">
         <v>4</v>
       </c>
-      <c r="E90" s="7">
+      <c r="F90" s="7">
         <f t="shared" si="12"/>
         <v>18960343.76918355</v>
       </c>
-      <c r="F90" s="7">
+      <c r="G90" s="7">
         <f t="shared" si="13"/>
         <v>18510367.973151144</v>
       </c>
-      <c r="G90" s="8">
+      <c r="H90" s="8">
         <f t="shared" si="14"/>
         <v>3792.0687538367101</v>
       </c>
-      <c r="H90" s="8">
+      <c r="I90" s="8">
         <f t="shared" si="15"/>
         <v>189603.43769183551</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="10">
+      <c r="C91" s="10">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D91" s="4">
+      <c r="E91" s="4">
         <v>4</v>
       </c>
-      <c r="E91" s="7">
+      <c r="F91" s="7">
         <f t="shared" si="12"/>
         <v>21081890.730509527</v>
       </c>
-      <c r="F91" s="7">
+      <c r="G91" s="7">
         <f t="shared" si="13"/>
         <v>20581565.384154391</v>
       </c>
-      <c r="G91" s="8">
+      <c r="H91" s="8">
         <f t="shared" si="14"/>
         <v>4216.3781461019053</v>
       </c>
-      <c r="H91" s="8">
+      <c r="I91" s="8">
         <f t="shared" si="15"/>
         <v>210818.90730509526</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B92" s="10">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="D92" s="4">
+      <c r="C92" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E92" s="4">
         <v>4</v>
       </c>
-      <c r="E92" s="7">
+      <c r="F92" s="7">
         <f t="shared" si="12"/>
-        <v>23203437.69183547</v>
-      </c>
-      <c r="F92" s="7">
+        <v>23733824.432166975</v>
+      </c>
+      <c r="G92" s="7">
         <f t="shared" si="13"/>
-        <v>22652762.795157608</v>
-      </c>
-      <c r="G92" s="8">
+        <v>23170562.147908427</v>
+      </c>
+      <c r="H92" s="8">
         <f t="shared" si="14"/>
-        <v>4640.687538367094</v>
-      </c>
-      <c r="H92" s="8">
+        <v>4746.7648864333951</v>
+      </c>
+      <c r="I92" s="8">
         <f t="shared" si="15"/>
-        <v>232034.37691835471</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+        <v>237338.24432166974</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B93" s="10">
-        <v>0.77777777777777801</v>
-      </c>
-      <c r="D93" s="4">
+      <c r="C93" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E93" s="4">
         <v>4</v>
       </c>
-      <c r="E93" s="7">
+      <c r="F93" s="7">
         <f t="shared" si="12"/>
-        <v>24617802.332719468</v>
-      </c>
-      <c r="F93" s="7">
+        <v>25324984.653161451</v>
+      </c>
+      <c r="G93" s="7">
         <f t="shared" si="13"/>
-        <v>24033561.069159783</v>
-      </c>
-      <c r="G93" s="8">
+        <v>24723960.206160855</v>
+      </c>
+      <c r="H93" s="8">
         <f t="shared" si="14"/>
-        <v>4923.5604665438932</v>
-      </c>
-      <c r="H93" s="8">
+        <v>5064.9969306322901</v>
+      </c>
+      <c r="I93" s="8">
         <f t="shared" si="15"/>
-        <v>246178.02332719468</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+        <v>253249.84653161452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B94" s="10">
-        <v>0.82222222222222197</v>
-      </c>
-      <c r="D94" s="4">
+      <c r="C94" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E94" s="4">
         <v>4</v>
       </c>
-      <c r="E94" s="7">
+      <c r="F94" s="7">
         <f t="shared" si="12"/>
-        <v>26032166.973603431</v>
-      </c>
-      <c r="F94" s="7">
+        <v>26385758.133824434</v>
+      </c>
+      <c r="G94" s="7">
         <f t="shared" si="13"/>
-        <v>25414359.343161926</v>
-      </c>
-      <c r="G94" s="8">
+        <v>25759558.911662471</v>
+      </c>
+      <c r="H94" s="8">
         <f t="shared" si="14"/>
-        <v>5206.433394720686</v>
-      </c>
-      <c r="H94" s="8">
+        <v>5277.1516267648867</v>
+      </c>
+      <c r="I94" s="8">
         <f t="shared" si="15"/>
-        <v>260321.66973603432</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+        <v>263857.58133824432</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>10</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B95" s="10">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="D95" s="4">
+      <c r="C95" s="10">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E95" s="4">
         <v>4</v>
       </c>
-      <c r="E95" s="7">
+      <c r="F95" s="7">
         <f t="shared" si="12"/>
-        <v>28153713.934929408</v>
-      </c>
-      <c r="F95" s="7">
+        <v>28153713.934929404</v>
+      </c>
+      <c r="G95" s="7">
         <f t="shared" si="13"/>
-        <v>27485556.754165173</v>
-      </c>
-      <c r="G95" s="8">
+        <v>27485556.754165169</v>
+      </c>
+      <c r="H95" s="8">
         <f t="shared" si="14"/>
-        <v>5630.742786985882</v>
-      </c>
-      <c r="H95" s="8">
+        <v>5630.7427869858811</v>
+      </c>
+      <c r="I95" s="8">
         <f t="shared" si="15"/>
         <v>281537.13934929407</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" s="10">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>216</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" s="10">
         <v>0.24444444444444399</v>
       </c>
-      <c r="D96" s="4">
+      <c r="E96" s="4">
         <v>4</v>
       </c>
-      <c r="E96" s="7">
+      <c r="F96" s="7">
         <f t="shared" si="12"/>
         <v>7645426.6421117112</v>
       </c>
-      <c r="F96" s="7">
+      <c r="G96" s="7">
         <f t="shared" si="13"/>
         <v>7463981.7811338706</v>
       </c>
-      <c r="G96" s="8">
+      <c r="H96" s="8">
         <f t="shared" si="14"/>
         <v>1529.0853284223422</v>
       </c>
-      <c r="H96" s="8">
+      <c r="I96" s="8">
         <f t="shared" si="15"/>
         <v>76454.266421117107</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B97" s="10">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>218</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="10">
         <v>0.266666666666667</v>
       </c>
-      <c r="D97" s="4">
+      <c r="E97" s="4">
         <v>4</v>
       </c>
-      <c r="E97" s="7">
+      <c r="F97" s="7">
         <f t="shared" si="12"/>
         <v>8352608.9625537246</v>
       </c>
-      <c r="F97" s="7">
+      <c r="G97" s="7">
         <f t="shared" si="13"/>
         <v>8154380.9181349743</v>
       </c>
-      <c r="G97" s="8">
+      <c r="H97" s="8">
         <f t="shared" si="14"/>
         <v>1670.5217925107449</v>
       </c>
-      <c r="H97" s="8">
+      <c r="I97" s="8">
         <f t="shared" si="15"/>
         <v>83526.08962553725</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B98" s="10">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>220</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="10">
         <v>0.31111111111111101</v>
       </c>
-      <c r="D98" s="4">
+      <c r="E98" s="4">
         <v>4</v>
       </c>
-      <c r="E98" s="7">
+      <c r="F98" s="7">
         <f t="shared" si="12"/>
         <v>9766973.6034376882</v>
       </c>
-      <c r="F98" s="7">
+      <c r="G98" s="7">
         <f t="shared" si="13"/>
         <v>9535179.1921371184</v>
       </c>
-      <c r="G98" s="8">
+      <c r="H98" s="8">
         <f t="shared" si="14"/>
         <v>1953.3947206875375</v>
       </c>
-      <c r="H98" s="8">
+      <c r="I98" s="8">
         <f t="shared" si="15"/>
         <v>97669.736034376881</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B99" s="10">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>222</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="10">
         <v>0.46666666666666701</v>
       </c>
-      <c r="D99" s="4">
+      <c r="E99" s="4">
         <v>4</v>
       </c>
-      <c r="E99" s="7">
+      <c r="F99" s="7">
         <f t="shared" si="12"/>
         <v>14717249.846531626</v>
       </c>
-      <c r="F99" s="7">
+      <c r="G99" s="7">
         <f t="shared" si="13"/>
         <v>14367973.151144683</v>
       </c>
-      <c r="G99" s="8">
+      <c r="H99" s="8">
         <f t="shared" si="14"/>
         <v>2943.4499693063253</v>
       </c>
-      <c r="H99" s="8">
+      <c r="I99" s="8">
         <f t="shared" si="15"/>
         <v>147172.49846531625</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B100" s="10">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>224</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="10">
         <v>0.53333333333333299</v>
       </c>
-      <c r="D100" s="4">
+      <c r="E100" s="4">
         <v>4</v>
       </c>
-      <c r="E100" s="7">
+      <c r="F100" s="7">
         <f t="shared" si="12"/>
         <v>16838796.807857573</v>
       </c>
-      <c r="F100" s="7">
+      <c r="G100" s="7">
         <f t="shared" si="13"/>
         <v>16439170.562147899</v>
       </c>
-      <c r="G100" s="8">
+      <c r="H100" s="8">
         <f t="shared" si="14"/>
         <v>3367.7593615715145</v>
       </c>
-      <c r="H100" s="8">
+      <c r="I100" s="8">
         <f t="shared" si="15"/>
         <v>168387.96807857574</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" s="10">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>226</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="10">
         <v>0.71111111111111103</v>
       </c>
-      <c r="D101" s="4">
+      <c r="E101" s="4">
         <v>4</v>
       </c>
-      <c r="E101" s="7">
+      <c r="F101" s="7">
         <f t="shared" si="12"/>
         <v>22496255.371393491</v>
       </c>
-      <c r="F101" s="7">
+      <c r="G101" s="7">
         <f t="shared" si="13"/>
         <v>21962363.658156537</v>
       </c>
-      <c r="G101" s="8">
+      <c r="H101" s="8">
         <f t="shared" si="14"/>
         <v>4499.2510742786981</v>
       </c>
-      <c r="H101" s="8">
+      <c r="I101" s="8">
         <f t="shared" si="15"/>
         <v>224962.5537139349</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="10"/>
-      <c r="E102" s="7"/>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C102" s="10"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="8"/>
+      <c r="G102" s="7"/>
       <c r="H102" s="8"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" s="10">
+      <c r="I102" s="8"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>12</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="10">
         <v>0.6</v>
       </c>
-      <c r="D103" s="4">
+      <c r="E103" s="4">
         <v>8</v>
       </c>
-      <c r="E103" s="7">
+      <c r="F103" s="7">
         <f t="shared" si="12"/>
         <v>37712332.112332113</v>
       </c>
-      <c r="F103" s="7">
+      <c r="G103" s="7">
         <f t="shared" si="13"/>
         <v>36901314.21744325</v>
       </c>
-      <c r="G103" s="8">
-        <f t="shared" ref="G103:G111" si="16">E103/$B$5</f>
+      <c r="H103" s="8">
+        <f t="shared" ref="H103:H111" si="16">F103/$C$5</f>
         <v>7542.466422466423</v>
       </c>
-      <c r="H103" s="8">
-        <f t="shared" ref="H103:H111" si="17">E103/$B$6</f>
+      <c r="I103" s="8">
+        <f t="shared" ref="I103:I111" si="17">F103/$C$6</f>
         <v>377123.32112332113</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104" s="10">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="10">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D104" s="4">
+      <c r="E104" s="4">
         <v>8</v>
       </c>
-      <c r="E104" s="7">
+      <c r="F104" s="7">
         <f t="shared" si="12"/>
         <v>41932112.332112357</v>
       </c>
-      <c r="F104" s="7">
+      <c r="G104" s="7">
         <f t="shared" si="13"/>
         <v>41030346.475507788</v>
       </c>
-      <c r="G104" s="8">
+      <c r="H104" s="8">
         <f t="shared" si="16"/>
         <v>8386.4224664224712</v>
       </c>
-      <c r="H104" s="8">
+      <c r="I104" s="8">
         <f t="shared" si="17"/>
         <v>419321.1233211236</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B105" s="10">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>14</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="10">
         <v>0.73333333333333295</v>
       </c>
-      <c r="D105" s="4">
+      <c r="E105" s="4">
         <v>8</v>
       </c>
-      <c r="E105" s="7">
+      <c r="F105" s="7">
         <f t="shared" si="12"/>
         <v>46151892.551892534</v>
       </c>
-      <c r="F105" s="7">
+      <c r="G105" s="7">
         <f t="shared" si="13"/>
         <v>45159378.73357226</v>
       </c>
-      <c r="G105" s="8">
+      <c r="H105" s="8">
         <f t="shared" si="16"/>
         <v>9230.3785103785067</v>
       </c>
-      <c r="H105" s="8">
+      <c r="I105" s="8">
         <f t="shared" si="17"/>
         <v>461518.92551892536</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B106" s="10">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>15</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="10">
         <v>0.82222222222222197</v>
       </c>
-      <c r="D106" s="4">
+      <c r="E106" s="4">
         <v>8</v>
       </c>
-      <c r="E106" s="7">
+      <c r="F106" s="7">
         <f t="shared" si="12"/>
         <v>51778266.178266168</v>
       </c>
-      <c r="F106" s="7">
+      <c r="G106" s="7">
         <f t="shared" si="13"/>
         <v>50664755.077658288</v>
       </c>
-      <c r="G106" s="8">
+      <c r="H106" s="8">
         <f t="shared" si="16"/>
         <v>10355.653235653233</v>
       </c>
-      <c r="H106" s="8">
+      <c r="I106" s="8">
         <f t="shared" si="17"/>
         <v>517782.66178266169</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" s="10">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>16</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" s="10">
         <v>0.88888888888888895</v>
       </c>
-      <c r="D107" s="4">
+      <c r="E107" s="4">
         <v>8</v>
       </c>
-      <c r="E107" s="7">
+      <c r="F107" s="7">
         <f t="shared" si="12"/>
         <v>55998046.398046412</v>
       </c>
-      <c r="F107" s="7">
+      <c r="G107" s="7">
         <f t="shared" si="13"/>
         <v>54793787.335722826</v>
       </c>
-      <c r="G107" s="8">
+      <c r="H107" s="8">
         <f t="shared" si="16"/>
         <v>11199.609279609282</v>
       </c>
-      <c r="H107" s="8">
+      <c r="I107" s="8">
         <f t="shared" si="17"/>
         <v>559980.46398046415</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B108" s="10">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>228</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C108" s="10">
         <v>0.46666666666666701</v>
       </c>
-      <c r="D108" s="4">
+      <c r="E108" s="4">
         <v>8</v>
       </c>
-      <c r="E108" s="7">
+      <c r="F108" s="7">
         <f t="shared" si="12"/>
         <v>29272771.672771696</v>
       </c>
-      <c r="F108" s="7">
+      <c r="G108" s="7">
         <f t="shared" si="13"/>
         <v>28643249.701314237</v>
       </c>
-      <c r="G108" s="8">
+      <c r="H108" s="8">
         <f t="shared" si="16"/>
         <v>5854.5543345543392</v>
       </c>
-      <c r="H108" s="8">
+      <c r="I108" s="8">
         <f t="shared" si="17"/>
         <v>292727.71672771696</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B109" s="10">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>230</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C109" s="10">
         <v>0.53333333333333299</v>
       </c>
-      <c r="D109" s="4">
+      <c r="E109" s="4">
         <v>8</v>
       </c>
-      <c r="E109" s="7">
+      <c r="F109" s="7">
         <f t="shared" si="12"/>
         <v>33492551.892551873</v>
       </c>
-      <c r="F109" s="7">
+      <c r="G109" s="7">
         <f t="shared" si="13"/>
         <v>32772281.959378712</v>
       </c>
-      <c r="G109" s="8">
+      <c r="H109" s="8">
         <f t="shared" si="16"/>
         <v>6698.5103785103747</v>
       </c>
-      <c r="H109" s="8">
+      <c r="I109" s="8">
         <f t="shared" si="17"/>
         <v>334925.51892551873</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B110" s="10">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>232</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" s="10">
         <v>0.57777777777777795</v>
       </c>
-      <c r="D110" s="4">
+      <c r="E110" s="4">
         <v>8</v>
       </c>
-      <c r="E110" s="7">
+      <c r="F110" s="7">
         <f t="shared" si="12"/>
         <v>36305738.705738716</v>
       </c>
-      <c r="F110" s="7">
+      <c r="G110" s="7">
         <f t="shared" si="13"/>
         <v>35524970.131421752</v>
       </c>
-      <c r="G110" s="8">
+      <c r="H110" s="8">
         <f t="shared" si="16"/>
         <v>7261.1477411477435</v>
       </c>
-      <c r="H110" s="8">
+      <c r="I110" s="8">
         <f t="shared" si="17"/>
         <v>363057.38705738715</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B111" s="10">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>234</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" s="10">
         <v>0.71111111111111103</v>
       </c>
-      <c r="D111" s="4">
+      <c r="E111" s="4">
         <v>8</v>
       </c>
-      <c r="E111" s="7">
+      <c r="F111" s="7">
         <f t="shared" si="12"/>
         <v>44745299.145299144</v>
       </c>
-      <c r="F111" s="7">
+      <c r="G111" s="7">
         <f t="shared" si="13"/>
         <v>43783034.647550769</v>
       </c>
-      <c r="G111" s="8">
+      <c r="H111" s="8">
         <f t="shared" si="16"/>
         <v>8949.0598290598282</v>
       </c>
-      <c r="H111" s="8">
+      <c r="I111" s="8">
         <f t="shared" si="17"/>
         <v>447452.99145299144</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="10"/>
-      <c r="E112" s="7"/>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C112" s="10"/>
       <c r="F112" s="7"/>
-      <c r="G112" s="8"/>
+      <c r="G112" s="7"/>
       <c r="H112" s="8"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B113" s="10">
+      <c r="I112" s="8"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="10">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D113" s="4">
+      <c r="E113" s="4">
         <v>16</v>
       </c>
-      <c r="E113" s="7">
+      <c r="F113" s="7">
         <f t="shared" si="12"/>
         <v>82952657.004830956</v>
       </c>
-      <c r="F113" s="7">
+      <c r="G113" s="7">
         <f t="shared" si="13"/>
         <v>81534662.867996246</v>
       </c>
-      <c r="G113" s="8">
-        <f t="shared" ref="G113:G122" si="18">E113/$B$5</f>
+      <c r="H113" s="8">
+        <f t="shared" ref="H113:H122" si="18">F113/$C$5</f>
         <v>16590.531400966192</v>
       </c>
-      <c r="H113" s="8">
-        <f t="shared" ref="H113:H122" si="19">E113/$B$6</f>
+      <c r="I113" s="8">
+        <f t="shared" ref="I113:I122" si="19">F113/$C$6</f>
         <v>829526.57004830951</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B114" s="10">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="10">
         <v>0.73333333333333295</v>
       </c>
-      <c r="D114" s="4">
+      <c r="E114" s="4">
         <v>16</v>
       </c>
-      <c r="E114" s="7">
+      <c r="F114" s="7">
         <f t="shared" si="12"/>
         <v>91300483.091787398</v>
       </c>
-      <c r="F114" s="7">
+      <c r="G114" s="7">
         <f t="shared" si="13"/>
         <v>89739791.073124364</v>
       </c>
-      <c r="G114" s="8">
+      <c r="H114" s="8">
         <f t="shared" si="18"/>
         <v>18260.096618357478</v>
       </c>
-      <c r="H114" s="8">
+      <c r="I114" s="8">
         <f t="shared" si="19"/>
         <v>913004.830917874</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B115" s="10">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="10">
         <v>0.77777777777777801</v>
       </c>
-      <c r="D115" s="4">
+      <c r="E115" s="4">
         <v>16</v>
       </c>
-      <c r="E115" s="7">
+      <c r="F115" s="7">
         <f t="shared" si="12"/>
         <v>96865700.483091816</v>
       </c>
-      <c r="F115" s="7">
+      <c r="G115" s="7">
         <f t="shared" si="13"/>
         <v>95209876.54320991</v>
       </c>
-      <c r="G115" s="8">
+      <c r="H115" s="8">
         <f t="shared" si="18"/>
         <v>19373.140096618365</v>
       </c>
-      <c r="H115" s="8">
+      <c r="I115" s="8">
         <f t="shared" si="19"/>
         <v>968657.00483091816</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B116" s="10">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" s="10">
         <v>0.82222222222222197</v>
       </c>
-      <c r="D116" s="4">
+      <c r="E116" s="4">
         <v>16</v>
       </c>
-      <c r="E116" s="7">
+      <c r="F116" s="7">
         <f t="shared" si="12"/>
         <v>102430917.87439612</v>
       </c>
-      <c r="F116" s="7">
+      <c r="G116" s="7">
         <f t="shared" si="13"/>
         <v>100679962.01329532</v>
       </c>
-      <c r="G116" s="8">
+      <c r="H116" s="8">
         <f t="shared" si="18"/>
         <v>20486.183574879222</v>
       </c>
-      <c r="H116" s="8">
+      <c r="I116" s="8">
         <f t="shared" si="19"/>
         <v>1024309.1787439612</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B117" s="10">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C117" s="10">
         <v>0.88888888888888895</v>
       </c>
-      <c r="D117" s="4">
+      <c r="E117" s="4">
         <v>16</v>
       </c>
-      <c r="E117" s="7">
+      <c r="F117" s="7">
         <f t="shared" si="12"/>
         <v>110778743.96135268</v>
       </c>
-      <c r="F117" s="7">
+      <c r="G117" s="7">
         <f t="shared" si="13"/>
         <v>108885090.21842358</v>
       </c>
-      <c r="G117" s="8">
+      <c r="H117" s="8">
         <f t="shared" si="18"/>
         <v>22155.748792270537</v>
       </c>
-      <c r="H117" s="8">
+      <c r="I117" s="8">
         <f t="shared" si="19"/>
         <v>1107787.4396135267</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B118" s="10">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" s="10">
         <v>0.46666666666666701</v>
       </c>
-      <c r="D118" s="4">
+      <c r="E118" s="4">
         <v>16</v>
       </c>
-      <c r="E118" s="7">
+      <c r="F118" s="7">
         <f t="shared" si="12"/>
         <v>57909178.743961394</v>
       </c>
-      <c r="F118" s="7">
+      <c r="G118" s="7">
         <f t="shared" si="13"/>
         <v>56919278.25261163</v>
       </c>
-      <c r="G118" s="8">
+      <c r="H118" s="8">
         <f t="shared" si="18"/>
         <v>11581.835748792279</v>
       </c>
-      <c r="H118" s="8">
+      <c r="I118" s="8">
         <f t="shared" si="19"/>
         <v>579091.78743961395</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B119" s="10">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C119" s="10">
         <v>0.53333333333333299</v>
       </c>
-      <c r="D119" s="4">
+      <c r="E119" s="4">
         <v>16</v>
       </c>
-      <c r="E119" s="7">
+      <c r="F119" s="7">
         <f t="shared" si="12"/>
         <v>66257004.830917835</v>
       </c>
-      <c r="F119" s="7">
+      <c r="G119" s="7">
         <f t="shared" si="13"/>
         <v>65124406.457739748</v>
       </c>
-      <c r="G119" s="8">
+      <c r="H119" s="8">
         <f t="shared" si="18"/>
         <v>13251.400966183566</v>
       </c>
-      <c r="H119" s="8">
+      <c r="I119" s="8">
         <f t="shared" si="19"/>
         <v>662570.04830917832</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B120" s="10">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C120" s="10">
         <v>0.57777777777777795</v>
       </c>
-      <c r="D120" s="4">
+      <c r="E120" s="4">
         <v>16</v>
       </c>
-      <c r="E120" s="7">
+      <c r="F120" s="7">
         <f t="shared" si="12"/>
         <v>71822222.222222239</v>
       </c>
-      <c r="F120" s="7">
+      <c r="G120" s="7">
         <f t="shared" si="13"/>
         <v>70594491.927825272</v>
       </c>
-      <c r="G120" s="8">
+      <c r="H120" s="8">
         <f t="shared" si="18"/>
         <v>14364.444444444447</v>
       </c>
-      <c r="H120" s="8">
+      <c r="I120" s="8">
         <f t="shared" si="19"/>
         <v>718222.22222222236</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B121" s="10">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" s="10">
         <v>0.6</v>
       </c>
-      <c r="D121" s="4">
+      <c r="E121" s="4">
         <v>16</v>
       </c>
-      <c r="E121" s="7">
+      <c r="F121" s="7">
         <f t="shared" si="12"/>
         <v>74604830.917874396</v>
       </c>
-      <c r="F121" s="7">
+      <c r="G121" s="7">
         <f t="shared" si="13"/>
         <v>73329534.662867993</v>
       </c>
-      <c r="G121" s="8">
+      <c r="H121" s="8">
         <f t="shared" si="18"/>
         <v>14920.966183574879</v>
       </c>
-      <c r="H121" s="8">
+      <c r="I121" s="8">
         <f t="shared" si="19"/>
         <v>746048.30917874398</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B122" s="10">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" s="10">
         <v>0.71111111111111103</v>
       </c>
-      <c r="D122" s="4">
+      <c r="E122" s="4">
         <v>16</v>
       </c>
-      <c r="E122" s="7">
+      <c r="F122" s="7">
         <f t="shared" si="12"/>
         <v>88517874.396135256</v>
       </c>
-      <c r="F122" s="7">
+      <c r="G122" s="7">
         <f t="shared" si="13"/>
         <v>87004748.338081658</v>
       </c>
-      <c r="G122" s="8">
+      <c r="H122" s="8">
         <f t="shared" si="18"/>
         <v>17703.57487922705</v>
       </c>
-      <c r="H122" s="8">
+      <c r="I122" s="8">
         <f t="shared" si="19"/>
         <v>885178.74396135251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
-      <c r="B123" s="10"/>
-      <c r="E123" s="7"/>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="4"/>
+      <c r="C123" s="10"/>
       <c r="F123" s="7"/>
-      <c r="G123" s="8"/>
+      <c r="G123" s="7"/>
       <c r="H123" s="8"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B124" s="10">
+      <c r="I123" s="8"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="10">
         <v>0.73333333333333295</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>32</v>
       </c>
-      <c r="E124" s="7">
+      <c r="F124" s="7">
         <f t="shared" si="12"/>
         <v>178715839.24349874</v>
       </c>
-      <c r="F124" s="7">
+      <c r="G124" s="7">
         <f t="shared" si="13"/>
         <v>175724779.17247784</v>
       </c>
-      <c r="G124" s="8">
-        <f t="shared" ref="G124:G129" si="20">E124/$B$5</f>
+      <c r="H124" s="8">
+        <f t="shared" ref="H124:H129" si="20">F124/$C$5</f>
         <v>35743.167848699748</v>
       </c>
-      <c r="H124" s="8">
-        <f t="shared" ref="H124:H129" si="21">E124/$B$6</f>
+      <c r="I124" s="8">
+        <f t="shared" ref="I124:I129" si="21">F124/$C$6</f>
         <v>1787158.3924349875</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B125" s="10">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" s="10">
         <v>0.77777777777777801</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>32</v>
       </c>
-      <c r="E125" s="7">
+      <c r="F125" s="7">
         <f t="shared" si="12"/>
         <v>189609456.26477548</v>
       </c>
-      <c r="F125" s="7">
+      <c r="G125" s="7">
         <f t="shared" si="13"/>
         <v>186436076.24360767</v>
       </c>
-      <c r="G125" s="8">
+      <c r="H125" s="8">
         <f t="shared" si="20"/>
         <v>37921.891252955094</v>
       </c>
-      <c r="H125" s="8">
+      <c r="I125" s="8">
         <f t="shared" si="21"/>
         <v>1896094.5626477548</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B126" s="10">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="10">
         <v>0.82222222222222197</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>32</v>
       </c>
-      <c r="E126" s="7">
+      <c r="F126" s="7">
         <f t="shared" si="12"/>
         <v>200503073.28605196</v>
       </c>
-      <c r="F126" s="7">
+      <c r="G126" s="7">
         <f t="shared" si="13"/>
         <v>197147373.31473726</v>
       </c>
-      <c r="G126" s="8">
+      <c r="H126" s="8">
         <f t="shared" si="20"/>
         <v>40100.61465721039</v>
       </c>
-      <c r="H126" s="8">
+      <c r="I126" s="8">
         <f t="shared" si="21"/>
         <v>2005030.7328605196</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B127" s="10">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127" s="10">
         <v>0.88888888888888895</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>32</v>
       </c>
-      <c r="E127" s="7">
+      <c r="F127" s="7">
         <f t="shared" si="12"/>
         <v>216843498.81796694</v>
       </c>
-      <c r="F127" s="7">
+      <c r="G127" s="7">
         <f t="shared" si="13"/>
         <v>213214318.9214319</v>
       </c>
-      <c r="G127" s="8">
+      <c r="H127" s="8">
         <f t="shared" si="20"/>
         <v>43368.699763593388</v>
       </c>
-      <c r="H127" s="8">
+      <c r="I127" s="8">
         <f t="shared" si="21"/>
         <v>2168434.9881796692</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B128" s="10">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" s="10">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>32</v>
       </c>
-      <c r="E128" s="7">
+      <c r="F128" s="7">
         <f t="shared" si="12"/>
         <v>162375413.711584</v>
       </c>
-      <c r="F128" s="7">
+      <c r="G128" s="7">
         <f t="shared" si="13"/>
         <v>159657833.56578344</v>
       </c>
-      <c r="G128" s="8">
+      <c r="H128" s="8">
         <f t="shared" si="20"/>
         <v>32475.082742316801</v>
       </c>
-      <c r="H128" s="8">
+      <c r="I128" s="8">
         <f t="shared" si="21"/>
         <v>1623754.1371158401</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B129" s="10">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C129" s="10">
         <v>0.71111111111111103</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>32</v>
       </c>
-      <c r="E129" s="7">
+      <c r="F129" s="7">
         <f t="shared" si="12"/>
         <v>173269030.73286051</v>
       </c>
-      <c r="F129" s="7">
+      <c r="G129" s="7">
         <f t="shared" si="13"/>
         <v>170369130.63691303</v>
       </c>
-      <c r="G129" s="8">
+      <c r="H129" s="8">
         <f t="shared" si="20"/>
         <v>34653.806146572104</v>
       </c>
-      <c r="H129" s="8">
+      <c r="I129" s="8">
         <f t="shared" si="21"/>
         <v>1732690.3073286051</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="10"/>
-      <c r="E130" s="7"/>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B130" s="4"/>
+      <c r="C130" s="10"/>
       <c r="F130" s="7"/>
-      <c r="G130" s="8"/>
+      <c r="G130" s="7"/>
       <c r="H130" s="8"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="4"/>
-      <c r="B131" s="10"/>
-      <c r="E131" s="7"/>
+      <c r="I130" s="8"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B131" s="4"/>
+      <c r="C131" s="10"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="8"/>
+      <c r="G131" s="7"/>
       <c r="H131" s="8"/>
-    </row>
-    <row r="132" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
+      <c r="I131" s="8"/>
+    </row>
+    <row r="132" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132" s="11"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="5">
+        <v>64800</v>
+      </c>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B134" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B132" s="11"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="5">
-        <v>64800</v>
-      </c>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B134" s="10">
+      <c r="C134" s="10">
         <v>0.22222222222222199</v>
       </c>
-      <c r="D134" s="4">
+      <c r="E134" s="4">
         <v>4</v>
       </c>
-      <c r="E134" s="7">
+      <c r="F134" s="7">
         <f t="shared" si="12"/>
         <v>6938244.3216697294</v>
       </c>
-      <c r="F134" s="7">
+      <c r="G134" s="7">
         <f t="shared" si="13"/>
         <v>6773582.6441327995</v>
       </c>
-      <c r="G134" s="8">
-        <f>E134/$B$5</f>
+      <c r="H134" s="8">
+        <f>F134/$C$5</f>
         <v>1387.648864333946</v>
       </c>
-      <c r="H134" s="8">
-        <f>E134/$B$6</f>
+      <c r="I134" s="8">
+        <f>F134/$C$6</f>
         <v>69382.443216697298</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="s">
+    <row r="135" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C135" s="5">
+        <v>32400</v>
+      </c>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B135" s="5">
-        <v>32400</v>
-      </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B136" s="10">
+      <c r="C136" s="10">
         <v>0.2</v>
       </c>
-      <c r="D136" s="4">
+      <c r="E136" s="4">
         <v>2</v>
       </c>
-      <c r="E136" s="7">
+      <c r="F136" s="7">
         <f t="shared" si="12"/>
         <v>3124161.2803939674</v>
       </c>
-      <c r="F136" s="7">
+      <c r="G136" s="7">
         <f t="shared" si="13"/>
         <v>3049816.7177453279</v>
       </c>
-      <c r="G136" s="8">
-        <f>E136/$B$5</f>
+      <c r="H136" s="8">
+        <f>F136/$C$5</f>
         <v>624.83225607879353</v>
       </c>
-      <c r="H136" s="8">
-        <f>E136/$B$6</f>
+      <c r="I136" s="8">
+        <f>F136/$C$6</f>
         <v>31241.612803939675</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B137" s="10">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B137" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="10">
         <v>0.24444444444444399</v>
       </c>
-      <c r="D137" s="4">
+      <c r="E137" s="4">
         <v>2</v>
       </c>
-      <c r="E137" s="7">
+      <c r="F137" s="7">
         <f t="shared" si="12"/>
         <v>3833302.5546321874</v>
       </c>
-      <c r="F137" s="7">
+      <c r="G137" s="7">
         <f t="shared" si="13"/>
         <v>3742082.8075235793</v>
       </c>
-      <c r="G137" s="8">
-        <f>E137/$B$5</f>
+      <c r="H137" s="8">
+        <f>F137/$C$5</f>
         <v>766.6605109264375</v>
       </c>
-      <c r="H137" s="8">
-        <f>E137/$B$6</f>
+      <c r="I137" s="8">
+        <f>F137/$C$6</f>
         <v>38333.025546321871</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B138" s="10">
+    <row r="138" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" s="10">
         <v>0.33333333333333298</v>
       </c>
-      <c r="D138" s="4">
+      <c r="E138" s="4">
         <v>2</v>
       </c>
-      <c r="E138" s="7">
+      <c r="F138" s="7">
         <f t="shared" si="12"/>
         <v>5251585.1031086436</v>
       </c>
-      <c r="F138" s="7">
+      <c r="G138" s="7">
         <f t="shared" si="13"/>
         <v>5126614.9870800981</v>
       </c>
-      <c r="G138" s="8">
-        <f>E138/$B$5</f>
+      <c r="H138" s="8">
+        <f>F138/$C$5</f>
         <v>1050.3170206217287</v>
       </c>
-      <c r="H138" s="8">
-        <f>E138/$B$6</f>
+      <c r="I138" s="8">
+        <f>F138/$C$6</f>
         <v>52515.851031086437</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B139" s="5">
+    <row r="139" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C139" s="5">
         <v>16200</v>
       </c>
-      <c r="E139" s="7"/>
       <c r="F139" s="7"/>
-      <c r="G139" s="8"/>
+      <c r="G139" s="7"/>
       <c r="H139" s="8"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B140" s="10">
+      <c r="I139" s="8"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B140" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C140" s="10">
         <v>0.2</v>
       </c>
-      <c r="D140" s="4">
+      <c r="E140" s="4">
         <v>2</v>
       </c>
-      <c r="E140" s="7">
+      <c r="F140" s="7">
         <f t="shared" si="12"/>
         <v>3124161.2803939674</v>
       </c>
-      <c r="F140" s="7">
+      <c r="G140" s="7">
         <f t="shared" si="13"/>
         <v>3049816.7177453279</v>
       </c>
-      <c r="G140" s="8">
-        <f>E140/$B$5</f>
+      <c r="H140" s="8">
+        <f>F140/$C$5</f>
         <v>624.83225607879353</v>
       </c>
-      <c r="H140" s="8">
-        <f>E140/$B$6</f>
+      <c r="I140" s="8">
+        <f>F140/$C$6</f>
         <v>31241.612803939675</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B141" s="10">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141" s="10">
         <v>0.266666666666667</v>
       </c>
-      <c r="D141" s="4">
+      <c r="E141" s="4">
         <v>2</v>
       </c>
-      <c r="E141" s="7">
-        <f t="shared" ref="E141:E144" si="22">$B$7/($B$11/D141+90+ROUNDUP(($B$11/D141/90/16-1),0)*0)*($B$11*(B141)-(16*12)-80)</f>
+      <c r="F141" s="7">
+        <f t="shared" ref="F141:F144" si="22">$C$7/($C$11/E141+90+ROUNDUP(($C$11/E141/90/16-1),0)*0)*($C$11*(C141)-(16*12)-80)</f>
         <v>4187873.1917513134</v>
       </c>
-      <c r="F141" s="7">
-        <f t="shared" ref="F141:F144" si="23">$B$7/($B$11/D141+90+ROUNDUP(($B$11/D141/90/16-1),0)*36)*($B$11*(B141)-(16*12)-80)</f>
+      <c r="G141" s="7">
+        <f t="shared" ref="G141:G144" si="23">$C$7/($C$11/E141+90+ROUNDUP(($C$11/E141/90/16-1),0)*36)*($C$11*(C141)-(16*12)-80)</f>
         <v>4088215.8524127207</v>
       </c>
-      <c r="G141" s="8">
-        <f>E141/$B$5</f>
+      <c r="H141" s="8">
+        <f>F141/$C$5</f>
         <v>837.57463835026272</v>
       </c>
-      <c r="H141" s="8">
-        <f>E141/$B$6</f>
+      <c r="I141" s="8">
+        <f>F141/$C$6</f>
         <v>41878.731917513134</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B142" s="10">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B142" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C142" s="10">
         <v>0.33333333333333298</v>
       </c>
-      <c r="D142" s="4">
+      <c r="E142" s="4">
         <v>2</v>
       </c>
-      <c r="E142" s="7">
+      <c r="F142" s="7">
         <f t="shared" si="22"/>
         <v>5251585.1031086436</v>
       </c>
-      <c r="F142" s="7">
+      <c r="G142" s="7">
         <f t="shared" si="23"/>
         <v>5126614.9870800981</v>
       </c>
-      <c r="G142" s="8">
-        <f>E142/$B$5</f>
+      <c r="H142" s="8">
+        <f>F142/$C$5</f>
         <v>1050.3170206217287</v>
       </c>
-      <c r="H142" s="8">
-        <f>E142/$B$6</f>
+      <c r="I142" s="8">
+        <f>F142/$C$6</f>
         <v>52515.851031086437</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B143" s="10">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C143" s="10">
         <v>0.5</v>
       </c>
-      <c r="D143" s="4">
+      <c r="E143" s="4">
         <v>2</v>
       </c>
-      <c r="E143" s="7">
+      <c r="F143" s="7">
         <f t="shared" si="22"/>
         <v>7910864.8815020006</v>
       </c>
-      <c r="F143" s="7">
+      <c r="G143" s="7">
         <f t="shared" si="23"/>
         <v>7722612.8237485727</v>
       </c>
-      <c r="G143" s="8">
-        <f>E143/$B$5</f>
+      <c r="H143" s="8">
+        <f>F143/$C$5</f>
         <v>1582.1729763004</v>
       </c>
-      <c r="H143" s="8">
-        <f>E143/$B$6</f>
+      <c r="I143" s="8">
+        <f>F143/$C$6</f>
         <v>79108.648815020002</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B144" s="10">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B144" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C144" s="10">
         <v>0.24444444444444399</v>
       </c>
-      <c r="D144" s="4">
+      <c r="E144" s="4">
         <v>2</v>
       </c>
-      <c r="E144" s="7">
+      <c r="F144" s="7">
         <f t="shared" si="22"/>
         <v>3833302.5546321874</v>
       </c>
-      <c r="F144" s="7">
+      <c r="G144" s="7">
         <f t="shared" si="23"/>
         <v>3742082.8075235793</v>
       </c>
-      <c r="G144" s="8">
-        <f>E144/$B$5</f>
+      <c r="H144" s="8">
+        <f>F144/$C$5</f>
         <v>766.6605109264375</v>
       </c>
-      <c r="H144" s="8">
-        <f>E144/$B$6</f>
+      <c r="I144" s="8">
+        <f>F144/$C$6</f>
         <v>38333.025546321871</v>
       </c>
     </row>
@@ -4173,4 +5483,653 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4.38</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="12">
+        <v>5.9</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="12">
+        <v>-1.46</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="12">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="12">
+        <v>-1.46</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="12">
+        <v>7.54</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="12">
+        <v>6.7</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="12">
+        <v>7.7</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="12">
+        <v>10.4</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="12">
+        <v>3.83</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="12">
+        <v>6.93</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="12">
+        <v>7.66</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="12">
+        <v>9.81</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>